--- a/Översikt ORUST.xlsx
+++ b/Översikt ORUST.xlsx
@@ -575,7 +575,7 @@
         <v>44476</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44326.68740740741</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,14 +750,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 49930-2024</t>
+          <t>A 74306-2021</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45597.57973379629</v>
+        <v>44559</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -770,16 +770,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>16.6</v>
+        <v>14.6</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -803,6 +803,282 @@
         <v>4</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Dvärglin
+Kösa
+Åkerrödtoppa
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 74306-2021 artfynd.xlsx", "A 74306-2021")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 74306-2021 karta.png", "A 74306-2021")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 74306-2021 FSC-klagomål.docx", "A 74306-2021")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 74306-2021 FSC-klagomål mail.docx", "A 74306-2021")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 74306-2021 tillsynsbegäran.docx", "A 74306-2021")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 74306-2021 tillsynsbegäran mail.docx", "A 74306-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 14805-2023</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45014</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ORUST</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Grönsångare
+Kambräken
+Purpurmylia</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 14805-2023 artfynd.xlsx", "A 14805-2023")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 14805-2023 karta.png", "A 14805-2023")</f>
+        <v/>
+      </c>
+      <c r="U5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 14805-2023 karta knärot.png", "A 14805-2023")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 14805-2023 FSC-klagomål.docx", "A 14805-2023")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 14805-2023 FSC-klagomål mail.docx", "A 14805-2023")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 14805-2023 tillsynsbegäran.docx", "A 14805-2023")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 14805-2023 tillsynsbegäran mail.docx", "A 14805-2023")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/fåglar/A 14805-2023 prioriterade fågelarter.docx", "A 14805-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 65099-2023</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45288</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ORUST</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Blockskapania
+Knärot
+Grov fjädermossa
+Stor revmossa</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 65099-2023 artfynd.xlsx", "A 65099-2023")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 65099-2023 karta.png", "A 65099-2023")</f>
+        <v/>
+      </c>
+      <c r="U6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 65099-2023 karta knärot.png", "A 65099-2023")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 65099-2023 FSC-klagomål.docx", "A 65099-2023")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 65099-2023 FSC-klagomål mail.docx", "A 65099-2023")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 65099-2023 tillsynsbegäran.docx", "A 65099-2023")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 65099-2023 tillsynsbegäran mail.docx", "A 65099-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 49930-2024</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45597.57973379629</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ORUST</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Motaggsvamp
 Svart trolldruva
@@ -810,304 +1086,28 @@
 Äkta lopplummer</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 49930-2024 artfynd.xlsx", "A 49930-2024")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 49930-2024 karta.png", "A 49930-2024")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 49930-2024 FSC-klagomål.docx", "A 49930-2024")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 49930-2024 FSC-klagomål mail.docx", "A 49930-2024")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 49930-2024 tillsynsbegäran.docx", "A 49930-2024")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 49930-2024 tillsynsbegäran mail.docx", "A 49930-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 14805-2023</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45014</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ORUST</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>4</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Grönsångare
-Kambräken
-Purpurmylia</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 14805-2023 artfynd.xlsx", "A 14805-2023")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 14805-2023 karta.png", "A 14805-2023")</f>
-        <v/>
-      </c>
-      <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 14805-2023 karta knärot.png", "A 14805-2023")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 14805-2023 FSC-klagomål.docx", "A 14805-2023")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 14805-2023 FSC-klagomål mail.docx", "A 14805-2023")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 14805-2023 tillsynsbegäran.docx", "A 14805-2023")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 14805-2023 tillsynsbegäran mail.docx", "A 14805-2023")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/fåglar/A 14805-2023 prioriterade fågelarter.docx", "A 14805-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 74306-2021</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>44559</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ORUST</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>3</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>4</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Dvärglin
-Kösa
-Åkerrödtoppa
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 74306-2021 artfynd.xlsx", "A 74306-2021")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 74306-2021 karta.png", "A 74306-2021")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 74306-2021 FSC-klagomål.docx", "A 74306-2021")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 74306-2021 FSC-klagomål mail.docx", "A 74306-2021")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 74306-2021 tillsynsbegäran.docx", "A 74306-2021")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 74306-2021 tillsynsbegäran mail.docx", "A 74306-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 65099-2023</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45288</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ORUST</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>4</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Blockskapania
-Knärot
-Grov fjädermossa
-Stor revmossa</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 65099-2023 artfynd.xlsx", "A 65099-2023")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 65099-2023 karta.png", "A 65099-2023")</f>
-        <v/>
-      </c>
-      <c r="U7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 65099-2023 karta knärot.png", "A 65099-2023")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 65099-2023 FSC-klagomål.docx", "A 65099-2023")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 65099-2023 FSC-klagomål mail.docx", "A 65099-2023")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 65099-2023 tillsynsbegäran.docx", "A 65099-2023")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 65099-2023 tillsynsbegäran mail.docx", "A 65099-2023")</f>
         <v/>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
         <v>44546</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>44266</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>45336</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>45791.5346875</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1467,14 +1467,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 13220-2024</t>
+          <t>A 49047-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45386.52466435185</v>
+        <v>45937.63695601852</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1487,19 +1487,19 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1514,56 +1514,52 @@
         <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Granspira</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 13220-2024 artfynd.xlsx", "A 13220-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 49047-2025 artfynd.xlsx", "A 49047-2025")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 13220-2024 karta.png", "A 13220-2024")</f>
-        <v/>
-      </c>
-      <c r="U12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 13220-2024 karta knärot.png", "A 13220-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 49047-2025 karta.png", "A 49047-2025")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 13220-2024 FSC-klagomål.docx", "A 13220-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 49047-2025 FSC-klagomål.docx", "A 49047-2025")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 13220-2024 FSC-klagomål mail.docx", "A 13220-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 49047-2025 FSC-klagomål mail.docx", "A 49047-2025")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 13220-2024 tillsynsbegäran.docx", "A 13220-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 49047-2025 tillsynsbegäran.docx", "A 49047-2025")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 13220-2024 tillsynsbegäran mail.docx", "A 13220-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 49047-2025 tillsynsbegäran mail.docx", "A 49047-2025")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 49047-2025</t>
+          <t>A 56035-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45937.63695601852</v>
+        <v>45973</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1576,19 +1572,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.2</v>
+        <v>15.9</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1603,52 +1599,56 @@
         <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Granspira</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 49047-2025 artfynd.xlsx", "A 49047-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 56035-2025 artfynd.xlsx", "A 56035-2025")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 49047-2025 karta.png", "A 49047-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 56035-2025 karta.png", "A 56035-2025")</f>
+        <v/>
+      </c>
+      <c r="U13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 56035-2025 karta knärot.png", "A 56035-2025")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 49047-2025 FSC-klagomål.docx", "A 49047-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 56035-2025 FSC-klagomål.docx", "A 56035-2025")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 49047-2025 FSC-klagomål mail.docx", "A 49047-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 56035-2025 FSC-klagomål mail.docx", "A 56035-2025")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 49047-2025 tillsynsbegäran.docx", "A 49047-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 56035-2025 tillsynsbegäran.docx", "A 56035-2025")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 49047-2025 tillsynsbegäran mail.docx", "A 49047-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 56035-2025 tillsynsbegäran mail.docx", "A 56035-2025")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 24618-2024</t>
+          <t>A 41056-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45460</v>
+        <v>45898</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1661,13 +1661,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>9.5</v>
+        <v>3.3</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1695,45 +1695,45 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 24618-2024 artfynd.xlsx", "A 24618-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 41056-2025 artfynd.xlsx", "A 41056-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 24618-2024 karta.png", "A 24618-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 41056-2025 karta.png", "A 41056-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 24618-2024 FSC-klagomål.docx", "A 24618-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 41056-2025 FSC-klagomål.docx", "A 41056-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 24618-2024 FSC-klagomål mail.docx", "A 24618-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 41056-2025 FSC-klagomål mail.docx", "A 41056-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 24618-2024 tillsynsbegäran.docx", "A 24618-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 41056-2025 tillsynsbegäran.docx", "A 41056-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 24618-2024 tillsynsbegäran mail.docx", "A 24618-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 41056-2025 tillsynsbegäran mail.docx", "A 41056-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 41056-2025</t>
+          <t>A 13220-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45898</v>
+        <v>45386.52466435185</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1749,17 +1749,17 @@
         <v>3.3</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>1</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
@@ -1770,55 +1770,59 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 41056-2025 artfynd.xlsx", "A 41056-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 13220-2024 artfynd.xlsx", "A 13220-2024")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 41056-2025 karta.png", "A 41056-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 13220-2024 karta.png", "A 13220-2024")</f>
+        <v/>
+      </c>
+      <c r="U15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 13220-2024 karta knärot.png", "A 13220-2024")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 41056-2025 FSC-klagomål.docx", "A 41056-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 13220-2024 FSC-klagomål.docx", "A 13220-2024")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 41056-2025 FSC-klagomål mail.docx", "A 41056-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 13220-2024 FSC-klagomål mail.docx", "A 13220-2024")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 41056-2025 tillsynsbegäran.docx", "A 41056-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 13220-2024 tillsynsbegäran.docx", "A 13220-2024")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 41056-2025 tillsynsbegäran mail.docx", "A 41056-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 13220-2024 tillsynsbegäran mail.docx", "A 13220-2024")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 56035-2025</t>
+          <t>A 58944-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45973</v>
+        <v>45987</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1831,7 +1835,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>15.9</v>
+        <v>8.4</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1869,45 +1873,45 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 56035-2025 artfynd.xlsx", "A 56035-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 58944-2025 artfynd.xlsx", "A 58944-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 56035-2025 karta.png", "A 56035-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 58944-2025 karta.png", "A 58944-2025")</f>
         <v/>
       </c>
       <c r="U16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 56035-2025 karta knärot.png", "A 56035-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 58944-2025 karta knärot.png", "A 58944-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 56035-2025 FSC-klagomål.docx", "A 56035-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 58944-2025 FSC-klagomål.docx", "A 58944-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 56035-2025 FSC-klagomål mail.docx", "A 56035-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 58944-2025 FSC-klagomål mail.docx", "A 58944-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 56035-2025 tillsynsbegäran.docx", "A 56035-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 58944-2025 tillsynsbegäran.docx", "A 58944-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 56035-2025 tillsynsbegäran mail.docx", "A 56035-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 58944-2025 tillsynsbegäran mail.docx", "A 58944-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 58944-2025</t>
+          <t>A 24618-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45987.57861111111</v>
+        <v>45460</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1920,7 +1924,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>8.4</v>
+        <v>9.5</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1932,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1944,59 +1948,55 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 58944-2025 artfynd.xlsx", "A 58944-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 24618-2024 artfynd.xlsx", "A 24618-2024")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 58944-2025 karta.png", "A 58944-2025")</f>
-        <v/>
-      </c>
-      <c r="U17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 58944-2025 karta knärot.png", "A 58944-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 24618-2024 karta.png", "A 24618-2024")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 58944-2025 FSC-klagomål.docx", "A 58944-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 24618-2024 FSC-klagomål.docx", "A 24618-2024")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 58944-2025 FSC-klagomål mail.docx", "A 58944-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 24618-2024 FSC-klagomål mail.docx", "A 24618-2024")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 58944-2025 tillsynsbegäran.docx", "A 58944-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 24618-2024 tillsynsbegäran.docx", "A 24618-2024")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 58944-2025 tillsynsbegäran mail.docx", "A 58944-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 24618-2024 tillsynsbegäran mail.docx", "A 24618-2024")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 5634-2025</t>
+          <t>A 20709-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45693.6689699074</v>
+        <v>45058</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -2047,45 +2047,45 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 5634-2025 artfynd.xlsx", "A 5634-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 20709-2023 artfynd.xlsx", "A 20709-2023")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 5634-2025 karta.png", "A 5634-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 20709-2023 karta.png", "A 20709-2023")</f>
         <v/>
       </c>
       <c r="U18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 5634-2025 karta knärot.png", "A 5634-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 20709-2023 karta knärot.png", "A 20709-2023")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 5634-2025 FSC-klagomål.docx", "A 5634-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 20709-2023 FSC-klagomål.docx", "A 20709-2023")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 5634-2025 FSC-klagomål mail.docx", "A 5634-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 20709-2023 FSC-klagomål mail.docx", "A 20709-2023")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 5634-2025 tillsynsbegäran.docx", "A 5634-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 20709-2023 tillsynsbegäran.docx", "A 20709-2023")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 5634-2025 tillsynsbegäran mail.docx", "A 5634-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 20709-2023 tillsynsbegäran mail.docx", "A 20709-2023")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 20086-2023</t>
+          <t>A 5634-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45054</v>
+        <v>45693.6689699074</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -2136,45 +2136,45 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 20086-2023 artfynd.xlsx", "A 20086-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 5634-2025 artfynd.xlsx", "A 5634-2025")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 20086-2023 karta.png", "A 20086-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 5634-2025 karta.png", "A 5634-2025")</f>
         <v/>
       </c>
       <c r="U19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 20086-2023 karta knärot.png", "A 20086-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 5634-2025 karta knärot.png", "A 5634-2025")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 20086-2023 FSC-klagomål.docx", "A 20086-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 5634-2025 FSC-klagomål.docx", "A 5634-2025")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 20086-2023 FSC-klagomål mail.docx", "A 20086-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 5634-2025 FSC-klagomål mail.docx", "A 5634-2025")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 20086-2023 tillsynsbegäran.docx", "A 20086-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 5634-2025 tillsynsbegäran.docx", "A 5634-2025")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 20086-2023 tillsynsbegäran mail.docx", "A 20086-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 5634-2025 tillsynsbegäran mail.docx", "A 5634-2025")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 20709-2023</t>
+          <t>A 20086-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45058</v>
+        <v>45054</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4.3</v>
+        <v>1.9</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -2225,31 +2225,31 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 20709-2023 artfynd.xlsx", "A 20709-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 20086-2023 artfynd.xlsx", "A 20086-2023")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 20709-2023 karta.png", "A 20709-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 20086-2023 karta.png", "A 20086-2023")</f>
         <v/>
       </c>
       <c r="U20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 20709-2023 karta knärot.png", "A 20709-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 20086-2023 karta knärot.png", "A 20086-2023")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 20709-2023 FSC-klagomål.docx", "A 20709-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 20086-2023 FSC-klagomål.docx", "A 20086-2023")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 20709-2023 FSC-klagomål mail.docx", "A 20709-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 20086-2023 FSC-klagomål mail.docx", "A 20086-2023")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 20709-2023 tillsynsbegäran.docx", "A 20709-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 20086-2023 tillsynsbegäran.docx", "A 20086-2023")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 20709-2023 tillsynsbegäran mail.docx", "A 20709-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 20086-2023 tillsynsbegäran mail.docx", "A 20086-2023")</f>
         <v/>
       </c>
     </row>
@@ -2263,7 +2263,7 @@
         <v>45581</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>44790</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>44250</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44445</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>44827</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>44448</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>44448</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>44529</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>44566.74335648148</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44386</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>44439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>44888.63157407408</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>44505.79013888889</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>44657</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>44480</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44610</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>44550</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>44694.73462962963</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>44694</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>44448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>44448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>44441</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>44448</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>44872.93511574074</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>44326</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>44531.34472222222</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3766,14 +3766,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 49134-2021</t>
+          <t>A 14609-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44453</v>
+        <v>45396.86570601852</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3785,13 +3785,8 @@
           <t>ORUST</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3828,14 +3823,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 36695-2025</t>
+          <t>A 62369-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45872</v>
+        <v>45268.30483796296</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3848,7 +3843,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.2</v>
+        <v>5.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3885,14 +3880,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 36722-2025</t>
+          <t>A 34217-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45872</v>
+        <v>44791</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3905,7 +3900,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3942,14 +3937,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 1288-2025</t>
+          <t>A 57877-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45667.50971064815</v>
+        <v>44899.8749537037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3962,7 +3957,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3999,14 +3994,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 36719-2025</t>
+          <t>A 22750-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45872</v>
+        <v>45448.41990740741</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4019,7 +4014,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4056,14 +4051,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 50532-2024</t>
+          <t>A 36999-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45601.56552083333</v>
+        <v>45155.24585648148</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4113,14 +4108,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 39219-2025</t>
+          <t>A 69193-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45888</v>
+        <v>44531</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4133,7 +4128,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4170,14 +4165,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 36404-2024</t>
+          <t>A 19005-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45535.70535879629</v>
+        <v>45045.60177083333</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4190,7 +4185,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>4</v>
+        <v>0.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4227,14 +4222,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 34380-2022</t>
+          <t>A 59309-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44792</v>
+        <v>45253.606875</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4247,7 +4242,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4284,14 +4279,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 24179-2025</t>
+          <t>A 55777-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45796.72856481482</v>
+        <v>44888.61921296296</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4304,7 +4299,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4341,14 +4336,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 20089-2025</t>
+          <t>A 63419-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45771</v>
+        <v>45274</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4361,7 +4356,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.6</v>
+        <v>6.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4398,14 +4393,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 14609-2024</t>
+          <t>A 43752-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45396.86570601852</v>
+        <v>45187</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4418,7 +4413,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.3</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4455,14 +4450,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 40442-2025</t>
+          <t>A 30440-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45895</v>
+        <v>45491.81488425926</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4475,7 +4470,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4512,14 +4507,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 59309-2023</t>
+          <t>A 49134-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45253.606875</v>
+        <v>44453</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4531,8 +4526,13 @@
           <t>ORUST</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4569,14 +4569,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 40328-2025</t>
+          <t>A 44754-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45895</v>
+        <v>45574.61065972222</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4626,14 +4626,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 40338-2025</t>
+          <t>A 39219-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45895</v>
+        <v>45888</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4683,14 +4683,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 56654-2025</t>
+          <t>A 44417-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45975.64869212963</v>
+        <v>45573.8249537037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4740,14 +4740,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 41063-2025</t>
+          <t>A 24179-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45898</v>
+        <v>45796.72856481482</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4797,14 +4797,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 40681-2025</t>
+          <t>A 49115-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45896.85623842593</v>
+        <v>45594.65954861111</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4854,14 +4854,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 47884-2024</t>
+          <t>A 27277-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45588.81101851852</v>
+        <v>45812.52674768519</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4911,14 +4911,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 41688-2025</t>
+          <t>A 27555-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45902.39888888889</v>
+        <v>45813.47424768518</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4968,14 +4968,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 39206-2024</t>
+          <t>A 40338-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45548.81200231481</v>
+        <v>45895</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5025,14 +5025,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 69193-2021</t>
+          <t>A 40328-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44531</v>
+        <v>45895</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5082,14 +5082,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 41881-2025</t>
+          <t>A 40442-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45903.36444444444</v>
+        <v>45895</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5139,14 +5139,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 42069-2025</t>
+          <t>A 54279-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45903.65700231482</v>
+        <v>45616.855</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.3</v>
+        <v>6.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5196,14 +5196,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 42457-2025</t>
+          <t>A 40681-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45905.45289351852</v>
+        <v>45896.85623842593</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5253,14 +5253,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 45088-2021</t>
+          <t>A 41063-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44439.391875</v>
+        <v>45898</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5310,14 +5310,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 58852-2025</t>
+          <t>A 47884-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45987.40355324074</v>
+        <v>45588.81101851852</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>4.9</v>
+        <v>0.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5367,14 +5367,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 58853-2025</t>
+          <t>A 41881-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45987.40476851852</v>
+        <v>45903.36444444444</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5424,14 +5424,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 59834-2025</t>
+          <t>A 42069-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45992.66811342593</v>
+        <v>45903.65700231482</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5481,14 +5481,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 23682-2024</t>
+          <t>A 41688-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45454.62754629629</v>
+        <v>45902.39888888889</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>4.1</v>
+        <v>1.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5538,14 +5538,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 22750-2024</t>
+          <t>A 71890-2021</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45448.41990740741</v>
+        <v>44543.78116898148</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5595,14 +5595,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 28109-2024</t>
+          <t>A 42457-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45476.63284722222</v>
+        <v>45905.45289351852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5652,14 +5652,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 5714-2024</t>
+          <t>A 6957-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45334.87804398148</v>
+        <v>45343.45112268518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5709,14 +5709,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 55777-2022</t>
+          <t>A 51993-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44888.61921296296</v>
+        <v>44872</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5766,14 +5766,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 2435-2026</t>
+          <t>A 40270-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>46036.90065972223</v>
+        <v>45554.64315972223</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5819,18 +5819,38 @@
         <v>0</v>
       </c>
       <c r="R82" s="2" t="inlineStr"/>
+      <c r="U82">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 40270-2024 karta knärot.png", "A 40270-2024")</f>
+        <v/>
+      </c>
+      <c r="V82">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 40270-2024 FSC-klagomål.docx", "A 40270-2024")</f>
+        <v/>
+      </c>
+      <c r="W82">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 40270-2024 FSC-klagomål mail.docx", "A 40270-2024")</f>
+        <v/>
+      </c>
+      <c r="X82">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 40270-2024 tillsynsbegäran.docx", "A 40270-2024")</f>
+        <v/>
+      </c>
+      <c r="Y82">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 40270-2024 tillsynsbegäran mail.docx", "A 40270-2024")</f>
+        <v/>
+      </c>
     </row>
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 2436-2026</t>
+          <t>A 13378-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>46036.90234953703</v>
+        <v>45005.50077546296</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5843,7 +5863,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5880,14 +5900,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 49822-2022</t>
+          <t>A 25925-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44862</v>
+        <v>45467.6122337963</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5900,7 +5920,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5937,14 +5957,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 57878-2022</t>
+          <t>A 22452-2021</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44899.875625</v>
+        <v>44326</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5957,7 +5977,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4.6</v>
+        <v>2.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5994,14 +6014,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 47405-2025</t>
+          <t>A 31617-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45930.61258101852</v>
+        <v>45833</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6014,7 +6034,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.1</v>
+        <v>3.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6051,14 +6071,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 47404-2025</t>
+          <t>A 43228-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45930.61149305556</v>
+        <v>45567.8855787037</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6071,7 +6091,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6108,14 +6128,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 49115-2024</t>
+          <t>A 47405-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45594.65954861111</v>
+        <v>45930.61258101852</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6128,7 +6148,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6165,14 +6185,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 3750-2022</t>
+          <t>A 47630-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44586.71618055556</v>
+        <v>45931.48855324074</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6185,7 +6205,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6222,14 +6242,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 47630-2025</t>
+          <t>A 47404-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45931.48855324074</v>
+        <v>45930.61149305556</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6242,7 +6262,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6279,14 +6299,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 61319-2025</t>
+          <t>A 33300-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>46000.94983796297</v>
+        <v>45840.93423611111</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6299,7 +6319,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.5</v>
+        <v>6.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6336,14 +6356,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 61320-2025</t>
+          <t>A 46121-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>46000.95591435185</v>
+        <v>45924</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6356,7 +6376,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>8.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6393,14 +6413,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 30440-2024</t>
+          <t>A 62516-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45491.81488425926</v>
+        <v>44924.61912037037</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6413,7 +6433,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6450,14 +6470,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 4114-2026</t>
+          <t>A 48419-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>46044.60348379629</v>
+        <v>45934.58502314815</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6470,7 +6490,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>7.1</v>
+        <v>7.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6507,14 +6527,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 62516-2022</t>
+          <t>A 46119-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44924.61912037037</v>
+        <v>45924</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6527,7 +6547,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.5</v>
+        <v>8.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6564,14 +6584,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 46119-2025</t>
+          <t>A 49072-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45924</v>
+        <v>45937.65501157408</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6584,7 +6604,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>8.9</v>
+        <v>1.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6621,14 +6641,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 46121-2025</t>
+          <t>A 33295-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45924</v>
+        <v>45840.92070601852</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6641,7 +6661,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>8.5</v>
+        <v>0.4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6678,14 +6698,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 48419-2025</t>
+          <t>A 33296-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45934.58502314815</v>
+        <v>45840.92538194444</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6698,7 +6718,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>7.7</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6735,14 +6755,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 49365-2025</t>
+          <t>A 33299-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45938.62341435185</v>
+        <v>45840.93229166666</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6755,7 +6775,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6792,14 +6812,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 49072-2025</t>
+          <t>A 49365-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45937.65501157408</v>
+        <v>45938.62341435185</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6812,7 +6832,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6849,14 +6869,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 40743-2024</t>
+          <t>A 5926-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45558.45</v>
+        <v>45336</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6869,7 +6889,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6906,14 +6926,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 49617-2023</t>
+          <t>A 6986-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45211</v>
+        <v>45343.48984953704</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6926,7 +6946,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4.4</v>
+        <v>1.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6963,14 +6983,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 62086-2022</t>
+          <t>A 34502-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44919.46138888889</v>
+        <v>45847.43163194445</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6983,7 +7003,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7020,14 +7040,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 20131-2025</t>
+          <t>A 34500-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45772.50918981482</v>
+        <v>45847.43075231482</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7040,7 +7060,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.5</v>
+        <v>7.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7077,14 +7097,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 6739-2026</t>
+          <t>A 20089-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>46056.69936342593</v>
+        <v>45771</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7097,7 +7117,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7134,14 +7154,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 51993-2022</t>
+          <t>A 61302-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44872</v>
+        <v>45645.90855324074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7154,7 +7174,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7191,14 +7211,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 771-2023</t>
+          <t>A 36722-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44931</v>
+        <v>45872</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7211,7 +7231,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7248,14 +7268,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 54128-2025</t>
+          <t>A 36695-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45964.45993055555</v>
+        <v>45872</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7268,7 +7288,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>5.6</v>
+        <v>2.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7305,14 +7325,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 6613-2021</t>
+          <t>A 5714-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44236</v>
+        <v>45334.87804398148</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7325,7 +7345,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>8.800000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7362,14 +7382,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 6957-2024</t>
+          <t>A 36719-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45343.45112268518</v>
+        <v>45872</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7382,7 +7402,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7419,14 +7439,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 34354-2023</t>
+          <t>A 34380-2022</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45139</v>
+        <v>44792</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7439,7 +7459,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7476,14 +7496,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 2632-2024</t>
+          <t>A 50532-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45313.97175925926</v>
+        <v>45601.56552083333</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7496,7 +7516,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>8.199999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7533,14 +7553,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 1663-2024</t>
+          <t>A 13377-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45306</v>
+        <v>45005.49668981481</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7553,7 +7573,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>6.1</v>
+        <v>2.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7590,14 +7610,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 33454-2023</t>
+          <t>A 37130-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45130</v>
+        <v>45539.57060185185</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7610,7 +7630,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>6</v>
+        <v>1.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7647,14 +7667,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 32175-2024</t>
+          <t>A 54128-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45511.61238425926</v>
+        <v>45964.45993055555</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7667,7 +7687,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.3</v>
+        <v>5.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7704,14 +7724,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 63626-2023</t>
+          <t>A 59915-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45275</v>
+        <v>45641.74975694445</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7724,7 +7744,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7761,14 +7781,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 2213-2025</t>
+          <t>A 5152-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45673.4359837963</v>
+        <v>45691.6000462963</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7781,7 +7801,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7818,14 +7838,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 38322-2023</t>
+          <t>A 1288-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45161.73658564815</v>
+        <v>45667.50971064815</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7838,7 +7858,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7875,14 +7895,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 37130-2024</t>
+          <t>A 42712-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45539.57060185185</v>
+        <v>45181.61869212963</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7895,7 +7915,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7932,14 +7952,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 57445-2024</t>
+          <t>A 56654-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45629.92240740741</v>
+        <v>45975.64869212963</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7952,7 +7972,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.6</v>
+        <v>3.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7989,14 +8009,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 23046-2024</t>
+          <t>A 50562-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45450.4240625</v>
+        <v>45601.59825231481</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8009,7 +8029,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>4.2</v>
+        <v>0.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8046,14 +8066,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 5617-2024</t>
+          <t>A 20131-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45334.58319444444</v>
+        <v>45772.50918981482</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8066,7 +8086,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8099,38 +8119,18 @@
         <v>0</v>
       </c>
       <c r="R122" s="2" t="inlineStr"/>
-      <c r="U122">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 5617-2024 karta knärot.png", "A 5617-2024")</f>
-        <v/>
-      </c>
-      <c r="V122">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 5617-2024 FSC-klagomål.docx", "A 5617-2024")</f>
-        <v/>
-      </c>
-      <c r="W122">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 5617-2024 FSC-klagomål mail.docx", "A 5617-2024")</f>
-        <v/>
-      </c>
-      <c r="X122">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 5617-2024 tillsynsbegäran.docx", "A 5617-2024")</f>
-        <v/>
-      </c>
-      <c r="Y122">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 5617-2024 tillsynsbegäran mail.docx", "A 5617-2024")</f>
-        <v/>
-      </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 5926-2024</t>
+          <t>A 5454-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45336</v>
+        <v>45692.98011574074</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8180,14 +8180,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 44233-2023</t>
+          <t>A 2213-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45183</v>
+        <v>45673.4359837963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8233,38 +8233,18 @@
         <v>0</v>
       </c>
       <c r="R124" s="2" t="inlineStr"/>
-      <c r="U124">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 44233-2023 karta knärot.png", "A 44233-2023")</f>
-        <v/>
-      </c>
-      <c r="V124">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 44233-2023 FSC-klagomål.docx", "A 44233-2023")</f>
-        <v/>
-      </c>
-      <c r="W124">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 44233-2023 FSC-klagomål mail.docx", "A 44233-2023")</f>
-        <v/>
-      </c>
-      <c r="X124">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 44233-2023 tillsynsbegäran.docx", "A 44233-2023")</f>
-        <v/>
-      </c>
-      <c r="Y124">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 44233-2023 tillsynsbegäran mail.docx", "A 44233-2023")</f>
-        <v/>
-      </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 20819-2023</t>
+          <t>A 58853-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45058</v>
+        <v>45987.40476851852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8277,7 +8257,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8314,14 +8294,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 14802-2023</t>
+          <t>A 58852-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45014</v>
+        <v>45987.40355324074</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8334,7 +8314,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.9</v>
+        <v>4.9</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8371,14 +8351,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 22452-2021</t>
+          <t>A 40722-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44326</v>
+        <v>45558.44460648148</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8391,7 +8371,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8428,14 +8408,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 43752-2023</t>
+          <t>A 36404-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45187</v>
+        <v>45535.70535879629</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8448,7 +8428,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>9.300000000000001</v>
+        <v>4</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8485,14 +8465,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 18954-2025</t>
+          <t>A 59834-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45764.51478009259</v>
+        <v>45992.66811342593</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8505,7 +8485,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>6.4</v>
+        <v>3.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8542,14 +8522,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 34217-2022</t>
+          <t>A 57445-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44791</v>
+        <v>45629.92240740741</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8562,7 +8542,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8599,14 +8579,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 63419-2023</t>
+          <t>A 2436-2026</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45274</v>
+        <v>46036.90234953703</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8619,7 +8599,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>6.4</v>
+        <v>2.6</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8656,14 +8636,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 37000-2023</t>
+          <t>A 2435-2026</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45155.26925925926</v>
+        <v>46036.90065972223</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8676,7 +8656,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>10.7</v>
+        <v>2.3</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8713,14 +8693,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 6986-2024</t>
+          <t>A 49822-2022</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45343.48984953704</v>
+        <v>44862</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8770,14 +8750,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 5715-2024</t>
+          <t>A 61319-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45334</v>
+        <v>46000.94983796297</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8790,7 +8770,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8827,14 +8807,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 5454-2025</t>
+          <t>A 61320-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45692.98011574074</v>
+        <v>46000.95591435185</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8847,7 +8827,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8884,14 +8864,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 19005-2023</t>
+          <t>A 4114-2026</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45045.60177083333</v>
+        <v>46044.60348379629</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8904,7 +8884,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.7</v>
+        <v>7.1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8941,14 +8921,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 34056-2024</t>
+          <t>A 38322-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45523.6125</v>
+        <v>45161.73658564815</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8961,7 +8941,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8998,14 +8978,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 59915-2024</t>
+          <t>A 40743-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45641.74975694445</v>
+        <v>45558.45</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9018,7 +8998,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9055,14 +9035,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 57877-2022</t>
+          <t>A 18954-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44899.8749537037</v>
+        <v>45764.51478009259</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9075,7 +9055,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.3</v>
+        <v>6.4</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9112,14 +9092,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 13378-2023</t>
+          <t>A 771-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45005.50077546296</v>
+        <v>44931</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9132,7 +9112,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9169,14 +9149,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 20898-2021</t>
+          <t>A 6739-2026</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44319.41962962963</v>
+        <v>46056.69936342593</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9189,7 +9169,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9226,14 +9206,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 25925-2024</t>
+          <t>A 20819-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45467.6122337963</v>
+        <v>45058</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9246,7 +9226,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9283,14 +9263,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 37522-2024</t>
+          <t>A 11356-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45541</v>
+        <v>45726.52880787037</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9303,7 +9283,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>10.2</v>
+        <v>1.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9340,14 +9320,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 34155-2024</t>
+          <t>A 34354-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45524.3860300926</v>
+        <v>45139</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9360,7 +9340,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.9</v>
+        <v>3.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9397,14 +9377,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 18791-2023</t>
+          <t>A 37000-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45044</v>
+        <v>45155.26925925926</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9417,7 +9397,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2</v>
+        <v>10.7</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9454,14 +9434,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 42712-2023</t>
+          <t>A 6485-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45181.61869212963</v>
+        <v>45339.40619212963</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9474,7 +9454,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9511,14 +9491,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 71890-2021</t>
+          <t>A 45088-2021</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44543.78116898148</v>
+        <v>44439.391875</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9531,7 +9511,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9568,14 +9548,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 49134-2021</t>
+          <t>A 49617-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44453</v>
+        <v>45211</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9587,13 +9567,8 @@
           <t>ORUST</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G148" t="n">
-        <v>1.8</v>
+        <v>4.4</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9630,14 +9605,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 46708-2023</t>
+          <t>A 23682-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45198</v>
+        <v>45454.62754629629</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9650,7 +9625,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9687,14 +9662,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 40722-2024</t>
+          <t>A 39206-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45558.44460648148</v>
+        <v>45548.81200231481</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9707,7 +9682,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9744,14 +9719,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 62369-2023</t>
+          <t>A 5715-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45268.30483796296</v>
+        <v>45334</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9764,7 +9739,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>5.4</v>
+        <v>1.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9801,14 +9776,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 43228-2024</t>
+          <t>A 5617-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45567.8855787037</v>
+        <v>45334.58319444444</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9854,18 +9829,38 @@
         <v>0</v>
       </c>
       <c r="R152" s="2" t="inlineStr"/>
+      <c r="U152">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 5617-2024 karta knärot.png", "A 5617-2024")</f>
+        <v/>
+      </c>
+      <c r="V152">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 5617-2024 FSC-klagomål.docx", "A 5617-2024")</f>
+        <v/>
+      </c>
+      <c r="W152">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 5617-2024 FSC-klagomål mail.docx", "A 5617-2024")</f>
+        <v/>
+      </c>
+      <c r="X152">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 5617-2024 tillsynsbegäran.docx", "A 5617-2024")</f>
+        <v/>
+      </c>
+      <c r="Y152">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 5617-2024 tillsynsbegäran mail.docx", "A 5617-2024")</f>
+        <v/>
+      </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 14547-2022</t>
+          <t>A 34056-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44655</v>
+        <v>45523.6125</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9878,7 +9873,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9915,14 +9910,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 40270-2024</t>
+          <t>A 6613-2021</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45554.64315972223</v>
+        <v>44236</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9935,7 +9930,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9968,38 +9963,18 @@
         <v>0</v>
       </c>
       <c r="R154" s="2" t="inlineStr"/>
-      <c r="U154">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 40270-2024 karta knärot.png", "A 40270-2024")</f>
-        <v/>
-      </c>
-      <c r="V154">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 40270-2024 FSC-klagomål.docx", "A 40270-2024")</f>
-        <v/>
-      </c>
-      <c r="W154">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 40270-2024 FSC-klagomål mail.docx", "A 40270-2024")</f>
-        <v/>
-      </c>
-      <c r="X154">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 40270-2024 tillsynsbegäran.docx", "A 40270-2024")</f>
-        <v/>
-      </c>
-      <c r="Y154">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 40270-2024 tillsynsbegäran mail.docx", "A 40270-2024")</f>
-        <v/>
-      </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 11356-2025</t>
+          <t>A 3750-2022</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45726.52880787037</v>
+        <v>44586.71618055556</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10012,7 +9987,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10049,14 +10024,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 6485-2024</t>
+          <t>A 37522-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45339.40619212963</v>
+        <v>45541</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10069,7 +10044,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.9</v>
+        <v>10.2</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10106,14 +10081,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 13377-2023</t>
+          <t>A 23046-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45005.49668981481</v>
+        <v>45450.4240625</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10126,7 +10101,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10163,14 +10138,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 61302-2024</t>
+          <t>A 44233-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45645.90855324074</v>
+        <v>45183</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10183,7 +10158,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10216,18 +10191,38 @@
         <v>0</v>
       </c>
       <c r="R158" s="2" t="inlineStr"/>
+      <c r="U158">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 44233-2023 karta knärot.png", "A 44233-2023")</f>
+        <v/>
+      </c>
+      <c r="V158">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 44233-2023 FSC-klagomål.docx", "A 44233-2023")</f>
+        <v/>
+      </c>
+      <c r="W158">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 44233-2023 FSC-klagomål mail.docx", "A 44233-2023")</f>
+        <v/>
+      </c>
+      <c r="X158">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 44233-2023 tillsynsbegäran.docx", "A 44233-2023")</f>
+        <v/>
+      </c>
+      <c r="Y158">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 44233-2023 tillsynsbegäran mail.docx", "A 44233-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 50562-2024</t>
+          <t>A 14547-2022</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45601.59825231481</v>
+        <v>44655</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10240,7 +10235,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.9</v>
+        <v>3.8</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10277,14 +10272,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 36999-2023</t>
+          <t>A 18791-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45155.24585648148</v>
+        <v>45044</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10297,7 +10292,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10334,14 +10329,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 5152-2025</t>
+          <t>A 28109-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45691.6000462963</v>
+        <v>45476.63284722222</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10354,7 +10349,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10391,14 +10386,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 13243-2023</t>
+          <t>A 63626-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45002</v>
+        <v>45275</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10411,7 +10406,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>4.8</v>
+        <v>2.4</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10448,14 +10443,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 22959-2025</t>
+          <t>A 32175-2024</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45790</v>
+        <v>45511.61238425926</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10468,7 +10463,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10505,14 +10500,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 9937-2025</t>
+          <t>A 34155-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45718.64129629629</v>
+        <v>45524.3860300926</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10525,7 +10520,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10562,14 +10557,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 23258-2025</t>
+          <t>A 20898-2021</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45791.53902777778</v>
+        <v>44319.41962962963</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10582,7 +10577,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10619,14 +10614,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 13521-2025</t>
+          <t>A 46708-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45736.48755787037</v>
+        <v>45198</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10639,7 +10634,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10676,14 +10671,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 13536-2025</t>
+          <t>A 62086-2022</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45736.51413194444</v>
+        <v>44919.46138888889</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10696,7 +10691,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10733,14 +10728,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 14760-2025</t>
+          <t>A 49134-2021</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45742</v>
+        <v>44453</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10752,8 +10747,13 @@
           <t>ORUST</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G168" t="n">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10790,14 +10790,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 23259-2025</t>
+          <t>A 57878-2022</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45791.53978009259</v>
+        <v>44899.875625</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.6</v>
+        <v>4.6</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10847,14 +10847,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 23254-2025</t>
+          <t>A 14802-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45791.5340162037</v>
+        <v>45014</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10867,7 +10867,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10904,14 +10904,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 34046-2024</t>
+          <t>A 2632-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45523.60449074074</v>
+        <v>45313.97175925926</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>4.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10961,14 +10961,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 24321-2025</t>
+          <t>A 1663-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45797</v>
+        <v>45306</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.6</v>
+        <v>6.1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11018,14 +11018,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 44417-2024</t>
+          <t>A 33454-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45573.8249537037</v>
+        <v>45130</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11075,14 +11075,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 44754-2024</t>
+          <t>A 13243-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45574.61065972222</v>
+        <v>45002</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.7</v>
+        <v>4.8</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11132,14 +11132,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 27277-2025</t>
+          <t>A 22959-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45812.52674768519</v>
+        <v>45790</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11189,14 +11189,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 27555-2025</t>
+          <t>A 23258-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45813.47424768518</v>
+        <v>45791.53902777778</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11246,14 +11246,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 54279-2024</t>
+          <t>A 23254-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45616.855</v>
+        <v>45791.5340162037</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>6.9</v>
+        <v>1.1</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11303,14 +11303,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 31617-2025</t>
+          <t>A 14760-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45833</v>
+        <v>45742</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11360,14 +11360,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 33300-2025</t>
+          <t>A 9937-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45840.93423611111</v>
+        <v>45718.64129629629</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>6.4</v>
+        <v>2.3</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11417,14 +11417,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 33295-2025</t>
+          <t>A 23259-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45840.92070601852</v>
+        <v>45791.53978009259</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11474,14 +11474,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 33296-2025</t>
+          <t>A 13521-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45840.92538194444</v>
+        <v>45736.48755787037</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11531,14 +11531,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 33299-2025</t>
+          <t>A 13536-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45840.93229166666</v>
+        <v>45736.51413194444</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11588,14 +11588,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 34500-2025</t>
+          <t>A 24321-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45847.43075231482</v>
+        <v>45797</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>7.4</v>
+        <v>0.6</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11645,14 +11645,14 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 34502-2025</t>
+          <t>A 34046-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45847.43163194445</v>
+        <v>45523.60449074074</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11665,7 +11665,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.6</v>
+        <v>4.2</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>

--- a/Översikt ORUST.xlsx
+++ b/Översikt ORUST.xlsx
@@ -575,7 +575,7 @@
         <v>44476</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44326.68740740741</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>44559</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>45014</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>45288</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>45597.57973379629</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44546</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>44266</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>45336</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>45791.5346875</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>45937.63695601852</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>45973</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>45898</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>45386.52466435185</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>45987</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>45460</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>45058</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>45693.6689699074</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>45054</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>45581</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>44790</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>44250</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44445</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>44827</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>44448</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>44448</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>44529</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>44566.74335648148</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44386</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>44439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>44888.63157407408</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>44505.79013888889</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>44657</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>44480</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44610</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>44550</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>44694.73462962963</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>44694</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>44448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>44448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>44441</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>44448</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>44872.93511574074</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>44326</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>44531.34472222222</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>45396.86570601852</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>45268.30483796296</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>44791</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>44899.8749537037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>45448.41990740741</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>45155.24585648148</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>44531</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>45045.60177083333</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>45253.606875</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>44888.61921296296</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>45274</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>45187</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>45491.81488425926</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>44453</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>45574.61065972222</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>45888</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>45573.8249537037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>45796.72856481482</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>45594.65954861111</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>45812.52674768519</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>45813.47424768518</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>45895</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>45895</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>45895</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5146,7 +5146,7 @@
         <v>45616.855</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         <v>45896.85623842593</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         <v>45898</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         <v>45588.81101851852</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         <v>45903.36444444444</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
         <v>45903.65700231482</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         <v>45902.39888888889</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
         <v>44543.78116898148</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>45905.45289351852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>45343.45112268518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         <v>44872</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>45554.64315972223</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5850,7 +5850,7 @@
         <v>45005.50077546296</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5907,7 +5907,7 @@
         <v>45467.6122337963</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5964,7 +5964,7 @@
         <v>44326</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         <v>45833</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6078,7 +6078,7 @@
         <v>45567.8855787037</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6135,7 +6135,7 @@
         <v>45930.61258101852</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6192,7 +6192,7 @@
         <v>45931.48855324074</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
         <v>45930.61149305556</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         <v>45840.93423611111</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6363,7 +6363,7 @@
         <v>45924</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6420,7 +6420,7 @@
         <v>44924.61912037037</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6477,7 +6477,7 @@
         <v>45934.58502314815</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6534,7 +6534,7 @@
         <v>45924</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6591,7 +6591,7 @@
         <v>45937.65501157408</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6648,7 +6648,7 @@
         <v>45840.92070601852</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6705,7 +6705,7 @@
         <v>45840.92538194444</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6762,7 +6762,7 @@
         <v>45840.93229166666</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>45938.62341435185</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         <v>45336</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6933,7 +6933,7 @@
         <v>45343.48984953704</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6990,7 +6990,7 @@
         <v>45847.43163194445</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         <v>45847.43075231482</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>45771</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
         <v>45645.90855324074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>45872</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>45872</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>45334.87804398148</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>45872</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>44792</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>45601.56552083333</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>45005.49668981481</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>45539.57060185185</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>45964.45993055555</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>45641.74975694445</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>45691.6000462963</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>45667.50971064815</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>45181.61869212963</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7959,7 +7959,7 @@
         <v>45975.64869212963</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>45601.59825231481</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         <v>45772.50918981482</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         <v>45692.98011574074</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8187,7 +8187,7 @@
         <v>45673.4359837963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>45987.40476851852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         <v>45987.40355324074</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>45558.44460648148</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>45535.70535879629</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>45992.66811342593</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>45629.92240740741</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>46036.90234953703</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>46036.90065972223</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>44862</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>46000.94983796297</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>46000.95591435185</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>46044.60348379629</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>45161.73658564815</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>45558.45</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>45764.51478009259</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>44931</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>46056.69936342593</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>45058</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
         <v>45726.52880787037</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>45139</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>45155.26925925926</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>45339.40619212963</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>44439.391875</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>45211</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>45454.62754629629</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>45548.81200231481</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>45334</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9783,7 +9783,7 @@
         <v>45334.58319444444</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9860,7 +9860,7 @@
         <v>45523.6125</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9917,7 +9917,7 @@
         <v>44236</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>44586.71618055556</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>45541</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10088,7 +10088,7 @@
         <v>45450.4240625</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10145,7 +10145,7 @@
         <v>45183</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10222,7 +10222,7 @@
         <v>44655</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>45044</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10336,7 +10336,7 @@
         <v>45476.63284722222</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
         <v>45275</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10450,7 +10450,7 @@
         <v>45511.61238425926</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>45524.3860300926</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>44319.41962962963</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>45198</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>44919.46138888889</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>44453</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10797,7 +10797,7 @@
         <v>44899.875625</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10854,7 +10854,7 @@
         <v>45014</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10911,7 +10911,7 @@
         <v>45313.97175925926</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10968,7 +10968,7 @@
         <v>45306</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11025,7 +11025,7 @@
         <v>45130</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11082,7 +11082,7 @@
         <v>45002</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11139,7 +11139,7 @@
         <v>45790</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11196,7 +11196,7 @@
         <v>45791.53902777778</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11253,7 +11253,7 @@
         <v>45791.5340162037</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11310,7 +11310,7 @@
         <v>45742</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>45718.64129629629</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>45791.53978009259</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>45736.48755787037</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>45736.51413194444</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>45797</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>45523.60449074074</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>

--- a/Översikt ORUST.xlsx
+++ b/Översikt ORUST.xlsx
@@ -575,7 +575,7 @@
         <v>44476</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44326.68740740741</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>44559</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>45014</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>45288</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>45597.57973379629</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44546</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>44266</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>45336</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>45791.5346875</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>45937.63695601852</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>45973</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>45898</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>45386.52466435185</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>45987</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>45460</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>45058</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>45693.6689699074</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>45054</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>45581</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>44790</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>44250</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44445</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>44827</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>44448</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>44448</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>44529</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>44566.74335648148</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44386</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>44439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>44888.63157407408</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>44505.79013888889</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>44657</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>44480</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44610</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>44550</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>44694.73462962963</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>44694</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>44448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>44448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>44441</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>44448</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>44872.93511574074</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>44326</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>44531.34472222222</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>45396.86570601852</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>45268.30483796296</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>44791</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>44899.8749537037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>45448.41990740741</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>45155.24585648148</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>44531</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>45045.60177083333</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>45253.606875</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>44888.61921296296</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>45274</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>45187</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>45491.81488425926</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>44453</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>45574.61065972222</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>45888</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>45573.8249537037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>45796.72856481482</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>45594.65954861111</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>45812.52674768519</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>45813.47424768518</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>45895</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>45895</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>45895</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5146,7 +5146,7 @@
         <v>45616.855</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         <v>45896.85623842593</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         <v>45898</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         <v>45588.81101851852</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         <v>45903.36444444444</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
         <v>45903.65700231482</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         <v>45902.39888888889</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
         <v>44543.78116898148</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>45905.45289351852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>45343.45112268518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         <v>44872</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>45554.64315972223</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5850,7 +5850,7 @@
         <v>45005.50077546296</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5907,7 +5907,7 @@
         <v>45467.6122337963</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5964,7 +5964,7 @@
         <v>44326</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         <v>45833</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6078,7 +6078,7 @@
         <v>45567.8855787037</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6135,7 +6135,7 @@
         <v>45930.61258101852</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6192,7 +6192,7 @@
         <v>45931.48855324074</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
         <v>45930.61149305556</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         <v>45840.93423611111</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6363,7 +6363,7 @@
         <v>45924</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6420,7 +6420,7 @@
         <v>44924.61912037037</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6477,7 +6477,7 @@
         <v>45934.58502314815</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6534,7 +6534,7 @@
         <v>45924</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6591,7 +6591,7 @@
         <v>45937.65501157408</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6648,7 +6648,7 @@
         <v>45840.92070601852</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6705,7 +6705,7 @@
         <v>45840.92538194444</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6762,7 +6762,7 @@
         <v>45840.93229166666</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>45938.62341435185</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         <v>45336</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6933,7 +6933,7 @@
         <v>45343.48984953704</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6990,7 +6990,7 @@
         <v>45847.43163194445</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         <v>45847.43075231482</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>45771</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
         <v>45645.90855324074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>45872</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>45872</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>45334.87804398148</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>45872</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>44792</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>45601.56552083333</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>45005.49668981481</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>45539.57060185185</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>45964.45993055555</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>45641.74975694445</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>45691.6000462963</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>45667.50971064815</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>45181.61869212963</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7959,7 +7959,7 @@
         <v>45975.64869212963</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>45601.59825231481</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         <v>45772.50918981482</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         <v>45692.98011574074</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8187,7 +8187,7 @@
         <v>45673.4359837963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>45987.40476851852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         <v>45987.40355324074</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>45558.44460648148</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>45535.70535879629</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>45992.66811342593</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>45629.92240740741</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>46036.90234953703</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>46036.90065972223</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>44862</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>46000.94983796297</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>46000.95591435185</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>46044.60348379629</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>45161.73658564815</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>45558.45</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>45764.51478009259</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>44931</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>46056.69936342593</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>45058</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
         <v>45726.52880787037</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>45139</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>45155.26925925926</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>45339.40619212963</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>44439.391875</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>45211</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>45454.62754629629</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>45548.81200231481</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>45334</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9783,7 +9783,7 @@
         <v>45334.58319444444</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9860,7 +9860,7 @@
         <v>45523.6125</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9917,7 +9917,7 @@
         <v>44236</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>44586.71618055556</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>45541</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10088,7 +10088,7 @@
         <v>45450.4240625</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10145,7 +10145,7 @@
         <v>45183</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10222,7 +10222,7 @@
         <v>44655</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>45044</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10336,7 +10336,7 @@
         <v>45476.63284722222</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
         <v>45275</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10450,7 +10450,7 @@
         <v>45511.61238425926</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>45524.3860300926</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>44319.41962962963</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>45198</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>44919.46138888889</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>44453</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10797,7 +10797,7 @@
         <v>44899.875625</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10854,7 +10854,7 @@
         <v>45014</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10911,7 +10911,7 @@
         <v>45313.97175925926</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10968,7 +10968,7 @@
         <v>45306</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11025,7 +11025,7 @@
         <v>45130</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11082,7 +11082,7 @@
         <v>45002</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11139,7 +11139,7 @@
         <v>45790</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11196,7 +11196,7 @@
         <v>45791.53902777778</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11253,7 +11253,7 @@
         <v>45791.5340162037</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11310,7 +11310,7 @@
         <v>45742</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>45718.64129629629</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>45791.53978009259</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>45736.48755787037</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>45736.51413194444</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>45797</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>45523.60449074074</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>

--- a/Översikt ORUST.xlsx
+++ b/Översikt ORUST.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z184"/>
+  <dimension ref="A1:Z183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44476</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44326.68740740741</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,14 +750,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 74306-2021</t>
+          <t>A 49930-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44559</v>
+        <v>45597.57973379629</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -770,16 +770,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>14.6</v>
+        <v>16.6</v>
       </c>
       <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -803,6 +803,190 @@
         <v>4</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Motaggsvamp
+Svart trolldruva
+Revlummer
+Äkta lopplummer</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 49930-2024 artfynd.xlsx", "A 49930-2024")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 49930-2024 karta.png", "A 49930-2024")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 49930-2024 FSC-klagomål.docx", "A 49930-2024")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 49930-2024 FSC-klagomål mail.docx", "A 49930-2024")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 49930-2024 tillsynsbegäran.docx", "A 49930-2024")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 49930-2024 tillsynsbegäran mail.docx", "A 49930-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 14805-2023</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45014</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ORUST</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Grönsångare
+Kambräken
+Purpurmylia</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 14805-2023 artfynd.xlsx", "A 14805-2023")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 14805-2023 karta.png", "A 14805-2023")</f>
+        <v/>
+      </c>
+      <c r="U5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 14805-2023 karta knärot.png", "A 14805-2023")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 14805-2023 FSC-klagomål.docx", "A 14805-2023")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 14805-2023 FSC-klagomål mail.docx", "A 14805-2023")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 14805-2023 tillsynsbegäran.docx", "A 14805-2023")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 14805-2023 tillsynsbegäran mail.docx", "A 14805-2023")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/fåglar/A 14805-2023 prioriterade fågelarter.docx", "A 14805-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 74306-2021</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>44559</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ORUST</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Dvärglin
 Kösa
@@ -810,183 +994,87 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 74306-2021 artfynd.xlsx", "A 74306-2021")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 74306-2021 karta.png", "A 74306-2021")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 74306-2021 FSC-klagomål.docx", "A 74306-2021")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 74306-2021 FSC-klagomål mail.docx", "A 74306-2021")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 74306-2021 tillsynsbegäran.docx", "A 74306-2021")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 74306-2021 tillsynsbegäran mail.docx", "A 74306-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 14805-2023</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45014</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ORUST</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H5" t="n">
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 65099-2023</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45288</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ORUST</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
         <v>2</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
         <v>2</v>
       </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>2</v>
       </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
+      <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="n">
         <v>4</v>
       </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Grönsångare
-Kambräken
-Purpurmylia</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 14805-2023 artfynd.xlsx", "A 14805-2023")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 14805-2023 karta.png", "A 14805-2023")</f>
-        <v/>
-      </c>
-      <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 14805-2023 karta knärot.png", "A 14805-2023")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 14805-2023 FSC-klagomål.docx", "A 14805-2023")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 14805-2023 FSC-klagomål mail.docx", "A 14805-2023")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 14805-2023 tillsynsbegäran.docx", "A 14805-2023")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 14805-2023 tillsynsbegäran mail.docx", "A 14805-2023")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/fåglar/A 14805-2023 prioriterade fågelarter.docx", "A 14805-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 65099-2023</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45288</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ORUST</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>4</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Blockskapania
 Knärot
@@ -994,120 +1082,32 @@
 Stor revmossa</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 65099-2023 artfynd.xlsx", "A 65099-2023")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 65099-2023 karta.png", "A 65099-2023")</f>
         <v/>
       </c>
-      <c r="U6">
+      <c r="U7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 65099-2023 karta knärot.png", "A 65099-2023")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 65099-2023 FSC-klagomål.docx", "A 65099-2023")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 65099-2023 FSC-klagomål mail.docx", "A 65099-2023")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 65099-2023 tillsynsbegäran.docx", "A 65099-2023")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 65099-2023 tillsynsbegäran mail.docx", "A 65099-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 49930-2024</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45597.57973379629</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ORUST</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>4</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Motaggsvamp
-Svart trolldruva
-Revlummer
-Äkta lopplummer</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 49930-2024 artfynd.xlsx", "A 49930-2024")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 49930-2024 karta.png", "A 49930-2024")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 49930-2024 FSC-klagomål.docx", "A 49930-2024")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 49930-2024 FSC-klagomål mail.docx", "A 49930-2024")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 49930-2024 tillsynsbegäran.docx", "A 49930-2024")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 49930-2024 tillsynsbegäran mail.docx", "A 49930-2024")</f>
         <v/>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
         <v>44546</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>44266</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>45336</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>45791.5346875</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1467,14 +1467,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 49047-2025</t>
+          <t>A 13220-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45937.63695601852</v>
+        <v>45386.52466435185</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1487,19 +1487,19 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1514,52 +1514,56 @@
         <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Granspira</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 49047-2025 artfynd.xlsx", "A 49047-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 13220-2024 artfynd.xlsx", "A 13220-2024")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 49047-2025 karta.png", "A 49047-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 13220-2024 karta.png", "A 13220-2024")</f>
+        <v/>
+      </c>
+      <c r="U12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 13220-2024 karta knärot.png", "A 13220-2024")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 49047-2025 FSC-klagomål.docx", "A 49047-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 13220-2024 FSC-klagomål.docx", "A 13220-2024")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 49047-2025 FSC-klagomål mail.docx", "A 49047-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 13220-2024 FSC-klagomål mail.docx", "A 13220-2024")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 49047-2025 tillsynsbegäran.docx", "A 49047-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 13220-2024 tillsynsbegäran.docx", "A 13220-2024")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 49047-2025 tillsynsbegäran mail.docx", "A 49047-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 13220-2024 tillsynsbegäran mail.docx", "A 13220-2024")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 56035-2025</t>
+          <t>A 24618-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45973</v>
+        <v>45460</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1572,7 +1576,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>15.9</v>
+        <v>9.5</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -1584,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1596,59 +1600,55 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 56035-2025 artfynd.xlsx", "A 56035-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 24618-2024 artfynd.xlsx", "A 24618-2024")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 56035-2025 karta.png", "A 56035-2025")</f>
-        <v/>
-      </c>
-      <c r="U13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 56035-2025 karta knärot.png", "A 56035-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 24618-2024 karta.png", "A 24618-2024")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 56035-2025 FSC-klagomål.docx", "A 56035-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 24618-2024 FSC-klagomål.docx", "A 24618-2024")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 56035-2025 FSC-klagomål mail.docx", "A 56035-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 24618-2024 FSC-klagomål mail.docx", "A 24618-2024")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 56035-2025 tillsynsbegäran.docx", "A 56035-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 24618-2024 tillsynsbegäran.docx", "A 24618-2024")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 56035-2025 tillsynsbegäran mail.docx", "A 56035-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 24618-2024 tillsynsbegäran mail.docx", "A 24618-2024")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 41056-2025</t>
+          <t>A 5634-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45898</v>
+        <v>45693.6689699074</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1661,20 +1661,20 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>1</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
@@ -1685,55 +1685,59 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 41056-2025 artfynd.xlsx", "A 41056-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 5634-2025 artfynd.xlsx", "A 5634-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 41056-2025 karta.png", "A 41056-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 5634-2025 karta.png", "A 5634-2025")</f>
+        <v/>
+      </c>
+      <c r="U14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 5634-2025 karta knärot.png", "A 5634-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 41056-2025 FSC-klagomål.docx", "A 41056-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 5634-2025 FSC-klagomål.docx", "A 5634-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 41056-2025 FSC-klagomål mail.docx", "A 41056-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 5634-2025 FSC-klagomål mail.docx", "A 5634-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 41056-2025 tillsynsbegäran.docx", "A 41056-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 5634-2025 tillsynsbegäran.docx", "A 5634-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 41056-2025 tillsynsbegäran mail.docx", "A 41056-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 5634-2025 tillsynsbegäran mail.docx", "A 5634-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 13220-2024</t>
+          <t>A 49047-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45386.52466435185</v>
+        <v>45937.63695601852</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1746,19 +1750,19 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1773,56 +1777,52 @@
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Granspira</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 13220-2024 artfynd.xlsx", "A 13220-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 49047-2025 artfynd.xlsx", "A 49047-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 13220-2024 karta.png", "A 13220-2024")</f>
-        <v/>
-      </c>
-      <c r="U15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 13220-2024 karta knärot.png", "A 13220-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 49047-2025 karta.png", "A 49047-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 13220-2024 FSC-klagomål.docx", "A 13220-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 49047-2025 FSC-klagomål.docx", "A 49047-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 13220-2024 FSC-klagomål mail.docx", "A 13220-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 49047-2025 FSC-klagomål mail.docx", "A 49047-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 13220-2024 tillsynsbegäran.docx", "A 13220-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 49047-2025 tillsynsbegäran.docx", "A 49047-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 13220-2024 tillsynsbegäran mail.docx", "A 13220-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 49047-2025 tillsynsbegäran mail.docx", "A 49047-2025")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 58944-2025</t>
+          <t>A 56035-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45987</v>
+        <v>45973</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>8.4</v>
+        <v>15.9</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1873,45 +1873,45 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 58944-2025 artfynd.xlsx", "A 58944-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 56035-2025 artfynd.xlsx", "A 56035-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 58944-2025 karta.png", "A 58944-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 56035-2025 karta.png", "A 56035-2025")</f>
         <v/>
       </c>
       <c r="U16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 58944-2025 karta knärot.png", "A 58944-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 56035-2025 karta knärot.png", "A 56035-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 58944-2025 FSC-klagomål.docx", "A 58944-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 56035-2025 FSC-klagomål.docx", "A 56035-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 58944-2025 FSC-klagomål mail.docx", "A 58944-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 56035-2025 FSC-klagomål mail.docx", "A 56035-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 58944-2025 tillsynsbegäran.docx", "A 58944-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 56035-2025 tillsynsbegäran.docx", "A 56035-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 58944-2025 tillsynsbegäran mail.docx", "A 58944-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 56035-2025 tillsynsbegäran mail.docx", "A 56035-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 24618-2024</t>
+          <t>A 41056-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45460</v>
+        <v>45898</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1924,13 +1924,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>9.5</v>
+        <v>3.3</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1958,45 +1958,45 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 24618-2024 artfynd.xlsx", "A 24618-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 41056-2025 artfynd.xlsx", "A 41056-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 24618-2024 karta.png", "A 24618-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 41056-2025 karta.png", "A 41056-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 24618-2024 FSC-klagomål.docx", "A 24618-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 41056-2025 FSC-klagomål.docx", "A 41056-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 24618-2024 FSC-klagomål mail.docx", "A 24618-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 41056-2025 FSC-klagomål mail.docx", "A 41056-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 24618-2024 tillsynsbegäran.docx", "A 24618-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 41056-2025 tillsynsbegäran.docx", "A 41056-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 24618-2024 tillsynsbegäran mail.docx", "A 24618-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 41056-2025 tillsynsbegäran mail.docx", "A 41056-2025")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 20709-2023</t>
+          <t>A 58944-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45058</v>
+        <v>45987</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4.3</v>
+        <v>8.4</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -2047,45 +2047,45 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 20709-2023 artfynd.xlsx", "A 20709-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 58944-2025 artfynd.xlsx", "A 58944-2025")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 20709-2023 karta.png", "A 20709-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 58944-2025 karta.png", "A 58944-2025")</f>
         <v/>
       </c>
       <c r="U18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 20709-2023 karta knärot.png", "A 20709-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 58944-2025 karta knärot.png", "A 58944-2025")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 20709-2023 FSC-klagomål.docx", "A 20709-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 58944-2025 FSC-klagomål.docx", "A 58944-2025")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 20709-2023 FSC-klagomål mail.docx", "A 20709-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 58944-2025 FSC-klagomål mail.docx", "A 58944-2025")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 20709-2023 tillsynsbegäran.docx", "A 20709-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 58944-2025 tillsynsbegäran.docx", "A 58944-2025")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 20709-2023 tillsynsbegäran mail.docx", "A 20709-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 58944-2025 tillsynsbegäran mail.docx", "A 58944-2025")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 5634-2025</t>
+          <t>A 20086-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45693.6689699074</v>
+        <v>45054</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -2136,45 +2136,45 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 5634-2025 artfynd.xlsx", "A 5634-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 20086-2023 artfynd.xlsx", "A 20086-2023")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 5634-2025 karta.png", "A 5634-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 20086-2023 karta.png", "A 20086-2023")</f>
         <v/>
       </c>
       <c r="U19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 5634-2025 karta knärot.png", "A 5634-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 20086-2023 karta knärot.png", "A 20086-2023")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 5634-2025 FSC-klagomål.docx", "A 5634-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 20086-2023 FSC-klagomål.docx", "A 20086-2023")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 5634-2025 FSC-klagomål mail.docx", "A 5634-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 20086-2023 FSC-klagomål mail.docx", "A 20086-2023")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 5634-2025 tillsynsbegäran.docx", "A 5634-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 20086-2023 tillsynsbegäran.docx", "A 20086-2023")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 5634-2025 tillsynsbegäran mail.docx", "A 5634-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 20086-2023 tillsynsbegäran mail.docx", "A 20086-2023")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 20086-2023</t>
+          <t>A 20709-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45054</v>
+        <v>45058</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.9</v>
+        <v>4.3</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -2225,31 +2225,31 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 20086-2023 artfynd.xlsx", "A 20086-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 20709-2023 artfynd.xlsx", "A 20709-2023")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 20086-2023 karta.png", "A 20086-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 20709-2023 karta.png", "A 20709-2023")</f>
         <v/>
       </c>
       <c r="U20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 20086-2023 karta knärot.png", "A 20086-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 20709-2023 karta knärot.png", "A 20709-2023")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 20086-2023 FSC-klagomål.docx", "A 20086-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 20709-2023 FSC-klagomål.docx", "A 20709-2023")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 20086-2023 FSC-klagomål mail.docx", "A 20086-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 20709-2023 FSC-klagomål mail.docx", "A 20709-2023")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 20086-2023 tillsynsbegäran.docx", "A 20086-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 20709-2023 tillsynsbegäran.docx", "A 20709-2023")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 20086-2023 tillsynsbegäran mail.docx", "A 20086-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 20709-2023 tillsynsbegäran mail.docx", "A 20709-2023")</f>
         <v/>
       </c>
     </row>
@@ -2263,7 +2263,7 @@
         <v>45581</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>44790</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>44250</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44445</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>44827</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>44448</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>44448</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>44529</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>44566.74335648148</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44386</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>44439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>44888.63157407408</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>44505.79013888889</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>44657</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>44480</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44610</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>44550</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>44694.73462962963</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>44694</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>44448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>44448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>44441</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>44448</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>44872.93511574074</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>44326</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>44531.34472222222</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3766,14 +3766,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 14609-2024</t>
+          <t>A 34380-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45396.86570601852</v>
+        <v>44792</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3823,14 +3823,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 62369-2023</t>
+          <t>A 14609-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45268.30483796296</v>
+        <v>45396.86570601852</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3843,7 +3843,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>5.4</v>
+        <v>2.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3880,14 +3880,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 34217-2022</t>
+          <t>A 59309-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44791</v>
+        <v>45253.606875</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3937,14 +3937,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 57877-2022</t>
+          <t>A 39206-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44899.8749537037</v>
+        <v>45548.81200231481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3994,14 +3994,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 22750-2024</t>
+          <t>A 69193-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45448.41990740741</v>
+        <v>44531</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4051,14 +4051,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 36999-2023</t>
+          <t>A 45088-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45155.24585648148</v>
+        <v>44439.391875</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4108,14 +4108,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 69193-2021</t>
+          <t>A 23682-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44531</v>
+        <v>45454.62754629629</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4165,14 +4165,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 19005-2023</t>
+          <t>A 28109-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45045.60177083333</v>
+        <v>45476.63284722222</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4222,14 +4222,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 59309-2023</t>
+          <t>A 22750-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45253.606875</v>
+        <v>45448.41990740741</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4279,14 +4279,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 55777-2022</t>
+          <t>A 5714-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44888.61921296296</v>
+        <v>45334.87804398148</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4336,14 +4336,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 63419-2023</t>
+          <t>A 55777-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45274</v>
+        <v>44888.61921296296</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>6.4</v>
+        <v>2.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4393,14 +4393,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 43752-2023</t>
+          <t>A 49115-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45187</v>
+        <v>45594.65954861111</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>9.300000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4450,14 +4450,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 30440-2024</t>
+          <t>A 3750-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45491.81488425926</v>
+        <v>44586.71618055556</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4507,14 +4507,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 49134-2021</t>
+          <t>A 30440-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44453</v>
+        <v>45491.81488425926</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4526,13 +4526,8 @@
           <t>ORUST</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4569,14 +4564,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 44754-2024</t>
+          <t>A 62516-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45574.61065972222</v>
+        <v>44924.61912037037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4589,7 +4584,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4626,14 +4621,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 39219-2025</t>
+          <t>A 49822-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45888</v>
+        <v>44862</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4646,7 +4641,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4683,14 +4678,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 44417-2024</t>
+          <t>A 57878-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45573.8249537037</v>
+        <v>44899.875625</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4703,7 +4698,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.1</v>
+        <v>4.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4740,14 +4735,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 24179-2025</t>
+          <t>A 40743-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45796.72856481482</v>
+        <v>45558.45</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4760,7 +4755,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4797,14 +4792,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 49115-2024</t>
+          <t>A 49134-2021</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45594.65954861111</v>
+        <v>44453</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4816,8 +4811,13 @@
           <t>ORUST</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4854,14 +4854,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 27277-2025</t>
+          <t>A 49617-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45812.52674768519</v>
+        <v>45211</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.9</v>
+        <v>4.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4911,14 +4911,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 27555-2025</t>
+          <t>A 1288-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45813.47424768518</v>
+        <v>45667.50971064815</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4968,14 +4968,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 40338-2025</t>
+          <t>A 20131-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45895</v>
+        <v>45772.50918981482</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5025,14 +5025,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 40328-2025</t>
+          <t>A 39219-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45895</v>
+        <v>45888</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5082,14 +5082,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 40442-2025</t>
+          <t>A 31617-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45895</v>
+        <v>45833</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5139,14 +5139,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 54279-2024</t>
+          <t>A 51993-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45616.855</v>
+        <v>44872</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>6.9</v>
+        <v>2.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5196,14 +5196,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 40681-2025</t>
+          <t>A 24179-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45896.85623842593</v>
+        <v>45796.72856481482</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5253,14 +5253,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 41063-2025</t>
+          <t>A 771-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45898</v>
+        <v>44931</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5310,14 +5310,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 47884-2024</t>
+          <t>A 33300-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45588.81101851852</v>
+        <v>45840.93423611111</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.8</v>
+        <v>6.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5367,14 +5367,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 41881-2025</t>
+          <t>A 40442-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45903.36444444444</v>
+        <v>45895</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5424,14 +5424,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 42069-2025</t>
+          <t>A 33295-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45903.65700231482</v>
+        <v>45840.92070601852</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5481,14 +5481,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 41688-2025</t>
+          <t>A 33296-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45902.39888888889</v>
+        <v>45840.92538194444</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5538,14 +5538,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 71890-2021</t>
+          <t>A 33299-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44543.78116898148</v>
+        <v>45840.93229166666</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.4</v>
+        <v>0.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5595,14 +5595,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 42457-2025</t>
+          <t>A 40328-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45905.45289351852</v>
+        <v>45895</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5652,14 +5652,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 6957-2024</t>
+          <t>A 40338-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45343.45112268518</v>
+        <v>45895</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5709,14 +5709,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 51993-2022</t>
+          <t>A 41063-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44872</v>
+        <v>45898</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5766,14 +5766,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 40270-2024</t>
+          <t>A 40681-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45554.64315972223</v>
+        <v>45896.85623842593</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5819,38 +5819,18 @@
         <v>0</v>
       </c>
       <c r="R82" s="2" t="inlineStr"/>
-      <c r="U82">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 40270-2024 karta knärot.png", "A 40270-2024")</f>
-        <v/>
-      </c>
-      <c r="V82">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 40270-2024 FSC-klagomål.docx", "A 40270-2024")</f>
-        <v/>
-      </c>
-      <c r="W82">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 40270-2024 FSC-klagomål mail.docx", "A 40270-2024")</f>
-        <v/>
-      </c>
-      <c r="X82">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 40270-2024 tillsynsbegäran.docx", "A 40270-2024")</f>
-        <v/>
-      </c>
-      <c r="Y82">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 40270-2024 tillsynsbegäran mail.docx", "A 40270-2024")</f>
-        <v/>
-      </c>
     </row>
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 13378-2023</t>
+          <t>A 47884-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45005.50077546296</v>
+        <v>45588.81101851852</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5863,7 +5843,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5900,14 +5880,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 25925-2024</t>
+          <t>A 34500-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45467.6122337963</v>
+        <v>45847.43075231482</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5920,7 +5900,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.1</v>
+        <v>7.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5957,14 +5937,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 22452-2021</t>
+          <t>A 41688-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44326</v>
+        <v>45902.39888888889</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5977,7 +5957,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6014,14 +5994,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 31617-2025</t>
+          <t>A 34502-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45833</v>
+        <v>45847.43163194445</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6034,7 +6014,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6071,14 +6051,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 43228-2024</t>
+          <t>A 34354-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45567.8855787037</v>
+        <v>45139</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6091,7 +6071,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6128,14 +6108,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 47405-2025</t>
+          <t>A 41881-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45930.61258101852</v>
+        <v>45903.36444444444</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6148,7 +6128,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6185,14 +6165,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 47630-2025</t>
+          <t>A 33454-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45931.48855324074</v>
+        <v>45130</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6205,7 +6185,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6242,14 +6222,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 47404-2025</t>
+          <t>A 42069-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45930.61149305556</v>
+        <v>45903.65700231482</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6262,7 +6242,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6299,14 +6279,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 33300-2025</t>
+          <t>A 42457-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45840.93423611111</v>
+        <v>45905.45289351852</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6319,7 +6299,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>6.4</v>
+        <v>0.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6356,14 +6336,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 46121-2025</t>
+          <t>A 2213-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45924</v>
+        <v>45673.4359837963</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6376,7 +6356,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>8.5</v>
+        <v>1.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6413,14 +6393,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 62516-2022</t>
+          <t>A 38322-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44924.61912037037</v>
+        <v>45161.73658564815</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6433,7 +6413,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6470,14 +6450,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 48419-2025</t>
+          <t>A 57445-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45934.58502314815</v>
+        <v>45629.92240740741</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6490,7 +6470,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>7.7</v>
+        <v>0.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6527,14 +6507,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 46119-2025</t>
+          <t>A 36695-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45924</v>
+        <v>45872</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6547,7 +6527,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>8.9</v>
+        <v>2.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6584,14 +6564,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 49072-2025</t>
+          <t>A 36722-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45937.65501157408</v>
+        <v>45872</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6604,7 +6584,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6641,14 +6621,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 33295-2025</t>
+          <t>A 36719-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45840.92070601852</v>
+        <v>45872</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6661,7 +6641,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6698,14 +6678,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 33296-2025</t>
+          <t>A 50532-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45840.92538194444</v>
+        <v>45601.56552083333</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6718,7 +6698,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6755,14 +6735,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 33299-2025</t>
+          <t>A 47405-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45840.93229166666</v>
+        <v>45930.61258101852</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6775,7 +6755,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6812,14 +6792,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 49365-2025</t>
+          <t>A 47404-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45938.62341435185</v>
+        <v>45930.61149305556</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6832,7 +6812,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6869,14 +6849,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 5926-2024</t>
+          <t>A 14802-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45336</v>
+        <v>45014</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6889,7 +6869,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6926,14 +6906,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 6986-2024</t>
+          <t>A 47630-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45343.48984953704</v>
+        <v>45931.48855324074</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6946,7 +6926,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6983,14 +6963,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 34502-2025</t>
+          <t>A 46119-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45847.43163194445</v>
+        <v>45924</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7003,7 +6983,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.6</v>
+        <v>8.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7040,14 +7020,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 34500-2025</t>
+          <t>A 46121-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45847.43075231482</v>
+        <v>45924</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7060,7 +7040,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>7.4</v>
+        <v>8.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7097,14 +7077,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 20089-2025</t>
+          <t>A 48419-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45771</v>
+        <v>45934.58502314815</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7117,7 +7097,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.6</v>
+        <v>7.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7154,14 +7134,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 61302-2024</t>
+          <t>A 49365-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45645.90855324074</v>
+        <v>45938.62341435185</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7174,7 +7154,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7211,14 +7191,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 36722-2025</t>
+          <t>A 49072-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45872</v>
+        <v>45937.65501157408</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7231,7 +7211,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7268,14 +7248,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 36695-2025</t>
+          <t>A 36404-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45872</v>
+        <v>45535.70535879629</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7288,7 +7268,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7325,14 +7305,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 5714-2024</t>
+          <t>A 20089-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45334.87804398148</v>
+        <v>45771</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7345,7 +7325,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7382,14 +7362,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 36719-2025</t>
+          <t>A 54128-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45872</v>
+        <v>45964.45993055555</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7402,7 +7382,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.7</v>
+        <v>5.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7439,14 +7419,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 34380-2022</t>
+          <t>A 62086-2022</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44792</v>
+        <v>44919.46138888889</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7459,7 +7439,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7496,14 +7476,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 50532-2024</t>
+          <t>A 6957-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45601.56552083333</v>
+        <v>45343.45112268518</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7516,7 +7496,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7553,14 +7533,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 13377-2023</t>
+          <t>A 2632-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45005.49668981481</v>
+        <v>45313.97175925926</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7573,7 +7553,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7610,14 +7590,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 37130-2024</t>
+          <t>A 1663-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45539.57060185185</v>
+        <v>45306</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7630,7 +7610,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.1</v>
+        <v>6.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7667,14 +7647,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 54128-2025</t>
+          <t>A 32175-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45964.45993055555</v>
+        <v>45511.61238425926</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7687,7 +7667,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>5.6</v>
+        <v>0.3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7724,14 +7704,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 59915-2024</t>
+          <t>A 63626-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45641.74975694445</v>
+        <v>45275</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7744,7 +7724,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7781,14 +7761,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 5152-2025</t>
+          <t>A 56654-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45691.6000462963</v>
+        <v>45975.64869212963</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7801,7 +7781,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7838,14 +7818,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 1288-2025</t>
+          <t>A 37130-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45667.50971064815</v>
+        <v>45539.57060185185</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7858,7 +7838,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7895,14 +7875,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 42712-2023</t>
+          <t>A 23046-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45181.61869212963</v>
+        <v>45450.4240625</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7915,7 +7895,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.2</v>
+        <v>4.2</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7952,14 +7932,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 56654-2025</t>
+          <t>A 5617-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45975.64869212963</v>
+        <v>45334.58319444444</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7972,7 +7952,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8005,18 +7985,38 @@
         <v>0</v>
       </c>
       <c r="R120" s="2" t="inlineStr"/>
+      <c r="U120">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 5617-2024 karta knärot.png", "A 5617-2024")</f>
+        <v/>
+      </c>
+      <c r="V120">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 5617-2024 FSC-klagomål.docx", "A 5617-2024")</f>
+        <v/>
+      </c>
+      <c r="W120">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 5617-2024 FSC-klagomål mail.docx", "A 5617-2024")</f>
+        <v/>
+      </c>
+      <c r="X120">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 5617-2024 tillsynsbegäran.docx", "A 5617-2024")</f>
+        <v/>
+      </c>
+      <c r="Y120">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 5617-2024 tillsynsbegäran mail.docx", "A 5617-2024")</f>
+        <v/>
+      </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 50562-2024</t>
+          <t>A 5926-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45601.59825231481</v>
+        <v>45336</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8066,14 +8066,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 20131-2025</t>
+          <t>A 44233-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45772.50918981482</v>
+        <v>45183</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8119,18 +8119,38 @@
         <v>0</v>
       </c>
       <c r="R122" s="2" t="inlineStr"/>
+      <c r="U122">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 44233-2023 karta knärot.png", "A 44233-2023")</f>
+        <v/>
+      </c>
+      <c r="V122">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 44233-2023 FSC-klagomål.docx", "A 44233-2023")</f>
+        <v/>
+      </c>
+      <c r="W122">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 44233-2023 FSC-klagomål mail.docx", "A 44233-2023")</f>
+        <v/>
+      </c>
+      <c r="X122">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 44233-2023 tillsynsbegäran.docx", "A 44233-2023")</f>
+        <v/>
+      </c>
+      <c r="Y122">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 44233-2023 tillsynsbegäran mail.docx", "A 44233-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 5454-2025</t>
+          <t>A 58852-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45692.98011574074</v>
+        <v>45987.40355324074</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8143,7 +8163,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.7</v>
+        <v>4.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8180,14 +8200,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 2213-2025</t>
+          <t>A 58853-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45673.4359837963</v>
+        <v>45987.40476851852</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8200,7 +8220,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8237,14 +8257,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 58853-2025</t>
+          <t>A 59834-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45987.40476851852</v>
+        <v>45992.66811342593</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8257,7 +8277,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8294,14 +8314,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 58852-2025</t>
+          <t>A 20819-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45987.40355324074</v>
+        <v>45058</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8314,7 +8334,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>4.9</v>
+        <v>0.7</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8351,14 +8371,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 40722-2024</t>
+          <t>A 2435-2026</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45558.44460648148</v>
+        <v>46036.90065972223</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8371,7 +8391,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8408,14 +8428,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 36404-2024</t>
+          <t>A 2436-2026</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45535.70535879629</v>
+        <v>46036.90234953703</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8428,7 +8448,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8465,14 +8485,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 59834-2025</t>
+          <t>A 22452-2021</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45992.66811342593</v>
+        <v>44326</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8485,7 +8505,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8522,14 +8542,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 57445-2024</t>
+          <t>A 61319-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45629.92240740741</v>
+        <v>46000.94983796297</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8542,7 +8562,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8579,14 +8599,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 2436-2026</t>
+          <t>A 61320-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>46036.90234953703</v>
+        <v>46000.95591435185</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8599,7 +8619,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8636,14 +8656,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 2435-2026</t>
+          <t>A 4114-2026</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>46036.90065972223</v>
+        <v>46044.60348379629</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8656,7 +8676,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.3</v>
+        <v>7.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8693,14 +8713,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 49822-2022</t>
+          <t>A 43752-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44862</v>
+        <v>45187</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8713,7 +8733,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8750,14 +8770,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 61319-2025</t>
+          <t>A 18954-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>46000.94983796297</v>
+        <v>45764.51478009259</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8770,7 +8790,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.5</v>
+        <v>6.4</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8807,14 +8827,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 61320-2025</t>
+          <t>A 34217-2022</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>46000.95591435185</v>
+        <v>44791</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8827,7 +8847,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8864,14 +8884,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 4114-2026</t>
+          <t>A 63419-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>46044.60348379629</v>
+        <v>45274</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8884,7 +8904,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8921,14 +8941,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 38322-2023</t>
+          <t>A 37000-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45161.73658564815</v>
+        <v>45155.26925925926</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8941,7 +8961,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>6</v>
+        <v>10.7</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8978,14 +8998,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 40743-2024</t>
+          <t>A 6739-2026</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45558.45</v>
+        <v>46056.69936342593</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8998,7 +9018,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9035,14 +9055,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 18954-2025</t>
+          <t>A 6986-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45764.51478009259</v>
+        <v>45343.48984953704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9055,7 +9075,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>6.4</v>
+        <v>1.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9092,14 +9112,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 771-2023</t>
+          <t>A 5715-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44931</v>
+        <v>45334</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9112,7 +9132,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9149,14 +9169,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 6739-2026</t>
+          <t>A 5454-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>46056.69936342593</v>
+        <v>45692.98011574074</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9169,7 +9189,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9206,14 +9226,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 20819-2023</t>
+          <t>A 19005-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45058</v>
+        <v>45045.60177083333</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9263,14 +9283,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 11356-2025</t>
+          <t>A 34056-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45726.52880787037</v>
+        <v>45523.6125</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9283,7 +9303,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9320,14 +9340,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 34354-2023</t>
+          <t>A 59915-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45139</v>
+        <v>45641.74975694445</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9340,7 +9360,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>3.6</v>
+        <v>1.1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9377,14 +9397,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 37000-2023</t>
+          <t>A 57877-2022</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45155.26925925926</v>
+        <v>44899.8749537037</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9397,7 +9417,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>10.7</v>
+        <v>2.3</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9434,14 +9454,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 6485-2024</t>
+          <t>A 13378-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45339.40619212963</v>
+        <v>45005.50077546296</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9491,14 +9511,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 45088-2021</t>
+          <t>A 20898-2021</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44439.391875</v>
+        <v>44319.41962962963</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9511,7 +9531,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9548,14 +9568,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 49617-2023</t>
+          <t>A 25925-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45211</v>
+        <v>45467.6122337963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9568,7 +9588,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>4.4</v>
+        <v>1.1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9605,14 +9625,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 23682-2024</t>
+          <t>A 37522-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45454.62754629629</v>
+        <v>45541</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9625,7 +9645,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>4.1</v>
+        <v>10.2</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9662,14 +9682,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 39206-2024</t>
+          <t>A 34155-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45548.81200231481</v>
+        <v>45524.3860300926</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9682,7 +9702,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9719,14 +9739,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 5715-2024</t>
+          <t>A 18791-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45334</v>
+        <v>45044</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9739,7 +9759,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9776,14 +9796,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 5617-2024</t>
+          <t>A 42712-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45334.58319444444</v>
+        <v>45181.61869212963</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9796,7 +9816,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9829,38 +9849,18 @@
         <v>0</v>
       </c>
       <c r="R152" s="2" t="inlineStr"/>
-      <c r="U152">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 5617-2024 karta knärot.png", "A 5617-2024")</f>
-        <v/>
-      </c>
-      <c r="V152">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 5617-2024 FSC-klagomål.docx", "A 5617-2024")</f>
-        <v/>
-      </c>
-      <c r="W152">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 5617-2024 FSC-klagomål mail.docx", "A 5617-2024")</f>
-        <v/>
-      </c>
-      <c r="X152">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 5617-2024 tillsynsbegäran.docx", "A 5617-2024")</f>
-        <v/>
-      </c>
-      <c r="Y152">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 5617-2024 tillsynsbegäran mail.docx", "A 5617-2024")</f>
-        <v/>
-      </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 34056-2024</t>
+          <t>A 71890-2021</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45523.6125</v>
+        <v>44543.78116898148</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9910,14 +9910,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 6613-2021</t>
+          <t>A 49134-2021</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44236</v>
+        <v>44453</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9929,8 +9929,13 @@
           <t>ORUST</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G154" t="n">
-        <v>8.800000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9967,14 +9972,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 3750-2022</t>
+          <t>A 46708-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44586.71618055556</v>
+        <v>45198</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9987,7 +9992,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10024,14 +10029,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 37522-2024</t>
+          <t>A 40722-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45541</v>
+        <v>45558.44460648148</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10044,7 +10049,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>10.2</v>
+        <v>1.3</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10081,14 +10086,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 23046-2024</t>
+          <t>A 62369-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45450.4240625</v>
+        <v>45268.30483796296</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10101,7 +10106,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>4.2</v>
+        <v>5.4</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10138,14 +10143,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 44233-2023</t>
+          <t>A 43228-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45183</v>
+        <v>45567.8855787037</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10158,7 +10163,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10191,26 +10196,6 @@
         <v>0</v>
       </c>
       <c r="R158" s="2" t="inlineStr"/>
-      <c r="U158">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 44233-2023 karta knärot.png", "A 44233-2023")</f>
-        <v/>
-      </c>
-      <c r="V158">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 44233-2023 FSC-klagomål.docx", "A 44233-2023")</f>
-        <v/>
-      </c>
-      <c r="W158">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 44233-2023 FSC-klagomål mail.docx", "A 44233-2023")</f>
-        <v/>
-      </c>
-      <c r="X158">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 44233-2023 tillsynsbegäran.docx", "A 44233-2023")</f>
-        <v/>
-      </c>
-      <c r="Y158">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 44233-2023 tillsynsbegäran mail.docx", "A 44233-2023")</f>
-        <v/>
-      </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
@@ -10222,7 +10207,7 @@
         <v>44655</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10272,14 +10257,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 18791-2023</t>
+          <t>A 40270-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45044</v>
+        <v>45554.64315972223</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10292,7 +10277,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10325,18 +10310,38 @@
         <v>0</v>
       </c>
       <c r="R160" s="2" t="inlineStr"/>
+      <c r="U160">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 40270-2024 karta knärot.png", "A 40270-2024")</f>
+        <v/>
+      </c>
+      <c r="V160">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 40270-2024 FSC-klagomål.docx", "A 40270-2024")</f>
+        <v/>
+      </c>
+      <c r="W160">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 40270-2024 FSC-klagomål mail.docx", "A 40270-2024")</f>
+        <v/>
+      </c>
+      <c r="X160">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 40270-2024 tillsynsbegäran.docx", "A 40270-2024")</f>
+        <v/>
+      </c>
+      <c r="Y160">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 40270-2024 tillsynsbegäran mail.docx", "A 40270-2024")</f>
+        <v/>
+      </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 28109-2024</t>
+          <t>A 11356-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45476.63284722222</v>
+        <v>45726.52880787037</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10349,7 +10354,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10386,14 +10391,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 63626-2023</t>
+          <t>A 6485-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45275</v>
+        <v>45339.40619212963</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10406,7 +10411,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10443,14 +10448,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 32175-2024</t>
+          <t>A 13377-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45511.61238425926</v>
+        <v>45005.49668981481</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10463,7 +10468,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.3</v>
+        <v>2.5</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10500,14 +10505,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 34155-2024</t>
+          <t>A 61302-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45524.3860300926</v>
+        <v>45645.90855324074</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10520,7 +10525,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10557,14 +10562,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 20898-2021</t>
+          <t>A 50562-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44319.41962962963</v>
+        <v>45601.59825231481</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10577,7 +10582,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10614,14 +10619,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 46708-2023</t>
+          <t>A 36999-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45198</v>
+        <v>45155.24585648148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10634,7 +10639,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10671,14 +10676,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 62086-2022</t>
+          <t>A 5152-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44919.46138888889</v>
+        <v>45691.6000462963</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10691,7 +10696,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10728,14 +10733,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 49134-2021</t>
+          <t>A 13243-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44453</v>
+        <v>45002</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10747,13 +10752,8 @@
           <t>ORUST</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G168" t="n">
-        <v>1.8</v>
+        <v>4.8</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10790,14 +10790,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 57878-2022</t>
+          <t>A 22959-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44899.875625</v>
+        <v>45790</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>4.6</v>
+        <v>0.6</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10847,14 +10847,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 14802-2023</t>
+          <t>A 9937-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45014</v>
+        <v>45718.64129629629</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10867,7 +10867,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10904,14 +10904,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 2632-2024</t>
+          <t>A 23258-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45313.97175925926</v>
+        <v>45791.53902777778</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>8.199999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10961,14 +10961,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 1663-2024</t>
+          <t>A 13521-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45306</v>
+        <v>45736.48755787037</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>6.1</v>
+        <v>0.5</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11018,14 +11018,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 33454-2023</t>
+          <t>A 13536-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45130</v>
+        <v>45736.51413194444</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>6</v>
+        <v>0.1</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11075,14 +11075,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 13243-2023</t>
+          <t>A 14760-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45002</v>
+        <v>45742</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11132,14 +11132,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 22959-2025</t>
+          <t>A 23259-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45790</v>
+        <v>45791.53978009259</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11189,14 +11189,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 23258-2025</t>
+          <t>A 23254-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45791.53902777778</v>
+        <v>45791.5340162037</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11246,14 +11246,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 23254-2025</t>
+          <t>A 34046-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45791.5340162037</v>
+        <v>45523.60449074074</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11303,14 +11303,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 14760-2025</t>
+          <t>A 24321-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45742</v>
+        <v>45797</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11360,14 +11360,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 9937-2025</t>
+          <t>A 44417-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45718.64129629629</v>
+        <v>45573.8249537037</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11417,14 +11417,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 23259-2025</t>
+          <t>A 44754-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45791.53978009259</v>
+        <v>45574.61065972222</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11474,14 +11474,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 13521-2025</t>
+          <t>A 27277-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45736.48755787037</v>
+        <v>45812.52674768519</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11531,14 +11531,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 13536-2025</t>
+          <t>A 27555-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45736.51413194444</v>
+        <v>45813.47424768518</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.1</v>
+        <v>1.6</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11585,17 +11585,17 @@
       </c>
       <c r="R182" s="2" t="inlineStr"/>
     </row>
-    <row r="183" ht="15" customHeight="1">
+    <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 24321-2025</t>
+          <t>A 54279-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45797</v>
+        <v>45616.855</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.6</v>
+        <v>6.9</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11641,63 +11641,6 @@
         <v>0</v>
       </c>
       <c r="R183" s="2" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>A 34046-2024</t>
-        </is>
-      </c>
-      <c r="B184" s="1" t="n">
-        <v>45523.60449074074</v>
-      </c>
-      <c r="C184" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>ORUST</t>
-        </is>
-      </c>
-      <c r="G184" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="n">
-        <v>0</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0</v>
-      </c>
-      <c r="L184" t="n">
-        <v>0</v>
-      </c>
-      <c r="M184" t="n">
-        <v>0</v>
-      </c>
-      <c r="N184" t="n">
-        <v>0</v>
-      </c>
-      <c r="O184" t="n">
-        <v>0</v>
-      </c>
-      <c r="P184" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q184" t="n">
-        <v>0</v>
-      </c>
-      <c r="R184" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ORUST.xlsx
+++ b/Översikt ORUST.xlsx
@@ -575,7 +575,7 @@
         <v>44476</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44326.68740740741</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,14 +750,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 49930-2024</t>
+          <t>A 74306-2021</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45597.57973379629</v>
+        <v>44559</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -770,16 +770,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>16.6</v>
+        <v>14.6</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -803,6 +803,282 @@
         <v>4</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Dvärglin
+Kösa
+Åkerrödtoppa
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 74306-2021 artfynd.xlsx", "A 74306-2021")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 74306-2021 karta.png", "A 74306-2021")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 74306-2021 FSC-klagomål.docx", "A 74306-2021")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 74306-2021 FSC-klagomål mail.docx", "A 74306-2021")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 74306-2021 tillsynsbegäran.docx", "A 74306-2021")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 74306-2021 tillsynsbegäran mail.docx", "A 74306-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 14805-2023</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45014</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ORUST</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Grönsångare
+Kambräken
+Purpurmylia</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 14805-2023 artfynd.xlsx", "A 14805-2023")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 14805-2023 karta.png", "A 14805-2023")</f>
+        <v/>
+      </c>
+      <c r="U5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 14805-2023 karta knärot.png", "A 14805-2023")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 14805-2023 FSC-klagomål.docx", "A 14805-2023")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 14805-2023 FSC-klagomål mail.docx", "A 14805-2023")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 14805-2023 tillsynsbegäran.docx", "A 14805-2023")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 14805-2023 tillsynsbegäran mail.docx", "A 14805-2023")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/fåglar/A 14805-2023 prioriterade fågelarter.docx", "A 14805-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 65099-2023</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45288</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ORUST</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Blockskapania
+Knärot
+Grov fjädermossa
+Stor revmossa</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 65099-2023 artfynd.xlsx", "A 65099-2023")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 65099-2023 karta.png", "A 65099-2023")</f>
+        <v/>
+      </c>
+      <c r="U6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 65099-2023 karta knärot.png", "A 65099-2023")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 65099-2023 FSC-klagomål.docx", "A 65099-2023")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 65099-2023 FSC-klagomål mail.docx", "A 65099-2023")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 65099-2023 tillsynsbegäran.docx", "A 65099-2023")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 65099-2023 tillsynsbegäran mail.docx", "A 65099-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 49930-2024</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45597.57973379629</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ORUST</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Motaggsvamp
 Svart trolldruva
@@ -810,304 +1086,28 @@
 Äkta lopplummer</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 49930-2024 artfynd.xlsx", "A 49930-2024")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 49930-2024 karta.png", "A 49930-2024")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 49930-2024 FSC-klagomål.docx", "A 49930-2024")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 49930-2024 FSC-klagomål mail.docx", "A 49930-2024")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 49930-2024 tillsynsbegäran.docx", "A 49930-2024")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 49930-2024 tillsynsbegäran mail.docx", "A 49930-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 14805-2023</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45014</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ORUST</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>4</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Grönsångare
-Kambräken
-Purpurmylia</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 14805-2023 artfynd.xlsx", "A 14805-2023")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 14805-2023 karta.png", "A 14805-2023")</f>
-        <v/>
-      </c>
-      <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 14805-2023 karta knärot.png", "A 14805-2023")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 14805-2023 FSC-klagomål.docx", "A 14805-2023")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 14805-2023 FSC-klagomål mail.docx", "A 14805-2023")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 14805-2023 tillsynsbegäran.docx", "A 14805-2023")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 14805-2023 tillsynsbegäran mail.docx", "A 14805-2023")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/fåglar/A 14805-2023 prioriterade fågelarter.docx", "A 14805-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 74306-2021</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>44559</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ORUST</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>3</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>4</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Dvärglin
-Kösa
-Åkerrödtoppa
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 74306-2021 artfynd.xlsx", "A 74306-2021")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 74306-2021 karta.png", "A 74306-2021")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 74306-2021 FSC-klagomål.docx", "A 74306-2021")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 74306-2021 FSC-klagomål mail.docx", "A 74306-2021")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 74306-2021 tillsynsbegäran.docx", "A 74306-2021")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 74306-2021 tillsynsbegäran mail.docx", "A 74306-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 65099-2023</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45288</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ORUST</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>4</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Blockskapania
-Knärot
-Grov fjädermossa
-Stor revmossa</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 65099-2023 artfynd.xlsx", "A 65099-2023")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 65099-2023 karta.png", "A 65099-2023")</f>
-        <v/>
-      </c>
-      <c r="U7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 65099-2023 karta knärot.png", "A 65099-2023")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 65099-2023 FSC-klagomål.docx", "A 65099-2023")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 65099-2023 FSC-klagomål mail.docx", "A 65099-2023")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 65099-2023 tillsynsbegäran.docx", "A 65099-2023")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 65099-2023 tillsynsbegäran mail.docx", "A 65099-2023")</f>
         <v/>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
         <v>44546</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>44266</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>45336</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>45791.5346875</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1467,14 +1467,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 13220-2024</t>
+          <t>A 20086-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45386.52466435185</v>
+        <v>45054</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.3</v>
+        <v>1.9</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -1525,45 +1525,45 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 13220-2024 artfynd.xlsx", "A 13220-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 20086-2023 artfynd.xlsx", "A 20086-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 13220-2024 karta.png", "A 13220-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 20086-2023 karta.png", "A 20086-2023")</f>
         <v/>
       </c>
       <c r="U12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 13220-2024 karta knärot.png", "A 13220-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 20086-2023 karta knärot.png", "A 20086-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 13220-2024 FSC-klagomål.docx", "A 13220-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 20086-2023 FSC-klagomål.docx", "A 20086-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 13220-2024 FSC-klagomål mail.docx", "A 13220-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 20086-2023 FSC-klagomål mail.docx", "A 20086-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 13220-2024 tillsynsbegäran.docx", "A 13220-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 20086-2023 tillsynsbegäran.docx", "A 20086-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 13220-2024 tillsynsbegäran mail.docx", "A 13220-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 20086-2023 tillsynsbegäran mail.docx", "A 20086-2023")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 24618-2024</t>
+          <t>A 46272-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45460</v>
+        <v>45581</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1576,13 +1576,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>9.5</v>
+        <v>2.8</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1610,45 +1610,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 24618-2024 artfynd.xlsx", "A 24618-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 46272-2024 artfynd.xlsx", "A 46272-2024")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 24618-2024 karta.png", "A 24618-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 46272-2024 karta.png", "A 46272-2024")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 24618-2024 FSC-klagomål.docx", "A 24618-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 46272-2024 FSC-klagomål.docx", "A 46272-2024")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 24618-2024 FSC-klagomål mail.docx", "A 24618-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 46272-2024 FSC-klagomål mail.docx", "A 46272-2024")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 24618-2024 tillsynsbegäran.docx", "A 24618-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 46272-2024 tillsynsbegäran.docx", "A 46272-2024")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 24618-2024 tillsynsbegäran mail.docx", "A 24618-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 46272-2024 tillsynsbegäran mail.docx", "A 46272-2024")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 5634-2025</t>
+          <t>A 49047-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45693.6689699074</v>
+        <v>45937.63695601852</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1661,19 +1661,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1688,56 +1688,52 @@
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Granspira</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 5634-2025 artfynd.xlsx", "A 5634-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 49047-2025 artfynd.xlsx", "A 49047-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 5634-2025 karta.png", "A 5634-2025")</f>
-        <v/>
-      </c>
-      <c r="U14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 5634-2025 karta knärot.png", "A 5634-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 49047-2025 karta.png", "A 49047-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 5634-2025 FSC-klagomål.docx", "A 5634-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 49047-2025 FSC-klagomål.docx", "A 49047-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 5634-2025 FSC-klagomål mail.docx", "A 5634-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 49047-2025 FSC-klagomål mail.docx", "A 49047-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 5634-2025 tillsynsbegäran.docx", "A 5634-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 49047-2025 tillsynsbegäran.docx", "A 49047-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 5634-2025 tillsynsbegäran mail.docx", "A 5634-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 49047-2025 tillsynsbegäran mail.docx", "A 49047-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 49047-2025</t>
+          <t>A 13220-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45937.63695601852</v>
+        <v>45386.52466435185</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1750,19 +1746,19 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1777,38 +1773,42 @@
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Granspira</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 49047-2025 artfynd.xlsx", "A 49047-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 13220-2024 artfynd.xlsx", "A 13220-2024")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 49047-2025 karta.png", "A 49047-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 13220-2024 karta.png", "A 13220-2024")</f>
+        <v/>
+      </c>
+      <c r="U15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 13220-2024 karta knärot.png", "A 13220-2024")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 49047-2025 FSC-klagomål.docx", "A 49047-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 13220-2024 FSC-klagomål.docx", "A 13220-2024")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 49047-2025 FSC-klagomål mail.docx", "A 49047-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 13220-2024 FSC-klagomål mail.docx", "A 13220-2024")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 49047-2025 tillsynsbegäran.docx", "A 49047-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 13220-2024 tillsynsbegäran.docx", "A 13220-2024")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 49047-2025 tillsynsbegäran mail.docx", "A 49047-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 13220-2024 tillsynsbegäran mail.docx", "A 13220-2024")</f>
         <v/>
       </c>
     </row>
@@ -1822,7 +1822,7 @@
         <v>45973</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1904,14 +1904,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 41056-2025</t>
+          <t>A 24618-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45898</v>
+        <v>45460</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1924,13 +1924,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.3</v>
+        <v>9.5</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1958,31 +1958,31 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 41056-2025 artfynd.xlsx", "A 41056-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 24618-2024 artfynd.xlsx", "A 24618-2024")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 41056-2025 karta.png", "A 41056-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 24618-2024 karta.png", "A 24618-2024")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 41056-2025 FSC-klagomål.docx", "A 41056-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 24618-2024 FSC-klagomål.docx", "A 24618-2024")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 41056-2025 FSC-klagomål mail.docx", "A 41056-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 24618-2024 FSC-klagomål mail.docx", "A 24618-2024")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 41056-2025 tillsynsbegäran.docx", "A 41056-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 24618-2024 tillsynsbegäran.docx", "A 24618-2024")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 41056-2025 tillsynsbegäran mail.docx", "A 41056-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 24618-2024 tillsynsbegäran mail.docx", "A 24618-2024")</f>
         <v/>
       </c>
     </row>
@@ -1996,7 +1996,7 @@
         <v>45987</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2078,14 +2078,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 20086-2023</t>
+          <t>A 41056-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45054</v>
+        <v>45898</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2098,19 +2098,19 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>1</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2122,45 +2122,41 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 20086-2023 artfynd.xlsx", "A 20086-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 41056-2025 artfynd.xlsx", "A 41056-2025")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 20086-2023 karta.png", "A 20086-2023")</f>
-        <v/>
-      </c>
-      <c r="U19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 20086-2023 karta knärot.png", "A 20086-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 41056-2025 karta.png", "A 41056-2025")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 20086-2023 FSC-klagomål.docx", "A 20086-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 41056-2025 FSC-klagomål.docx", "A 41056-2025")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 20086-2023 FSC-klagomål mail.docx", "A 20086-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 41056-2025 FSC-klagomål mail.docx", "A 41056-2025")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 20086-2023 tillsynsbegäran.docx", "A 20086-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 41056-2025 tillsynsbegäran.docx", "A 41056-2025")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 20086-2023 tillsynsbegäran mail.docx", "A 20086-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 41056-2025 tillsynsbegäran mail.docx", "A 41056-2025")</f>
         <v/>
       </c>
     </row>
@@ -2174,7 +2170,7 @@
         <v>45058</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2256,14 +2252,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 46272-2024</t>
+          <t>A 5634-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45581</v>
+        <v>45693.6689699074</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2276,20 +2272,20 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>1</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
@@ -2300,41 +2296,45 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 46272-2024 artfynd.xlsx", "A 46272-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 5634-2025 artfynd.xlsx", "A 5634-2025")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 46272-2024 karta.png", "A 46272-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 5634-2025 karta.png", "A 5634-2025")</f>
+        <v/>
+      </c>
+      <c r="U21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 5634-2025 karta knärot.png", "A 5634-2025")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 46272-2024 FSC-klagomål.docx", "A 46272-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 5634-2025 FSC-klagomål.docx", "A 5634-2025")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 46272-2024 FSC-klagomål mail.docx", "A 46272-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 5634-2025 FSC-klagomål mail.docx", "A 5634-2025")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 46272-2024 tillsynsbegäran.docx", "A 46272-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 5634-2025 tillsynsbegäran.docx", "A 5634-2025")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 46272-2024 tillsynsbegäran mail.docx", "A 46272-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 5634-2025 tillsynsbegäran mail.docx", "A 5634-2025")</f>
         <v/>
       </c>
     </row>
@@ -2348,7 +2348,7 @@
         <v>44790</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>44250</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44445</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>44827</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>44448</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>44448</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>44529</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>44566.74335648148</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44386</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>44439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>44888.63157407408</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>44505.79013888889</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>44657</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>44480</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44610</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>44550</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>44694.73462962963</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>44694</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>44448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>44448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>44441</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>44448</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>44872.93511574074</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>44326</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>44531.34472222222</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3766,14 +3766,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 34380-2022</t>
+          <t>A 40338-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44792</v>
+        <v>45895</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3830,7 +3830,7 @@
         <v>45396.86570601852</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3880,14 +3880,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 59309-2023</t>
+          <t>A 40328-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45253.606875</v>
+        <v>45895</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3937,14 +3937,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 39206-2024</t>
+          <t>A 40442-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45548.81200231481</v>
+        <v>45895</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3994,14 +3994,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 69193-2021</t>
+          <t>A 20898-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44531</v>
+        <v>44319.41962962963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4051,14 +4051,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 45088-2021</t>
+          <t>A 46708-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44439.391875</v>
+        <v>45198</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4108,14 +4108,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 23682-2024</t>
+          <t>A 62369-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45454.62754629629</v>
+        <v>45268.30483796296</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4.1</v>
+        <v>5.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4165,14 +4165,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 28109-2024</t>
+          <t>A 40681-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45476.63284722222</v>
+        <v>45896.85623842593</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4222,14 +4222,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 22750-2024</t>
+          <t>A 34217-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45448.41990740741</v>
+        <v>44791</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4279,14 +4279,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 5714-2024</t>
+          <t>A 62086-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45334.87804398148</v>
+        <v>44919.46138888889</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4336,14 +4336,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 55777-2022</t>
+          <t>A 49134-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44888.61921296296</v>
+        <v>44453</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4355,8 +4355,13 @@
           <t>ORUST</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4393,14 +4398,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 49115-2024</t>
+          <t>A 57877-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45594.65954861111</v>
+        <v>44899.8749537037</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4413,7 +4418,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4450,14 +4455,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 3750-2022</t>
+          <t>A 49134-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44586.71618055556</v>
+        <v>44453</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4469,8 +4474,13 @@
           <t>ORUST</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4507,14 +4517,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 30440-2024</t>
+          <t>A 57878-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45491.81488425926</v>
+        <v>44899.875625</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4527,7 +4537,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.9</v>
+        <v>4.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4564,14 +4574,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 62516-2022</t>
+          <t>A 22750-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44924.61912037037</v>
+        <v>45448.41990740741</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4584,7 +4594,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4621,14 +4631,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 49822-2022</t>
+          <t>A 39219-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44862</v>
+        <v>45888</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4641,7 +4651,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4678,14 +4688,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 57878-2022</t>
+          <t>A 36999-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44899.875625</v>
+        <v>45155.24585648148</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4698,7 +4708,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4.6</v>
+        <v>1.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4735,14 +4745,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 40743-2024</t>
+          <t>A 24179-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45558.45</v>
+        <v>45796.72856481482</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4755,7 +4765,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4792,14 +4802,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 49134-2021</t>
+          <t>A 69193-2021</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44453</v>
+        <v>44531</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4811,13 +4821,8 @@
           <t>ORUST</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4854,14 +4859,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 49617-2023</t>
+          <t>A 41063-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45211</v>
+        <v>45898</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4874,7 +4879,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4.4</v>
+        <v>0.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4911,14 +4916,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 1288-2025</t>
+          <t>A 14802-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45667.50971064815</v>
+        <v>45014</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4931,7 +4936,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4968,14 +4973,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 20131-2025</t>
+          <t>A 19005-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45772.50918981482</v>
+        <v>45045.60177083333</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4988,7 +4993,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5025,14 +5030,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 39219-2025</t>
+          <t>A 47884-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45888</v>
+        <v>45588.81101851852</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5045,7 +5050,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5082,14 +5087,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 31617-2025</t>
+          <t>A 59309-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45833</v>
+        <v>45253.606875</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5102,7 +5107,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5139,14 +5144,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 51993-2022</t>
+          <t>A 2632-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44872</v>
+        <v>45313.97175925926</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5159,7 +5164,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5196,14 +5201,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 24179-2025</t>
+          <t>A 41881-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45796.72856481482</v>
+        <v>45903.36444444444</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5216,7 +5221,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5253,14 +5258,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 771-2023</t>
+          <t>A 1663-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44931</v>
+        <v>45306</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5273,7 +5278,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.6</v>
+        <v>6.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5310,14 +5315,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 33300-2025</t>
+          <t>A 42069-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45840.93423611111</v>
+        <v>45903.65700231482</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5330,7 +5335,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>6.4</v>
+        <v>1.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5367,14 +5372,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 40442-2025</t>
+          <t>A 33454-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45895</v>
+        <v>45130</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5387,7 +5392,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5424,14 +5429,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 33295-2025</t>
+          <t>A 41688-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45840.92070601852</v>
+        <v>45902.39888888889</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5444,7 +5449,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5481,14 +5486,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 33296-2025</t>
+          <t>A 42457-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45840.92538194444</v>
+        <v>45905.45289351852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5501,7 +5506,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5538,14 +5543,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 33299-2025</t>
+          <t>A 13243-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45840.93229166666</v>
+        <v>45002</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5558,7 +5563,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.4</v>
+        <v>4.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5595,14 +5600,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 40328-2025</t>
+          <t>A 55777-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45895</v>
+        <v>44888.61921296296</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5615,7 +5620,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5652,14 +5657,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 40338-2025</t>
+          <t>A 22959-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45895</v>
+        <v>45790</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5672,7 +5677,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5709,14 +5714,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 41063-2025</t>
+          <t>A 23258-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45898</v>
+        <v>45791.53902777778</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5729,7 +5734,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5766,14 +5771,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 40681-2025</t>
+          <t>A 23254-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45896.85623842593</v>
+        <v>45791.5340162037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5786,7 +5791,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5823,14 +5828,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 47884-2024</t>
+          <t>A 14760-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45588.81101851852</v>
+        <v>45742</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5843,7 +5848,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5880,14 +5885,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 34500-2025</t>
+          <t>A 9937-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45847.43075231482</v>
+        <v>45718.64129629629</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5900,7 +5905,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>7.4</v>
+        <v>2.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5937,14 +5942,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 41688-2025</t>
+          <t>A 23259-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45902.39888888889</v>
+        <v>45791.53978009259</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5957,7 +5962,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5994,14 +5999,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 34502-2025</t>
+          <t>A 13521-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45847.43163194445</v>
+        <v>45736.48755787037</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6014,7 +6019,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6051,14 +6056,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 34354-2023</t>
+          <t>A 13536-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45139</v>
+        <v>45736.51413194444</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6071,7 +6076,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.6</v>
+        <v>0.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6108,14 +6113,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 41881-2025</t>
+          <t>A 63419-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45903.36444444444</v>
+        <v>45274</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6128,7 +6133,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3</v>
+        <v>6.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6165,14 +6170,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 33454-2023</t>
+          <t>A 43752-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45130</v>
+        <v>45187</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6185,7 +6190,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6222,14 +6227,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 42069-2025</t>
+          <t>A 24321-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45903.65700231482</v>
+        <v>45797</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6242,7 +6247,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6279,14 +6284,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 42457-2025</t>
+          <t>A 30440-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45905.45289351852</v>
+        <v>45491.81488425926</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6299,7 +6304,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6336,14 +6341,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 2213-2025</t>
+          <t>A 34046-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45673.4359837963</v>
+        <v>45523.60449074074</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6356,7 +6361,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6393,14 +6398,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 38322-2023</t>
+          <t>A 49115-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45161.73658564815</v>
+        <v>45594.65954861111</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6413,7 +6418,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>6</v>
+        <v>0.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6450,14 +6455,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 57445-2024</t>
+          <t>A 44754-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45629.92240740741</v>
+        <v>45574.61065972222</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6470,7 +6475,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6507,14 +6512,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 36695-2025</t>
+          <t>A 44417-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45872</v>
+        <v>45573.8249537037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6527,7 +6532,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6564,14 +6569,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 36722-2025</t>
+          <t>A 27277-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45872</v>
+        <v>45812.52674768519</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6584,7 +6589,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6621,14 +6626,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 36719-2025</t>
+          <t>A 27555-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45872</v>
+        <v>45813.47424768518</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6641,7 +6646,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6678,14 +6683,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 50532-2024</t>
+          <t>A 71890-2021</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45601.56552083333</v>
+        <v>44543.78116898148</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6698,7 +6703,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6735,14 +6740,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 47405-2025</t>
+          <t>A 6957-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45930.61258101852</v>
+        <v>45343.45112268518</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6755,7 +6760,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6792,14 +6797,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 47404-2025</t>
+          <t>A 54279-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45930.61149305556</v>
+        <v>45616.855</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6812,7 +6817,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.6</v>
+        <v>6.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6849,14 +6854,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 14802-2023</t>
+          <t>A 51993-2022</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45014</v>
+        <v>44872</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6869,7 +6874,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6906,14 +6911,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 47630-2025</t>
+          <t>A 40270-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45931.48855324074</v>
+        <v>45554.64315972223</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6926,7 +6931,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6959,18 +6964,38 @@
         <v>0</v>
       </c>
       <c r="R102" s="2" t="inlineStr"/>
+      <c r="U102">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 40270-2024 karta knärot.png", "A 40270-2024")</f>
+        <v/>
+      </c>
+      <c r="V102">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 40270-2024 FSC-klagomål.docx", "A 40270-2024")</f>
+        <v/>
+      </c>
+      <c r="W102">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 40270-2024 FSC-klagomål mail.docx", "A 40270-2024")</f>
+        <v/>
+      </c>
+      <c r="X102">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 40270-2024 tillsynsbegäran.docx", "A 40270-2024")</f>
+        <v/>
+      </c>
+      <c r="Y102">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 40270-2024 tillsynsbegäran mail.docx", "A 40270-2024")</f>
+        <v/>
+      </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 46119-2025</t>
+          <t>A 13378-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45924</v>
+        <v>45005.50077546296</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6983,7 +7008,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>8.9</v>
+        <v>0.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7020,14 +7045,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 46121-2025</t>
+          <t>A 25925-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45924</v>
+        <v>45467.6122337963</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7040,7 +7065,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>8.5</v>
+        <v>1.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7077,14 +7102,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 48419-2025</t>
+          <t>A 47405-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45934.58502314815</v>
+        <v>45930.61258101852</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7097,7 +7122,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>7.7</v>
+        <v>1.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7134,14 +7159,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 49365-2025</t>
+          <t>A 47630-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45938.62341435185</v>
+        <v>45931.48855324074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7154,7 +7179,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7191,14 +7216,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 49072-2025</t>
+          <t>A 47404-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45937.65501157408</v>
+        <v>45930.61149305556</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7211,7 +7236,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7248,14 +7273,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 36404-2024</t>
+          <t>A 31617-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45535.70535879629</v>
+        <v>45833</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7268,7 +7293,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7305,14 +7330,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 20089-2025</t>
+          <t>A 22452-2021</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45771</v>
+        <v>44326</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7325,7 +7350,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7362,14 +7387,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 54128-2025</t>
+          <t>A 43228-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45964.45993055555</v>
+        <v>45567.8855787037</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7382,7 +7407,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>5.6</v>
+        <v>2</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7419,14 +7444,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 62086-2022</t>
+          <t>A 46121-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44919.46138888889</v>
+        <v>45924</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7439,7 +7464,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2</v>
+        <v>8.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7476,14 +7501,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 6957-2024</t>
+          <t>A 33300-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45343.45112268518</v>
+        <v>45840.93423611111</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7496,7 +7521,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.4</v>
+        <v>6.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7533,14 +7558,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 2632-2024</t>
+          <t>A 48419-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45313.97175925926</v>
+        <v>45934.58502314815</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7553,7 +7578,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>8.199999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7590,14 +7615,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 1663-2024</t>
+          <t>A 46119-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45306</v>
+        <v>45924</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7610,7 +7635,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>6.1</v>
+        <v>8.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7647,14 +7672,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 32175-2024</t>
+          <t>A 49072-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45511.61238425926</v>
+        <v>45937.65501157408</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7667,7 +7692,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.3</v>
+        <v>1.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7704,14 +7729,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 63626-2023</t>
+          <t>A 33295-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45275</v>
+        <v>45840.92070601852</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7724,7 +7749,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.4</v>
+        <v>0.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7761,14 +7786,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 56654-2025</t>
+          <t>A 33296-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45975.64869212963</v>
+        <v>45840.92538194444</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7781,7 +7806,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7818,14 +7843,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 37130-2024</t>
+          <t>A 33299-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45539.57060185185</v>
+        <v>45840.93229166666</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7838,7 +7863,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7875,14 +7900,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 23046-2024</t>
+          <t>A 62516-2022</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45450.4240625</v>
+        <v>44924.61912037037</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7895,7 +7920,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>4.2</v>
+        <v>0.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7932,14 +7957,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 5617-2024</t>
+          <t>A 34502-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45334.58319444444</v>
+        <v>45847.43163194445</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7952,7 +7977,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7985,38 +8010,18 @@
         <v>0</v>
       </c>
       <c r="R120" s="2" t="inlineStr"/>
-      <c r="U120">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 5617-2024 karta knärot.png", "A 5617-2024")</f>
-        <v/>
-      </c>
-      <c r="V120">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 5617-2024 FSC-klagomål.docx", "A 5617-2024")</f>
-        <v/>
-      </c>
-      <c r="W120">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 5617-2024 FSC-klagomål mail.docx", "A 5617-2024")</f>
-        <v/>
-      </c>
-      <c r="X120">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 5617-2024 tillsynsbegäran.docx", "A 5617-2024")</f>
-        <v/>
-      </c>
-      <c r="Y120">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 5617-2024 tillsynsbegäran mail.docx", "A 5617-2024")</f>
-        <v/>
-      </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 5926-2024</t>
+          <t>A 34500-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45336</v>
+        <v>45847.43075231482</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8029,7 +8034,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.4</v>
+        <v>7.4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8066,14 +8071,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 44233-2023</t>
+          <t>A 49365-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45183</v>
+        <v>45938.62341435185</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8086,7 +8091,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8119,38 +8124,18 @@
         <v>0</v>
       </c>
       <c r="R122" s="2" t="inlineStr"/>
-      <c r="U122">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 44233-2023 karta knärot.png", "A 44233-2023")</f>
-        <v/>
-      </c>
-      <c r="V122">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 44233-2023 FSC-klagomål.docx", "A 44233-2023")</f>
-        <v/>
-      </c>
-      <c r="W122">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 44233-2023 FSC-klagomål mail.docx", "A 44233-2023")</f>
-        <v/>
-      </c>
-      <c r="X122">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 44233-2023 tillsynsbegäran.docx", "A 44233-2023")</f>
-        <v/>
-      </c>
-      <c r="Y122">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 44233-2023 tillsynsbegäran mail.docx", "A 44233-2023")</f>
-        <v/>
-      </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 58852-2025</t>
+          <t>A 5926-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45987.40355324074</v>
+        <v>45336</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8163,7 +8148,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>4.9</v>
+        <v>1.4</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8200,14 +8185,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 58853-2025</t>
+          <t>A 6986-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45987.40476851852</v>
+        <v>45343.48984953704</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8220,7 +8205,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8257,14 +8242,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 59834-2025</t>
+          <t>A 36722-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45992.66811342593</v>
+        <v>45872</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8277,7 +8262,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3.1</v>
+        <v>0.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8314,14 +8299,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 20819-2023</t>
+          <t>A 36695-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45058</v>
+        <v>45872</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8334,7 +8319,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8371,14 +8356,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 2435-2026</t>
+          <t>A 20089-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>46036.90065972223</v>
+        <v>45771</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8391,7 +8376,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8428,14 +8413,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 2436-2026</t>
+          <t>A 61302-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>46036.90234953703</v>
+        <v>45645.90855324074</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8485,14 +8470,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 22452-2021</t>
+          <t>A 36719-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44326</v>
+        <v>45872</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8505,7 +8490,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8542,14 +8527,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 61319-2025</t>
+          <t>A 5714-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>46000.94983796297</v>
+        <v>45334.87804398148</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8562,7 +8547,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8599,14 +8584,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 61320-2025</t>
+          <t>A 50532-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>46000.95591435185</v>
+        <v>45601.56552083333</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8619,7 +8604,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8656,14 +8641,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 4114-2026</t>
+          <t>A 34380-2022</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>46044.60348379629</v>
+        <v>44792</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8676,7 +8661,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>7.1</v>
+        <v>1.4</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8713,14 +8698,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 43752-2023</t>
+          <t>A 1288-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45187</v>
+        <v>45667.50971064815</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8733,7 +8718,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>9.300000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8770,14 +8755,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 18954-2025</t>
+          <t>A 13377-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45764.51478009259</v>
+        <v>45005.49668981481</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8790,7 +8775,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>6.4</v>
+        <v>2.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8827,14 +8812,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 34217-2022</t>
+          <t>A 37130-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44791</v>
+        <v>45539.57060185185</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8847,7 +8832,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8884,14 +8869,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 63419-2023</t>
+          <t>A 59915-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45274</v>
+        <v>45641.74975694445</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8904,7 +8889,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>6.4</v>
+        <v>1.1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8941,14 +8926,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 37000-2023</t>
+          <t>A 5152-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45155.26925925926</v>
+        <v>45691.6000462963</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8961,7 +8946,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>10.7</v>
+        <v>2.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8998,14 +8983,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 6739-2026</t>
+          <t>A 42712-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>46056.69936342593</v>
+        <v>45181.61869212963</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9018,7 +9003,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9055,14 +9040,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 6986-2024</t>
+          <t>A 50562-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45343.48984953704</v>
+        <v>45601.59825231481</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9075,7 +9060,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9112,14 +9097,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 5715-2024</t>
+          <t>A 54128-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45334</v>
+        <v>45964.45993055555</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9132,7 +9117,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.5</v>
+        <v>5.6</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9169,14 +9154,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 5454-2025</t>
+          <t>A 20131-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45692.98011574074</v>
+        <v>45772.50918981482</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9189,7 +9174,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9226,14 +9211,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 19005-2023</t>
+          <t>A 56654-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45045.60177083333</v>
+        <v>45975.64869212963</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9246,7 +9231,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9283,14 +9268,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 34056-2024</t>
+          <t>A 5454-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45523.6125</v>
+        <v>45692.98011574074</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9303,7 +9288,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9340,14 +9325,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 59915-2024</t>
+          <t>A 2213-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45641.74975694445</v>
+        <v>45673.4359837963</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9360,7 +9345,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9397,14 +9382,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 57877-2022</t>
+          <t>A 58853-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44899.8749537037</v>
+        <v>45987.40476851852</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9417,7 +9402,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9454,14 +9439,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 13378-2023</t>
+          <t>A 58852-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45005.50077546296</v>
+        <v>45987.40355324074</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9474,7 +9459,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.9</v>
+        <v>4.9</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9511,14 +9496,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 20898-2021</t>
+          <t>A 40722-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44319.41962962963</v>
+        <v>45558.44460648148</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9531,7 +9516,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9568,14 +9553,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 25925-2024</t>
+          <t>A 36404-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45467.6122337963</v>
+        <v>45535.70535879629</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9588,7 +9573,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9625,14 +9610,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 37522-2024</t>
+          <t>A 57445-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45541</v>
+        <v>45629.92240740741</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9645,7 +9630,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>10.2</v>
+        <v>0.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9682,14 +9667,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 34155-2024</t>
+          <t>A 59834-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45524.3860300926</v>
+        <v>45992.66811342593</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9702,7 +9687,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9739,14 +9724,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 18791-2023</t>
+          <t>A 2436-2026</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45044</v>
+        <v>46036.90234953703</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9759,7 +9744,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9796,14 +9781,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 42712-2023</t>
+          <t>A 2435-2026</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45181.61869212963</v>
+        <v>46036.90065972223</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9816,7 +9801,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9853,14 +9838,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 71890-2021</t>
+          <t>A 49822-2022</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44543.78116898148</v>
+        <v>44862</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9873,7 +9858,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9910,14 +9895,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 49134-2021</t>
+          <t>A 61319-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44453</v>
+        <v>46000.94983796297</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9929,13 +9914,8 @@
           <t>ORUST</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G154" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9972,14 +9952,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 46708-2023</t>
+          <t>A 61320-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45198</v>
+        <v>46000.95591435185</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9992,7 +9972,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10029,14 +10009,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 40722-2024</t>
+          <t>A 4114-2026</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45558.44460648148</v>
+        <v>46044.60348379629</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10049,7 +10029,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.3</v>
+        <v>7.1</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10086,14 +10066,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 62369-2023</t>
+          <t>A 38322-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45268.30483796296</v>
+        <v>45161.73658564815</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10106,7 +10086,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10143,14 +10123,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 43228-2024</t>
+          <t>A 40743-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45567.8855787037</v>
+        <v>45558.45</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10163,7 +10143,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10200,14 +10180,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 14547-2022</t>
+          <t>A 18954-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44655</v>
+        <v>45764.51478009259</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10220,7 +10200,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>3.8</v>
+        <v>6.4</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10257,14 +10237,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 40270-2024</t>
+          <t>A 771-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45554.64315972223</v>
+        <v>44931</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10277,7 +10257,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10310,38 +10290,18 @@
         <v>0</v>
       </c>
       <c r="R160" s="2" t="inlineStr"/>
-      <c r="U160">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 40270-2024 karta knärot.png", "A 40270-2024")</f>
-        <v/>
-      </c>
-      <c r="V160">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 40270-2024 FSC-klagomål.docx", "A 40270-2024")</f>
-        <v/>
-      </c>
-      <c r="W160">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 40270-2024 FSC-klagomål mail.docx", "A 40270-2024")</f>
-        <v/>
-      </c>
-      <c r="X160">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 40270-2024 tillsynsbegäran.docx", "A 40270-2024")</f>
-        <v/>
-      </c>
-      <c r="Y160">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 40270-2024 tillsynsbegäran mail.docx", "A 40270-2024")</f>
-        <v/>
-      </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 11356-2025</t>
+          <t>A 20819-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45726.52880787037</v>
+        <v>45058</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10354,7 +10314,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10391,14 +10351,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 6485-2024</t>
+          <t>A 6739-2026</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45339.40619212963</v>
+        <v>46056.69936342593</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10411,7 +10371,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10448,14 +10408,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 13377-2023</t>
+          <t>A 11356-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45005.49668981481</v>
+        <v>45726.52880787037</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10468,7 +10428,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10505,14 +10465,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 61302-2024</t>
+          <t>A 34354-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45645.90855324074</v>
+        <v>45139</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10525,7 +10485,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10562,14 +10522,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 50562-2024</t>
+          <t>A 37000-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45601.59825231481</v>
+        <v>45155.26925925926</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10582,7 +10542,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.9</v>
+        <v>10.7</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10619,14 +10579,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 36999-2023</t>
+          <t>A 6485-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45155.24585648148</v>
+        <v>45339.40619212963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10639,7 +10599,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10676,14 +10636,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 5152-2025</t>
+          <t>A 45088-2021</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45691.6000462963</v>
+        <v>44439.391875</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10696,7 +10656,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10733,14 +10693,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 13243-2023</t>
+          <t>A 49617-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45002</v>
+        <v>45211</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10753,7 +10713,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10790,14 +10750,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 22959-2025</t>
+          <t>A 23682-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45790</v>
+        <v>45454.62754629629</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10810,7 +10770,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.6</v>
+        <v>4.1</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10847,14 +10807,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 9937-2025</t>
+          <t>A 39206-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45718.64129629629</v>
+        <v>45548.81200231481</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10867,7 +10827,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10904,14 +10864,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 23258-2025</t>
+          <t>A 5715-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45791.53902777778</v>
+        <v>45334</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10961,14 +10921,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 13521-2025</t>
+          <t>A 5617-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45736.48755787037</v>
+        <v>45334.58319444444</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10981,7 +10941,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11014,18 +10974,38 @@
         <v>0</v>
       </c>
       <c r="R172" s="2" t="inlineStr"/>
+      <c r="U172">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 5617-2024 karta knärot.png", "A 5617-2024")</f>
+        <v/>
+      </c>
+      <c r="V172">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 5617-2024 FSC-klagomål.docx", "A 5617-2024")</f>
+        <v/>
+      </c>
+      <c r="W172">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 5617-2024 FSC-klagomål mail.docx", "A 5617-2024")</f>
+        <v/>
+      </c>
+      <c r="X172">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 5617-2024 tillsynsbegäran.docx", "A 5617-2024")</f>
+        <v/>
+      </c>
+      <c r="Y172">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 5617-2024 tillsynsbegäran mail.docx", "A 5617-2024")</f>
+        <v/>
+      </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 13536-2025</t>
+          <t>A 34056-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45736.51413194444</v>
+        <v>45523.6125</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11038,7 +11018,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.1</v>
+        <v>2.8</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11075,14 +11055,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 14760-2025</t>
+          <t>A 3750-2022</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45742</v>
+        <v>44586.71618055556</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11095,7 +11075,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>4</v>
+        <v>1.9</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11132,14 +11112,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 23259-2025</t>
+          <t>A 37522-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45791.53978009259</v>
+        <v>45541</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11152,7 +11132,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.6</v>
+        <v>10.2</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11189,14 +11169,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 23254-2025</t>
+          <t>A 23046-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45791.5340162037</v>
+        <v>45450.4240625</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11209,7 +11189,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11246,14 +11226,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 34046-2024</t>
+          <t>A 44233-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45523.60449074074</v>
+        <v>45183</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11266,7 +11246,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11299,18 +11279,38 @@
         <v>0</v>
       </c>
       <c r="R177" s="2" t="inlineStr"/>
+      <c r="U177">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 44233-2023 karta knärot.png", "A 44233-2023")</f>
+        <v/>
+      </c>
+      <c r="V177">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 44233-2023 FSC-klagomål.docx", "A 44233-2023")</f>
+        <v/>
+      </c>
+      <c r="W177">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 44233-2023 FSC-klagomål mail.docx", "A 44233-2023")</f>
+        <v/>
+      </c>
+      <c r="X177">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 44233-2023 tillsynsbegäran.docx", "A 44233-2023")</f>
+        <v/>
+      </c>
+      <c r="Y177">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 44233-2023 tillsynsbegäran mail.docx", "A 44233-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 24321-2025</t>
+          <t>A 14547-2022</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45797</v>
+        <v>44655</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11360,14 +11360,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 44417-2024</t>
+          <t>A 18791-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45573.8249537037</v>
+        <v>45044</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11417,14 +11417,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 44754-2024</t>
+          <t>A 28109-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45574.61065972222</v>
+        <v>45476.63284722222</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11474,14 +11474,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 27277-2025</t>
+          <t>A 63626-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45812.52674768519</v>
+        <v>45275</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11531,14 +11531,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 27555-2025</t>
+          <t>A 32175-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45813.47424768518</v>
+        <v>45511.61238425926</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11588,14 +11588,14 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 54279-2024</t>
+          <t>A 34155-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45616.855</v>
+        <v>45524.3860300926</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>6.9</v>
+        <v>1.9</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>

--- a/Översikt ORUST.xlsx
+++ b/Översikt ORUST.xlsx
@@ -575,7 +575,7 @@
         <v>44476</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44326.68740740741</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,14 +750,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 74306-2021</t>
+          <t>A 49930-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44559</v>
+        <v>45597.57973379629</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -770,16 +770,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>14.6</v>
+        <v>16.6</v>
       </c>
       <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -803,6 +803,190 @@
         <v>4</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Motaggsvamp
+Svart trolldruva
+Revlummer
+Äkta lopplummer</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 49930-2024 artfynd.xlsx", "A 49930-2024")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 49930-2024 karta.png", "A 49930-2024")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 49930-2024 FSC-klagomål.docx", "A 49930-2024")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 49930-2024 FSC-klagomål mail.docx", "A 49930-2024")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 49930-2024 tillsynsbegäran.docx", "A 49930-2024")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 49930-2024 tillsynsbegäran mail.docx", "A 49930-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 14805-2023</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45014</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ORUST</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Grönsångare
+Kambräken
+Purpurmylia</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 14805-2023 artfynd.xlsx", "A 14805-2023")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 14805-2023 karta.png", "A 14805-2023")</f>
+        <v/>
+      </c>
+      <c r="U5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 14805-2023 karta knärot.png", "A 14805-2023")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 14805-2023 FSC-klagomål.docx", "A 14805-2023")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 14805-2023 FSC-klagomål mail.docx", "A 14805-2023")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 14805-2023 tillsynsbegäran.docx", "A 14805-2023")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 14805-2023 tillsynsbegäran mail.docx", "A 14805-2023")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/fåglar/A 14805-2023 prioriterade fågelarter.docx", "A 14805-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 74306-2021</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>44559</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ORUST</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Dvärglin
 Kösa
@@ -810,183 +994,87 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 74306-2021 artfynd.xlsx", "A 74306-2021")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 74306-2021 karta.png", "A 74306-2021")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 74306-2021 FSC-klagomål.docx", "A 74306-2021")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 74306-2021 FSC-klagomål mail.docx", "A 74306-2021")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 74306-2021 tillsynsbegäran.docx", "A 74306-2021")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 74306-2021 tillsynsbegäran mail.docx", "A 74306-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 14805-2023</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45014</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ORUST</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H5" t="n">
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 65099-2023</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45288</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ORUST</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
         <v>2</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
         <v>2</v>
       </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>2</v>
       </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
+      <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="n">
         <v>4</v>
       </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Grönsångare
-Kambräken
-Purpurmylia</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 14805-2023 artfynd.xlsx", "A 14805-2023")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 14805-2023 karta.png", "A 14805-2023")</f>
-        <v/>
-      </c>
-      <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 14805-2023 karta knärot.png", "A 14805-2023")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 14805-2023 FSC-klagomål.docx", "A 14805-2023")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 14805-2023 FSC-klagomål mail.docx", "A 14805-2023")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 14805-2023 tillsynsbegäran.docx", "A 14805-2023")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 14805-2023 tillsynsbegäran mail.docx", "A 14805-2023")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/fåglar/A 14805-2023 prioriterade fågelarter.docx", "A 14805-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 65099-2023</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45288</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ORUST</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>4</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Blockskapania
 Knärot
@@ -994,120 +1082,32 @@
 Stor revmossa</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 65099-2023 artfynd.xlsx", "A 65099-2023")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 65099-2023 karta.png", "A 65099-2023")</f>
         <v/>
       </c>
-      <c r="U6">
+      <c r="U7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 65099-2023 karta knärot.png", "A 65099-2023")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 65099-2023 FSC-klagomål.docx", "A 65099-2023")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 65099-2023 FSC-klagomål mail.docx", "A 65099-2023")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 65099-2023 tillsynsbegäran.docx", "A 65099-2023")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 65099-2023 tillsynsbegäran mail.docx", "A 65099-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 49930-2024</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45597.57973379629</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ORUST</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>4</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Motaggsvamp
-Svart trolldruva
-Revlummer
-Äkta lopplummer</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 49930-2024 artfynd.xlsx", "A 49930-2024")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 49930-2024 karta.png", "A 49930-2024")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 49930-2024 FSC-klagomål.docx", "A 49930-2024")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 49930-2024 FSC-klagomål mail.docx", "A 49930-2024")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 49930-2024 tillsynsbegäran.docx", "A 49930-2024")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 49930-2024 tillsynsbegäran mail.docx", "A 49930-2024")</f>
         <v/>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
         <v>44546</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>44266</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>45336</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>45791.5346875</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1467,14 +1467,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 20086-2023</t>
+          <t>A 13220-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45054</v>
+        <v>45386.52466435185</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -1525,45 +1525,45 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 20086-2023 artfynd.xlsx", "A 20086-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 13220-2024 artfynd.xlsx", "A 13220-2024")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 20086-2023 karta.png", "A 20086-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 13220-2024 karta.png", "A 13220-2024")</f>
         <v/>
       </c>
       <c r="U12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 20086-2023 karta knärot.png", "A 20086-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 13220-2024 karta knärot.png", "A 13220-2024")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 20086-2023 FSC-klagomål.docx", "A 20086-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 13220-2024 FSC-klagomål.docx", "A 13220-2024")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 20086-2023 FSC-klagomål mail.docx", "A 20086-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 13220-2024 FSC-klagomål mail.docx", "A 13220-2024")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 20086-2023 tillsynsbegäran.docx", "A 20086-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 13220-2024 tillsynsbegäran.docx", "A 13220-2024")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 20086-2023 tillsynsbegäran mail.docx", "A 20086-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 13220-2024 tillsynsbegäran mail.docx", "A 13220-2024")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 46272-2024</t>
+          <t>A 24618-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45581</v>
+        <v>45460</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1576,13 +1576,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.8</v>
+        <v>9.5</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1610,45 +1610,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 46272-2024 artfynd.xlsx", "A 46272-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 24618-2024 artfynd.xlsx", "A 24618-2024")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 46272-2024 karta.png", "A 46272-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 24618-2024 karta.png", "A 24618-2024")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 46272-2024 FSC-klagomål.docx", "A 46272-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 24618-2024 FSC-klagomål.docx", "A 24618-2024")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 46272-2024 FSC-klagomål mail.docx", "A 46272-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 24618-2024 FSC-klagomål mail.docx", "A 24618-2024")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 46272-2024 tillsynsbegäran.docx", "A 46272-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 24618-2024 tillsynsbegäran.docx", "A 24618-2024")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 46272-2024 tillsynsbegäran mail.docx", "A 46272-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 24618-2024 tillsynsbegäran mail.docx", "A 24618-2024")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 49047-2025</t>
+          <t>A 20086-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45937.63695601852</v>
+        <v>45054</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1661,19 +1661,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1688,52 +1688,56 @@
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Granspira</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 49047-2025 artfynd.xlsx", "A 49047-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 20086-2023 artfynd.xlsx", "A 20086-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 49047-2025 karta.png", "A 49047-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 20086-2023 karta.png", "A 20086-2023")</f>
+        <v/>
+      </c>
+      <c r="U14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 20086-2023 karta knärot.png", "A 20086-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 49047-2025 FSC-klagomål.docx", "A 49047-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 20086-2023 FSC-klagomål.docx", "A 20086-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 49047-2025 FSC-klagomål mail.docx", "A 49047-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 20086-2023 FSC-klagomål mail.docx", "A 20086-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 49047-2025 tillsynsbegäran.docx", "A 49047-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 20086-2023 tillsynsbegäran.docx", "A 20086-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 49047-2025 tillsynsbegäran mail.docx", "A 49047-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 20086-2023 tillsynsbegäran mail.docx", "A 20086-2023")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 13220-2024</t>
+          <t>A 5634-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45386.52466435185</v>
+        <v>45693.6689699074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1746,7 +1750,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1784,45 +1788,45 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 13220-2024 artfynd.xlsx", "A 13220-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 5634-2025 artfynd.xlsx", "A 5634-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 13220-2024 karta.png", "A 13220-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 5634-2025 karta.png", "A 5634-2025")</f>
         <v/>
       </c>
       <c r="U15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 13220-2024 karta knärot.png", "A 13220-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 5634-2025 karta knärot.png", "A 5634-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 13220-2024 FSC-klagomål.docx", "A 13220-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 5634-2025 FSC-klagomål.docx", "A 5634-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 13220-2024 FSC-klagomål mail.docx", "A 13220-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 5634-2025 FSC-klagomål mail.docx", "A 5634-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 13220-2024 tillsynsbegäran.docx", "A 13220-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 5634-2025 tillsynsbegäran.docx", "A 5634-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 13220-2024 tillsynsbegäran mail.docx", "A 13220-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 5634-2025 tillsynsbegäran mail.docx", "A 5634-2025")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 56035-2025</t>
+          <t>A 20709-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45973</v>
+        <v>45058</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1835,7 +1839,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>15.9</v>
+        <v>4.3</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1873,45 +1877,45 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 56035-2025 artfynd.xlsx", "A 56035-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 20709-2023 artfynd.xlsx", "A 20709-2023")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 56035-2025 karta.png", "A 56035-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 20709-2023 karta.png", "A 20709-2023")</f>
         <v/>
       </c>
       <c r="U16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 56035-2025 karta knärot.png", "A 56035-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 20709-2023 karta knärot.png", "A 20709-2023")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 56035-2025 FSC-klagomål.docx", "A 56035-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 20709-2023 FSC-klagomål.docx", "A 20709-2023")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 56035-2025 FSC-klagomål mail.docx", "A 56035-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 20709-2023 FSC-klagomål mail.docx", "A 20709-2023")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 56035-2025 tillsynsbegäran.docx", "A 56035-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 20709-2023 tillsynsbegäran.docx", "A 20709-2023")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 56035-2025 tillsynsbegäran mail.docx", "A 56035-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 20709-2023 tillsynsbegäran mail.docx", "A 20709-2023")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 24618-2024</t>
+          <t>A 49047-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45460</v>
+        <v>45937.63695601852</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1924,17 +1928,17 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>9.5</v>
+        <v>3.2</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>1</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
@@ -1948,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -1958,45 +1962,45 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Granspira</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 24618-2024 artfynd.xlsx", "A 24618-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 49047-2025 artfynd.xlsx", "A 49047-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 24618-2024 karta.png", "A 24618-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 49047-2025 karta.png", "A 49047-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 24618-2024 FSC-klagomål.docx", "A 24618-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 49047-2025 FSC-klagomål.docx", "A 49047-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 24618-2024 FSC-klagomål mail.docx", "A 24618-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 49047-2025 FSC-klagomål mail.docx", "A 49047-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 24618-2024 tillsynsbegäran.docx", "A 24618-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 49047-2025 tillsynsbegäran.docx", "A 49047-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 24618-2024 tillsynsbegäran mail.docx", "A 24618-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 49047-2025 tillsynsbegäran mail.docx", "A 49047-2025")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 58944-2025</t>
+          <t>A 46272-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45987</v>
+        <v>45581</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2009,19 +2013,19 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>8.4</v>
+        <v>2.8</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2033,59 +2037,55 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 58944-2025 artfynd.xlsx", "A 58944-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 46272-2024 artfynd.xlsx", "A 46272-2024")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 58944-2025 karta.png", "A 58944-2025")</f>
-        <v/>
-      </c>
-      <c r="U18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 58944-2025 karta knärot.png", "A 58944-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 46272-2024 karta.png", "A 46272-2024")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 58944-2025 FSC-klagomål.docx", "A 58944-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 46272-2024 FSC-klagomål.docx", "A 46272-2024")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 58944-2025 FSC-klagomål mail.docx", "A 58944-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 46272-2024 FSC-klagomål mail.docx", "A 46272-2024")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 58944-2025 tillsynsbegäran.docx", "A 58944-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 46272-2024 tillsynsbegäran.docx", "A 46272-2024")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 58944-2025 tillsynsbegäran mail.docx", "A 58944-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 46272-2024 tillsynsbegäran mail.docx", "A 46272-2024")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 41056-2025</t>
+          <t>A 56035-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45898</v>
+        <v>45973</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2098,20 +2098,20 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.3</v>
+        <v>15.9</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>1</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
@@ -2122,55 +2122,59 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 41056-2025 artfynd.xlsx", "A 41056-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 56035-2025 artfynd.xlsx", "A 56035-2025")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 41056-2025 karta.png", "A 41056-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 56035-2025 karta.png", "A 56035-2025")</f>
+        <v/>
+      </c>
+      <c r="U19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 56035-2025 karta knärot.png", "A 56035-2025")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 41056-2025 FSC-klagomål.docx", "A 41056-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 56035-2025 FSC-klagomål.docx", "A 56035-2025")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 41056-2025 FSC-klagomål mail.docx", "A 41056-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 56035-2025 FSC-klagomål mail.docx", "A 56035-2025")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 41056-2025 tillsynsbegäran.docx", "A 41056-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 56035-2025 tillsynsbegäran.docx", "A 56035-2025")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 41056-2025 tillsynsbegäran mail.docx", "A 41056-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 56035-2025 tillsynsbegäran mail.docx", "A 56035-2025")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 20709-2023</t>
+          <t>A 58944-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45058</v>
+        <v>45987</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2183,7 +2187,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4.3</v>
+        <v>8.4</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -2221,45 +2225,45 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 20709-2023 artfynd.xlsx", "A 20709-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 58944-2025 artfynd.xlsx", "A 58944-2025")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 20709-2023 karta.png", "A 20709-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 58944-2025 karta.png", "A 58944-2025")</f>
         <v/>
       </c>
       <c r="U20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 20709-2023 karta knärot.png", "A 20709-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 58944-2025 karta knärot.png", "A 58944-2025")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 20709-2023 FSC-klagomål.docx", "A 20709-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 58944-2025 FSC-klagomål.docx", "A 58944-2025")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 20709-2023 FSC-klagomål mail.docx", "A 20709-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 58944-2025 FSC-klagomål mail.docx", "A 58944-2025")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 20709-2023 tillsynsbegäran.docx", "A 20709-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 58944-2025 tillsynsbegäran.docx", "A 58944-2025")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 20709-2023 tillsynsbegäran mail.docx", "A 20709-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 58944-2025 tillsynsbegäran mail.docx", "A 58944-2025")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 5634-2025</t>
+          <t>A 41056-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45693.6689699074</v>
+        <v>45898</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2272,19 +2276,19 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>1</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -2296,45 +2300,41 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 5634-2025 artfynd.xlsx", "A 5634-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 41056-2025 artfynd.xlsx", "A 41056-2025")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 5634-2025 karta.png", "A 5634-2025")</f>
-        <v/>
-      </c>
-      <c r="U21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 5634-2025 karta knärot.png", "A 5634-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 41056-2025 karta.png", "A 41056-2025")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 5634-2025 FSC-klagomål.docx", "A 5634-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 41056-2025 FSC-klagomål.docx", "A 41056-2025")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 5634-2025 FSC-klagomål mail.docx", "A 5634-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 41056-2025 FSC-klagomål mail.docx", "A 41056-2025")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 5634-2025 tillsynsbegäran.docx", "A 5634-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 41056-2025 tillsynsbegäran.docx", "A 41056-2025")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 5634-2025 tillsynsbegäran mail.docx", "A 5634-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 41056-2025 tillsynsbegäran mail.docx", "A 41056-2025")</f>
         <v/>
       </c>
     </row>
@@ -2348,7 +2348,7 @@
         <v>44790</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>44250</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44445</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>44827</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>44448</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>44448</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>44529</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>44566.74335648148</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2797,14 +2797,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 35810-2021</t>
+          <t>A 47882-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44386</v>
+        <v>44448</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2854,14 +2854,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 45044-2021</t>
+          <t>A 47883-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44439</v>
+        <v>44448</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2911,14 +2911,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 55791-2022</t>
+          <t>A 45729-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44888.63157407408</v>
+        <v>44441</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2968,14 +2968,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 63141-2021</t>
+          <t>A 73292-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44505.79013888889</v>
+        <v>44550</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3025,14 +3025,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 15006-2022</t>
+          <t>A 47877-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44657</v>
+        <v>44448</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3082,14 +3082,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 56496-2021</t>
+          <t>A 15006-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44480</v>
+        <v>44657</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>10.3</v>
+        <v>1.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3139,14 +3139,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 8286-2022</t>
+          <t>A 35810-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44610</v>
+        <v>44386</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3196,14 +3196,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 73292-2021</t>
+          <t>A 56496-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44550</v>
+        <v>44480</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.3</v>
+        <v>10.3</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3260,7 +3260,7 @@
         <v>44694.73462962963</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>44694</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3367,14 +3367,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 47882-2021</t>
+          <t>A 45044-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44448</v>
+        <v>44439</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3424,14 +3424,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 47883-2021</t>
+          <t>A 8286-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44448</v>
+        <v>44610</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.2</v>
+        <v>8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3481,14 +3481,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 45729-2021</t>
+          <t>A 69196-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44441</v>
+        <v>44531.34472222222</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3538,14 +3538,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 47877-2021</t>
+          <t>A 55791-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44448</v>
+        <v>44888.63157407408</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>44872.93511574074</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3652,14 +3652,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 22255-2021</t>
+          <t>A 63141-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44326</v>
+        <v>44505.79013888889</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>4.3</v>
+        <v>1.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3709,14 +3709,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 69196-2021</t>
+          <t>A 22255-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44531.34472222222</v>
+        <v>44326</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.9</v>
+        <v>4.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3766,14 +3766,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 40338-2025</t>
+          <t>A 23682-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45895</v>
+        <v>45454.62754629629</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.6</v>
+        <v>4.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3823,14 +3823,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 14609-2024</t>
+          <t>A 22750-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45396.86570601852</v>
+        <v>45448.41990740741</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3843,7 +3843,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3880,14 +3880,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 40328-2025</t>
+          <t>A 28109-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45895</v>
+        <v>45476.63284722222</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.7</v>
+        <v>0.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3937,14 +3937,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 40442-2025</t>
+          <t>A 5714-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45895</v>
+        <v>45334.87804398148</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3994,14 +3994,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 20898-2021</t>
+          <t>A 20089-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44319.41962962963</v>
+        <v>45771</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4051,14 +4051,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 46708-2023</t>
+          <t>A 55777-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45198</v>
+        <v>44888.61921296296</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4108,14 +4108,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 62369-2023</t>
+          <t>A 34380-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45268.30483796296</v>
+        <v>44792</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>5.4</v>
+        <v>1.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4165,14 +4165,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 40681-2025</t>
+          <t>A 49822-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45896.85623842593</v>
+        <v>44862</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4222,14 +4222,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 34217-2022</t>
+          <t>A 57878-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44791</v>
+        <v>44899.875625</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.5</v>
+        <v>4.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4279,14 +4279,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 62086-2022</t>
+          <t>A 14609-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44919.46138888889</v>
+        <v>45396.86570601852</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4336,14 +4336,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 49134-2021</t>
+          <t>A 59309-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44453</v>
+        <v>45253.606875</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4355,13 +4355,8 @@
           <t>ORUST</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4398,14 +4393,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 57877-2022</t>
+          <t>A 49115-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44899.8749537037</v>
+        <v>45594.65954861111</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4418,7 +4413,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4455,14 +4450,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 49134-2021</t>
+          <t>A 3750-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44453</v>
+        <v>44586.71618055556</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4474,13 +4469,8 @@
           <t>ORUST</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4517,14 +4507,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 57878-2022</t>
+          <t>A 30440-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44899.875625</v>
+        <v>45491.81488425926</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4537,7 +4527,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4.6</v>
+        <v>1.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4574,14 +4564,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 22750-2024</t>
+          <t>A 39206-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45448.41990740741</v>
+        <v>45548.81200231481</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4594,7 +4584,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4631,14 +4621,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 39219-2025</t>
+          <t>A 62516-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45888</v>
+        <v>44924.61912037037</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4651,7 +4641,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4688,14 +4678,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 36999-2023</t>
+          <t>A 69193-2021</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45155.24585648148</v>
+        <v>44531</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4708,7 +4698,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4745,14 +4735,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 24179-2025</t>
+          <t>A 62086-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45796.72856481482</v>
+        <v>44919.46138888889</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4802,14 +4792,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 69193-2021</t>
+          <t>A 6957-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44531</v>
+        <v>45343.45112268518</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4822,7 +4812,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4859,14 +4849,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 41063-2025</t>
+          <t>A 45088-2021</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45898</v>
+        <v>44439.391875</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4879,7 +4869,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4916,14 +4906,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 14802-2023</t>
+          <t>A 40743-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45014</v>
+        <v>45558.45</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4936,7 +4926,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4973,14 +4963,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 19005-2023</t>
+          <t>A 2632-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45045.60177083333</v>
+        <v>45313.97175925926</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4993,7 +4983,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5030,14 +5020,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 47884-2024</t>
+          <t>A 49617-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45588.81101851852</v>
+        <v>45211</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5050,7 +5040,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.8</v>
+        <v>4.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5087,14 +5077,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 59309-2023</t>
+          <t>A 1663-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45253.606875</v>
+        <v>45306</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5107,7 +5097,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.7</v>
+        <v>6.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5144,14 +5134,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 2632-2024</t>
+          <t>A 32175-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45313.97175925926</v>
+        <v>45511.61238425926</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5164,7 +5154,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>8.199999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5201,14 +5191,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 41881-2025</t>
+          <t>A 63626-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45903.36444444444</v>
+        <v>45275</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5221,7 +5211,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5258,14 +5248,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 1663-2024</t>
+          <t>A 44417-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45306</v>
+        <v>45573.8249537037</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5278,7 +5268,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>6.1</v>
+        <v>3.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5315,14 +5305,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 42069-2025</t>
+          <t>A 44754-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45903.65700231482</v>
+        <v>45574.61065972222</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5335,7 +5325,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5372,14 +5362,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 33454-2023</t>
+          <t>A 27277-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45130</v>
+        <v>45812.52674768519</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5392,7 +5382,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>6</v>
+        <v>0.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5429,14 +5419,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 41688-2025</t>
+          <t>A 37130-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45902.39888888889</v>
+        <v>45539.57060185185</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5449,7 +5439,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5486,14 +5476,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 42457-2025</t>
+          <t>A 20131-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45905.45289351852</v>
+        <v>45772.50918981482</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5506,7 +5496,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5543,14 +5533,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 13243-2023</t>
+          <t>A 23046-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45002</v>
+        <v>45450.4240625</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5563,7 +5553,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5600,14 +5590,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 55777-2022</t>
+          <t>A 27555-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44888.61921296296</v>
+        <v>45813.47424768518</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5620,7 +5610,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5657,14 +5647,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 22959-2025</t>
+          <t>A 51993-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45790</v>
+        <v>44872</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5677,7 +5667,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5714,14 +5704,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 23258-2025</t>
+          <t>A 54279-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45791.53902777778</v>
+        <v>45616.855</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5734,7 +5724,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.5</v>
+        <v>6.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5771,14 +5761,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 23254-2025</t>
+          <t>A 5617-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45791.5340162037</v>
+        <v>45334.58319444444</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5791,7 +5781,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5824,18 +5814,38 @@
         <v>0</v>
       </c>
       <c r="R82" s="2" t="inlineStr"/>
+      <c r="U82">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 5617-2024 karta knärot.png", "A 5617-2024")</f>
+        <v/>
+      </c>
+      <c r="V82">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 5617-2024 FSC-klagomål.docx", "A 5617-2024")</f>
+        <v/>
+      </c>
+      <c r="W82">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 5617-2024 FSC-klagomål mail.docx", "A 5617-2024")</f>
+        <v/>
+      </c>
+      <c r="X82">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 5617-2024 tillsynsbegäran.docx", "A 5617-2024")</f>
+        <v/>
+      </c>
+      <c r="Y82">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 5617-2024 tillsynsbegäran mail.docx", "A 5617-2024")</f>
+        <v/>
+      </c>
     </row>
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 14760-2025</t>
+          <t>A 5926-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45742</v>
+        <v>45336</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5848,7 +5858,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5885,14 +5895,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 9937-2025</t>
+          <t>A 771-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45718.64129629629</v>
+        <v>44931</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5905,7 +5915,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5942,14 +5952,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 23259-2025</t>
+          <t>A 44233-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45791.53978009259</v>
+        <v>45183</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5962,7 +5972,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5995,18 +6005,38 @@
         <v>0</v>
       </c>
       <c r="R85" s="2" t="inlineStr"/>
+      <c r="U85">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 44233-2023 karta knärot.png", "A 44233-2023")</f>
+        <v/>
+      </c>
+      <c r="V85">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 44233-2023 FSC-klagomål.docx", "A 44233-2023")</f>
+        <v/>
+      </c>
+      <c r="W85">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 44233-2023 FSC-klagomål mail.docx", "A 44233-2023")</f>
+        <v/>
+      </c>
+      <c r="X85">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 44233-2023 tillsynsbegäran.docx", "A 44233-2023")</f>
+        <v/>
+      </c>
+      <c r="Y85">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 44233-2023 tillsynsbegäran mail.docx", "A 44233-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 13521-2025</t>
+          <t>A 34354-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45736.48755787037</v>
+        <v>45139</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6019,7 +6049,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6056,14 +6086,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 13536-2025</t>
+          <t>A 20898-2021</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45736.51413194444</v>
+        <v>44319.41962962963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6076,7 +6106,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6113,14 +6143,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 63419-2023</t>
+          <t>A 31617-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45274</v>
+        <v>45833</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6133,7 +6163,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>6.4</v>
+        <v>3.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6170,14 +6200,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 43752-2023</t>
+          <t>A 33454-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45187</v>
+        <v>45130</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6190,7 +6220,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>9.300000000000001</v>
+        <v>6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6227,14 +6257,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 24321-2025</t>
+          <t>A 25925-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45797</v>
+        <v>45467.6122337963</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6247,7 +6277,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6284,14 +6314,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 30440-2024</t>
+          <t>A 37522-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45491.81488425926</v>
+        <v>45541</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6304,7 +6334,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.9</v>
+        <v>10.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6341,14 +6371,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 34046-2024</t>
+          <t>A 2213-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45523.60449074074</v>
+        <v>45673.4359837963</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6361,7 +6391,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6398,14 +6428,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 49115-2024</t>
+          <t>A 38322-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45594.65954861111</v>
+        <v>45161.73658564815</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6418,7 +6448,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6455,14 +6485,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 44754-2024</t>
+          <t>A 20819-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45574.61065972222</v>
+        <v>45058</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6512,14 +6542,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 44417-2024</t>
+          <t>A 34155-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45573.8249537037</v>
+        <v>45524.3860300926</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6532,7 +6562,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6569,14 +6599,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 27277-2025</t>
+          <t>A 33300-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45812.52674768519</v>
+        <v>45840.93423611111</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6589,7 +6619,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.9</v>
+        <v>6.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6626,14 +6656,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 27555-2025</t>
+          <t>A 18791-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45813.47424768518</v>
+        <v>45044</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6646,7 +6676,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6683,14 +6713,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 71890-2021</t>
+          <t>A 42712-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44543.78116898148</v>
+        <v>45181.61869212963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6703,7 +6733,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6740,14 +6770,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 6957-2024</t>
+          <t>A 33295-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45343.45112268518</v>
+        <v>45840.92070601852</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6760,7 +6790,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3.4</v>
+        <v>0.4</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6797,14 +6827,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 54279-2024</t>
+          <t>A 33296-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45616.855</v>
+        <v>45840.92538194444</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6817,7 +6847,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>6.9</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6854,14 +6884,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 51993-2022</t>
+          <t>A 33299-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44872</v>
+        <v>45840.93229166666</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6874,7 +6904,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6911,14 +6941,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 40270-2024</t>
+          <t>A 22452-2021</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45554.64315972223</v>
+        <v>44326</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6931,7 +6961,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6964,38 +6994,18 @@
         <v>0</v>
       </c>
       <c r="R102" s="2" t="inlineStr"/>
-      <c r="U102">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 40270-2024 karta knärot.png", "A 40270-2024")</f>
-        <v/>
-      </c>
-      <c r="V102">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 40270-2024 FSC-klagomål.docx", "A 40270-2024")</f>
-        <v/>
-      </c>
-      <c r="W102">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 40270-2024 FSC-klagomål mail.docx", "A 40270-2024")</f>
-        <v/>
-      </c>
-      <c r="X102">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 40270-2024 tillsynsbegäran.docx", "A 40270-2024")</f>
-        <v/>
-      </c>
-      <c r="Y102">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 40270-2024 tillsynsbegäran mail.docx", "A 40270-2024")</f>
-        <v/>
-      </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 13378-2023</t>
+          <t>A 34500-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45005.50077546296</v>
+        <v>45847.43075231482</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7008,7 +7018,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.9</v>
+        <v>7.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7045,14 +7055,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 25925-2024</t>
+          <t>A 34502-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45467.6122337963</v>
+        <v>45847.43163194445</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7065,7 +7075,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7102,14 +7112,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 47405-2025</t>
+          <t>A 57445-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45930.61258101852</v>
+        <v>45629.92240740741</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7122,7 +7132,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7159,14 +7169,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 47630-2025</t>
+          <t>A 43752-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45931.48855324074</v>
+        <v>45187</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7179,7 +7189,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.8</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7216,14 +7226,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 47404-2025</t>
+          <t>A 18954-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45930.61149305556</v>
+        <v>45764.51478009259</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7236,7 +7246,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.6</v>
+        <v>6.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7273,14 +7283,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 31617-2025</t>
+          <t>A 34217-2022</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45833</v>
+        <v>44791</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7293,7 +7303,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7330,14 +7340,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 22452-2021</t>
+          <t>A 63419-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44326</v>
+        <v>45274</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7350,7 +7360,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.5</v>
+        <v>6.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7387,14 +7397,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 43228-2024</t>
+          <t>A 36695-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45567.8855787037</v>
+        <v>45872</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7407,7 +7417,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7444,14 +7454,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 46121-2025</t>
+          <t>A 36722-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45924</v>
+        <v>45872</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7464,7 +7474,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>8.5</v>
+        <v>0.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7501,14 +7511,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 33300-2025</t>
+          <t>A 37000-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45840.93423611111</v>
+        <v>45155.26925925926</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7521,7 +7531,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>6.4</v>
+        <v>10.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7558,14 +7568,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 48419-2025</t>
+          <t>A 36719-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45934.58502314815</v>
+        <v>45872</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7578,7 +7588,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>7.7</v>
+        <v>0.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7615,14 +7625,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 46119-2025</t>
+          <t>A 50532-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45924</v>
+        <v>45601.56552083333</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7635,7 +7645,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>8.9</v>
+        <v>1.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7672,14 +7682,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 49072-2025</t>
+          <t>A 14802-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45937.65501157408</v>
+        <v>45014</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7692,7 +7702,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7729,14 +7739,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 33295-2025</t>
+          <t>A 71890-2021</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45840.92070601852</v>
+        <v>44543.78116898148</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7749,7 +7759,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7786,14 +7796,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 33296-2025</t>
+          <t>A 6986-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45840.92538194444</v>
+        <v>45343.48984953704</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7806,7 +7816,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7843,14 +7853,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 33299-2025</t>
+          <t>A 5715-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45840.93229166666</v>
+        <v>45334</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7863,7 +7873,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7900,14 +7910,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 62516-2022</t>
+          <t>A 5454-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44924.61912037037</v>
+        <v>45692.98011574074</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7920,7 +7930,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7957,14 +7967,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 34502-2025</t>
+          <t>A 36404-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45847.43163194445</v>
+        <v>45535.70535879629</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7977,7 +7987,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.6</v>
+        <v>4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8014,14 +8024,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 34500-2025</t>
+          <t>A 19005-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45847.43075231482</v>
+        <v>45045.60177083333</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8034,7 +8044,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>7.4</v>
+        <v>0.7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8071,14 +8081,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 49365-2025</t>
+          <t>A 34056-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45938.62341435185</v>
+        <v>45523.6125</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8091,7 +8101,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8128,14 +8138,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 5926-2024</t>
+          <t>A 49134-2021</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45336</v>
+        <v>44453</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8147,8 +8157,13 @@
           <t>ORUST</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8185,14 +8200,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 6986-2024</t>
+          <t>A 59915-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45343.48984953704</v>
+        <v>45641.74975694445</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8205,7 +8220,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8242,14 +8257,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 36722-2025</t>
+          <t>A 49134-2021</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45872</v>
+        <v>44453</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8261,8 +8276,13 @@
           <t>ORUST</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8299,14 +8319,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 36695-2025</t>
+          <t>A 1288-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45872</v>
+        <v>45667.50971064815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8319,7 +8339,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8356,14 +8376,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 20089-2025</t>
+          <t>A 57877-2022</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45771</v>
+        <v>44899.8749537037</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8376,7 +8396,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8413,14 +8433,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 61302-2024</t>
+          <t>A 13378-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45645.90855324074</v>
+        <v>45005.50077546296</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8433,7 +8453,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8470,14 +8490,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 36719-2025</t>
+          <t>A 39219-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45872</v>
+        <v>45888</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8490,7 +8510,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8527,14 +8547,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 5714-2024</t>
+          <t>A 46708-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45334.87804398148</v>
+        <v>45198</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8547,7 +8567,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8584,14 +8604,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 50532-2024</t>
+          <t>A 24179-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45601.56552083333</v>
+        <v>45796.72856481482</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8604,7 +8624,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8641,14 +8661,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 34380-2022</t>
+          <t>A 40722-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44792</v>
+        <v>45558.44460648148</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8661,7 +8681,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8698,14 +8718,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 1288-2025</t>
+          <t>A 62369-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45667.50971064815</v>
+        <v>45268.30483796296</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8718,7 +8738,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.8</v>
+        <v>5.4</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8755,14 +8775,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 13377-2023</t>
+          <t>A 43228-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45005.49668981481</v>
+        <v>45567.8855787037</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8775,7 +8795,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8812,14 +8832,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 37130-2024</t>
+          <t>A 14547-2022</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45539.57060185185</v>
+        <v>44655</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8832,7 +8852,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.1</v>
+        <v>3.8</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8869,14 +8889,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 59915-2024</t>
+          <t>A 40442-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45641.74975694445</v>
+        <v>45895</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8889,7 +8909,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8926,14 +8946,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 5152-2025</t>
+          <t>A 40328-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45691.6000462963</v>
+        <v>45895</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8946,7 +8966,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.1</v>
+        <v>3.7</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8983,14 +9003,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 42712-2023</t>
+          <t>A 40338-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45181.61869212963</v>
+        <v>45895</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9003,7 +9023,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9040,14 +9060,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 50562-2024</t>
+          <t>A 40270-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45601.59825231481</v>
+        <v>45554.64315972223</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9060,7 +9080,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9093,18 +9113,38 @@
         <v>0</v>
       </c>
       <c r="R139" s="2" t="inlineStr"/>
+      <c r="U139">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 40270-2024 karta knärot.png", "A 40270-2024")</f>
+        <v/>
+      </c>
+      <c r="V139">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 40270-2024 FSC-klagomål.docx", "A 40270-2024")</f>
+        <v/>
+      </c>
+      <c r="W139">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 40270-2024 FSC-klagomål mail.docx", "A 40270-2024")</f>
+        <v/>
+      </c>
+      <c r="X139">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 40270-2024 tillsynsbegäran.docx", "A 40270-2024")</f>
+        <v/>
+      </c>
+      <c r="Y139">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 40270-2024 tillsynsbegäran mail.docx", "A 40270-2024")</f>
+        <v/>
+      </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 54128-2025</t>
+          <t>A 41063-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45964.45993055555</v>
+        <v>45898</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9117,7 +9157,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>5.6</v>
+        <v>0.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9154,14 +9194,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 20131-2025</t>
+          <t>A 40681-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45772.50918981482</v>
+        <v>45896.85623842593</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9174,7 +9214,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9211,14 +9251,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 56654-2025</t>
+          <t>A 47884-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45975.64869212963</v>
+        <v>45588.81101851852</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9231,7 +9271,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9268,14 +9308,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 5454-2025</t>
+          <t>A 41688-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45692.98011574074</v>
+        <v>45902.39888888889</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9288,7 +9328,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9325,14 +9365,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 2213-2025</t>
+          <t>A 41881-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45673.4359837963</v>
+        <v>45903.36444444444</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9345,7 +9385,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9382,14 +9422,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 58853-2025</t>
+          <t>A 42069-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45987.40476851852</v>
+        <v>45903.65700231482</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9402,7 +9442,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9439,14 +9479,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 58852-2025</t>
+          <t>A 11356-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45987.40355324074</v>
+        <v>45726.52880787037</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9459,7 +9499,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>4.9</v>
+        <v>1.1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9496,14 +9536,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 40722-2024</t>
+          <t>A 42457-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45558.44460648148</v>
+        <v>45905.45289351852</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9516,7 +9556,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9553,14 +9593,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 36404-2024</t>
+          <t>A 6485-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45535.70535879629</v>
+        <v>45339.40619212963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9573,7 +9613,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9610,14 +9650,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 57445-2024</t>
+          <t>A 13377-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45629.92240740741</v>
+        <v>45005.49668981481</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9630,7 +9670,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9667,14 +9707,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 59834-2025</t>
+          <t>A 61302-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45992.66811342593</v>
+        <v>45645.90855324074</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9687,7 +9727,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9724,14 +9764,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 2436-2026</t>
+          <t>A 50562-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>46036.90234953703</v>
+        <v>45601.59825231481</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9744,7 +9784,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9781,14 +9821,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 2435-2026</t>
+          <t>A 36999-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>46036.90065972223</v>
+        <v>45155.24585648148</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9801,7 +9841,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9838,14 +9878,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 49822-2022</t>
+          <t>A 5152-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44862</v>
+        <v>45691.6000462963</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9858,7 +9898,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9895,14 +9935,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 61319-2025</t>
+          <t>A 47405-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>46000.94983796297</v>
+        <v>45930.61258101852</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9915,7 +9955,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9952,14 +9992,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 61320-2025</t>
+          <t>A 47404-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>46000.95591435185</v>
+        <v>45930.61149305556</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9972,7 +10012,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10009,14 +10049,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 4114-2026</t>
+          <t>A 47630-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>46044.60348379629</v>
+        <v>45931.48855324074</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10029,7 +10069,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>7.1</v>
+        <v>2.8</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10066,14 +10106,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 38322-2023</t>
+          <t>A 13243-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45161.73658564815</v>
+        <v>45002</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10086,7 +10126,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10123,14 +10163,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 40743-2024</t>
+          <t>A 46119-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45558.45</v>
+        <v>45924</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10143,7 +10183,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.2</v>
+        <v>8.9</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10180,14 +10220,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 18954-2025</t>
+          <t>A 46121-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45764.51478009259</v>
+        <v>45924</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10200,7 +10240,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>6.4</v>
+        <v>8.5</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10237,14 +10277,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 771-2023</t>
+          <t>A 48419-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44931</v>
+        <v>45934.58502314815</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10257,7 +10297,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.6</v>
+        <v>7.7</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10294,14 +10334,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 20819-2023</t>
+          <t>A 49365-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45058</v>
+        <v>45938.62341435185</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10314,7 +10354,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10351,14 +10391,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 6739-2026</t>
+          <t>A 49072-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>46056.69936342593</v>
+        <v>45937.65501157408</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10371,7 +10411,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10408,14 +10448,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 11356-2025</t>
+          <t>A 22959-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45726.52880787037</v>
+        <v>45790</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10428,7 +10468,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10465,14 +10505,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 34354-2023</t>
+          <t>A 9937-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45139</v>
+        <v>45718.64129629629</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10485,7 +10525,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10522,14 +10562,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 37000-2023</t>
+          <t>A 23258-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45155.26925925926</v>
+        <v>45791.53902777778</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10542,7 +10582,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>10.7</v>
+        <v>1.5</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10579,14 +10619,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 6485-2024</t>
+          <t>A 13521-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45339.40619212963</v>
+        <v>45736.48755787037</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10599,7 +10639,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10636,14 +10676,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 45088-2021</t>
+          <t>A 13536-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44439.391875</v>
+        <v>45736.51413194444</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10656,7 +10696,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.8</v>
+        <v>0.1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10693,14 +10733,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 49617-2023</t>
+          <t>A 14760-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45211</v>
+        <v>45742</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10713,7 +10753,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10750,14 +10790,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 23682-2024</t>
+          <t>A 23259-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45454.62754629629</v>
+        <v>45791.53978009259</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10770,7 +10810,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>4.1</v>
+        <v>0.6</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10807,14 +10847,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 39206-2024</t>
+          <t>A 23254-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45548.81200231481</v>
+        <v>45791.5340162037</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10827,7 +10867,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10864,14 +10904,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 5715-2024</t>
+          <t>A 34046-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45334</v>
+        <v>45523.60449074074</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10884,7 +10924,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10921,14 +10961,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 5617-2024</t>
+          <t>A 24321-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45334.58319444444</v>
+        <v>45797</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10941,7 +10981,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10974,38 +11014,18 @@
         <v>0</v>
       </c>
       <c r="R172" s="2" t="inlineStr"/>
-      <c r="U172">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 5617-2024 karta knärot.png", "A 5617-2024")</f>
-        <v/>
-      </c>
-      <c r="V172">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 5617-2024 FSC-klagomål.docx", "A 5617-2024")</f>
-        <v/>
-      </c>
-      <c r="W172">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 5617-2024 FSC-klagomål mail.docx", "A 5617-2024")</f>
-        <v/>
-      </c>
-      <c r="X172">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 5617-2024 tillsynsbegäran.docx", "A 5617-2024")</f>
-        <v/>
-      </c>
-      <c r="Y172">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 5617-2024 tillsynsbegäran mail.docx", "A 5617-2024")</f>
-        <v/>
-      </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 34056-2024</t>
+          <t>A 54128-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45523.6125</v>
+        <v>45964.45993055555</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11018,7 +11038,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2.8</v>
+        <v>5.6</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11055,14 +11075,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 3750-2022</t>
+          <t>A 56654-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44586.71618055556</v>
+        <v>45975.64869212963</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11075,7 +11095,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.9</v>
+        <v>3.2</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11112,14 +11132,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 37522-2024</t>
+          <t>A 58852-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45541</v>
+        <v>45987.40355324074</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11132,7 +11152,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>10.2</v>
+        <v>4.9</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11169,14 +11189,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 23046-2024</t>
+          <t>A 58853-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45450.4240625</v>
+        <v>45987.40476851852</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11189,7 +11209,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11226,14 +11246,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 44233-2023</t>
+          <t>A 59834-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45183</v>
+        <v>45992.66811342593</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11279,38 +11299,18 @@
         <v>0</v>
       </c>
       <c r="R177" s="2" t="inlineStr"/>
-      <c r="U177">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 44233-2023 karta knärot.png", "A 44233-2023")</f>
-        <v/>
-      </c>
-      <c r="V177">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 44233-2023 FSC-klagomål.docx", "A 44233-2023")</f>
-        <v/>
-      </c>
-      <c r="W177">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 44233-2023 FSC-klagomål mail.docx", "A 44233-2023")</f>
-        <v/>
-      </c>
-      <c r="X177">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 44233-2023 tillsynsbegäran.docx", "A 44233-2023")</f>
-        <v/>
-      </c>
-      <c r="Y177">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 44233-2023 tillsynsbegäran mail.docx", "A 44233-2023")</f>
-        <v/>
-      </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 14547-2022</t>
+          <t>A 2435-2026</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44655</v>
+        <v>46036.90065972223</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11360,14 +11360,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 18791-2023</t>
+          <t>A 2436-2026</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45044</v>
+        <v>46036.90234953703</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11417,14 +11417,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 28109-2024</t>
+          <t>A 61319-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45476.63284722222</v>
+        <v>46000.94983796297</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11474,14 +11474,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 63626-2023</t>
+          <t>A 61320-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45275</v>
+        <v>46000.95591435185</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11531,14 +11531,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 32175-2024</t>
+          <t>A 4114-2026</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45511.61238425926</v>
+        <v>46044.60348379629</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.3</v>
+        <v>7.1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11588,14 +11588,14 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 34155-2024</t>
+          <t>A 6739-2026</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45524.3860300926</v>
+        <v>46056.69936342593</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>

--- a/Översikt ORUST.xlsx
+++ b/Översikt ORUST.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z183"/>
+  <dimension ref="A1:Z184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44476</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44326.68740740741</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,14 +750,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 49930-2024</t>
+          <t>A 74306-2021</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45597.57973379629</v>
+        <v>44559</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -770,16 +770,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>16.6</v>
+        <v>14.6</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -803,6 +803,282 @@
         <v>4</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Dvärglin
+Kösa
+Åkerrödtoppa
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 74306-2021 artfynd.xlsx", "A 74306-2021")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 74306-2021 karta.png", "A 74306-2021")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 74306-2021 FSC-klagomål.docx", "A 74306-2021")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 74306-2021 FSC-klagomål mail.docx", "A 74306-2021")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 74306-2021 tillsynsbegäran.docx", "A 74306-2021")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 74306-2021 tillsynsbegäran mail.docx", "A 74306-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 14805-2023</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45014</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ORUST</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Grönsångare
+Kambräken
+Purpurmylia</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 14805-2023 artfynd.xlsx", "A 14805-2023")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 14805-2023 karta.png", "A 14805-2023")</f>
+        <v/>
+      </c>
+      <c r="U5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 14805-2023 karta knärot.png", "A 14805-2023")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 14805-2023 FSC-klagomål.docx", "A 14805-2023")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 14805-2023 FSC-klagomål mail.docx", "A 14805-2023")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 14805-2023 tillsynsbegäran.docx", "A 14805-2023")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 14805-2023 tillsynsbegäran mail.docx", "A 14805-2023")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/fåglar/A 14805-2023 prioriterade fågelarter.docx", "A 14805-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 65099-2023</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45288</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ORUST</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Blockskapania
+Knärot
+Grov fjädermossa
+Stor revmossa</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 65099-2023 artfynd.xlsx", "A 65099-2023")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 65099-2023 karta.png", "A 65099-2023")</f>
+        <v/>
+      </c>
+      <c r="U6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 65099-2023 karta knärot.png", "A 65099-2023")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 65099-2023 FSC-klagomål.docx", "A 65099-2023")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 65099-2023 FSC-klagomål mail.docx", "A 65099-2023")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 65099-2023 tillsynsbegäran.docx", "A 65099-2023")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 65099-2023 tillsynsbegäran mail.docx", "A 65099-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 49930-2024</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45597.57973379629</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ORUST</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Motaggsvamp
 Svart trolldruva
@@ -810,304 +1086,28 @@
 Äkta lopplummer</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 49930-2024 artfynd.xlsx", "A 49930-2024")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 49930-2024 karta.png", "A 49930-2024")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 49930-2024 FSC-klagomål.docx", "A 49930-2024")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 49930-2024 FSC-klagomål mail.docx", "A 49930-2024")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 49930-2024 tillsynsbegäran.docx", "A 49930-2024")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 49930-2024 tillsynsbegäran mail.docx", "A 49930-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 14805-2023</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45014</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ORUST</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>4</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Grönsångare
-Kambräken
-Purpurmylia</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 14805-2023 artfynd.xlsx", "A 14805-2023")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 14805-2023 karta.png", "A 14805-2023")</f>
-        <v/>
-      </c>
-      <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 14805-2023 karta knärot.png", "A 14805-2023")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 14805-2023 FSC-klagomål.docx", "A 14805-2023")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 14805-2023 FSC-klagomål mail.docx", "A 14805-2023")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 14805-2023 tillsynsbegäran.docx", "A 14805-2023")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 14805-2023 tillsynsbegäran mail.docx", "A 14805-2023")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/fåglar/A 14805-2023 prioriterade fågelarter.docx", "A 14805-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 74306-2021</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>44559</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ORUST</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>3</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>4</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Dvärglin
-Kösa
-Åkerrödtoppa
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 74306-2021 artfynd.xlsx", "A 74306-2021")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 74306-2021 karta.png", "A 74306-2021")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 74306-2021 FSC-klagomål.docx", "A 74306-2021")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 74306-2021 FSC-klagomål mail.docx", "A 74306-2021")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 74306-2021 tillsynsbegäran.docx", "A 74306-2021")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 74306-2021 tillsynsbegäran mail.docx", "A 74306-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 65099-2023</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45288</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ORUST</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>4</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Blockskapania
-Knärot
-Grov fjädermossa
-Stor revmossa</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 65099-2023 artfynd.xlsx", "A 65099-2023")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 65099-2023 karta.png", "A 65099-2023")</f>
-        <v/>
-      </c>
-      <c r="U7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 65099-2023 karta knärot.png", "A 65099-2023")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 65099-2023 FSC-klagomål.docx", "A 65099-2023")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 65099-2023 FSC-klagomål mail.docx", "A 65099-2023")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 65099-2023 tillsynsbegäran.docx", "A 65099-2023")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 65099-2023 tillsynsbegäran mail.docx", "A 65099-2023")</f>
         <v/>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
         <v>44546</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>44266</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>45336</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>45791.5346875</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1467,14 +1467,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 13220-2024</t>
+          <t>A 41056-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45386.52466435185</v>
+        <v>45898</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1490,16 +1490,16 @@
         <v>3.3</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1511,59 +1511,55 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 13220-2024 artfynd.xlsx", "A 13220-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 41056-2025 artfynd.xlsx", "A 41056-2025")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 13220-2024 karta.png", "A 13220-2024")</f>
-        <v/>
-      </c>
-      <c r="U12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 13220-2024 karta knärot.png", "A 13220-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 41056-2025 karta.png", "A 41056-2025")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 13220-2024 FSC-klagomål.docx", "A 13220-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 41056-2025 FSC-klagomål.docx", "A 41056-2025")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 13220-2024 FSC-klagomål mail.docx", "A 13220-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 41056-2025 FSC-klagomål mail.docx", "A 41056-2025")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 13220-2024 tillsynsbegäran.docx", "A 13220-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 41056-2025 tillsynsbegäran.docx", "A 41056-2025")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 13220-2024 tillsynsbegäran mail.docx", "A 13220-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 41056-2025 tillsynsbegäran mail.docx", "A 41056-2025")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 24618-2024</t>
+          <t>A 58944-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45460</v>
+        <v>45987</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1576,7 +1572,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>9.5</v>
+        <v>8.4</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -1588,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1600,55 +1596,59 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 24618-2024 artfynd.xlsx", "A 24618-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 58944-2025 artfynd.xlsx", "A 58944-2025")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 24618-2024 karta.png", "A 24618-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 58944-2025 karta.png", "A 58944-2025")</f>
+        <v/>
+      </c>
+      <c r="U13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 58944-2025 karta knärot.png", "A 58944-2025")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 24618-2024 FSC-klagomål.docx", "A 24618-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 58944-2025 FSC-klagomål.docx", "A 58944-2025")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 24618-2024 FSC-klagomål mail.docx", "A 24618-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 58944-2025 FSC-klagomål mail.docx", "A 58944-2025")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 24618-2024 tillsynsbegäran.docx", "A 24618-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 58944-2025 tillsynsbegäran.docx", "A 58944-2025")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 24618-2024 tillsynsbegäran mail.docx", "A 24618-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 58944-2025 tillsynsbegäran mail.docx", "A 58944-2025")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 20086-2023</t>
+          <t>A 49047-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45054</v>
+        <v>45937.63695601852</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1661,19 +1661,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.9</v>
+        <v>3.2</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1688,56 +1688,52 @@
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Granspira</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 20086-2023 artfynd.xlsx", "A 20086-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 49047-2025 artfynd.xlsx", "A 49047-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 20086-2023 karta.png", "A 20086-2023")</f>
-        <v/>
-      </c>
-      <c r="U14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 20086-2023 karta knärot.png", "A 20086-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 49047-2025 karta.png", "A 49047-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 20086-2023 FSC-klagomål.docx", "A 20086-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 49047-2025 FSC-klagomål.docx", "A 49047-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 20086-2023 FSC-klagomål mail.docx", "A 20086-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 49047-2025 FSC-klagomål mail.docx", "A 49047-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 20086-2023 tillsynsbegäran.docx", "A 20086-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 49047-2025 tillsynsbegäran.docx", "A 49047-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 20086-2023 tillsynsbegäran mail.docx", "A 20086-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 49047-2025 tillsynsbegäran mail.docx", "A 49047-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 5634-2025</t>
+          <t>A 13220-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45693.6689699074</v>
+        <v>45386.52466435185</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1750,7 +1746,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1788,45 +1784,45 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 5634-2025 artfynd.xlsx", "A 5634-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 13220-2024 artfynd.xlsx", "A 13220-2024")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 5634-2025 karta.png", "A 5634-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 13220-2024 karta.png", "A 13220-2024")</f>
         <v/>
       </c>
       <c r="U15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 5634-2025 karta knärot.png", "A 5634-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 13220-2024 karta knärot.png", "A 13220-2024")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 5634-2025 FSC-klagomål.docx", "A 5634-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 13220-2024 FSC-klagomål.docx", "A 13220-2024")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 5634-2025 FSC-klagomål mail.docx", "A 5634-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 13220-2024 FSC-klagomål mail.docx", "A 13220-2024")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 5634-2025 tillsynsbegäran.docx", "A 5634-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 13220-2024 tillsynsbegäran.docx", "A 13220-2024")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 5634-2025 tillsynsbegäran mail.docx", "A 5634-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 13220-2024 tillsynsbegäran mail.docx", "A 13220-2024")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 20709-2023</t>
+          <t>A 24618-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45058</v>
+        <v>45460</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1839,7 +1835,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.3</v>
+        <v>9.5</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1851,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1863,59 +1859,55 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 20709-2023 artfynd.xlsx", "A 20709-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 24618-2024 artfynd.xlsx", "A 24618-2024")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 20709-2023 karta.png", "A 20709-2023")</f>
-        <v/>
-      </c>
-      <c r="U16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 20709-2023 karta knärot.png", "A 20709-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 24618-2024 karta.png", "A 24618-2024")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 20709-2023 FSC-klagomål.docx", "A 20709-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 24618-2024 FSC-klagomål.docx", "A 24618-2024")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 20709-2023 FSC-klagomål mail.docx", "A 20709-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 24618-2024 FSC-klagomål mail.docx", "A 24618-2024")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 20709-2023 tillsynsbegäran.docx", "A 20709-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 24618-2024 tillsynsbegäran.docx", "A 24618-2024")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 20709-2023 tillsynsbegäran mail.docx", "A 20709-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 24618-2024 tillsynsbegäran mail.docx", "A 24618-2024")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 49047-2025</t>
+          <t>A 20709-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45937.63695601852</v>
+        <v>45058</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1928,19 +1920,19 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1955,52 +1947,56 @@
         <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Granspira</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 49047-2025 artfynd.xlsx", "A 49047-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 20709-2023 artfynd.xlsx", "A 20709-2023")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 49047-2025 karta.png", "A 49047-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 20709-2023 karta.png", "A 20709-2023")</f>
+        <v/>
+      </c>
+      <c r="U17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 20709-2023 karta knärot.png", "A 20709-2023")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 49047-2025 FSC-klagomål.docx", "A 49047-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 20709-2023 FSC-klagomål.docx", "A 20709-2023")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 49047-2025 FSC-klagomål mail.docx", "A 49047-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 20709-2023 FSC-klagomål mail.docx", "A 20709-2023")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 49047-2025 tillsynsbegäran.docx", "A 49047-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 20709-2023 tillsynsbegäran.docx", "A 20709-2023")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 49047-2025 tillsynsbegäran mail.docx", "A 49047-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 20709-2023 tillsynsbegäran mail.docx", "A 20709-2023")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 46272-2024</t>
+          <t>A 56035-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45581</v>
+        <v>45973</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2013,20 +2009,20 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.8</v>
+        <v>15.9</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>1</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
@@ -2037,55 +2033,59 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 46272-2024 artfynd.xlsx", "A 46272-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 56035-2025 artfynd.xlsx", "A 56035-2025")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 46272-2024 karta.png", "A 46272-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 56035-2025 karta.png", "A 56035-2025")</f>
+        <v/>
+      </c>
+      <c r="U18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 56035-2025 karta knärot.png", "A 56035-2025")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 46272-2024 FSC-klagomål.docx", "A 46272-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 56035-2025 FSC-klagomål.docx", "A 56035-2025")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 46272-2024 FSC-klagomål mail.docx", "A 46272-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 56035-2025 FSC-klagomål mail.docx", "A 56035-2025")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 46272-2024 tillsynsbegäran.docx", "A 46272-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 56035-2025 tillsynsbegäran.docx", "A 56035-2025")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 46272-2024 tillsynsbegäran mail.docx", "A 46272-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 56035-2025 tillsynsbegäran mail.docx", "A 56035-2025")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 56035-2025</t>
+          <t>A 5634-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45973</v>
+        <v>45693.6689699074</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>15.9</v>
+        <v>3.1</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -2136,45 +2136,45 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 56035-2025 artfynd.xlsx", "A 56035-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 5634-2025 artfynd.xlsx", "A 5634-2025")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 56035-2025 karta.png", "A 56035-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 5634-2025 karta.png", "A 5634-2025")</f>
         <v/>
       </c>
       <c r="U19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 56035-2025 karta knärot.png", "A 56035-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 5634-2025 karta knärot.png", "A 5634-2025")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 56035-2025 FSC-klagomål.docx", "A 56035-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 5634-2025 FSC-klagomål.docx", "A 5634-2025")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 56035-2025 FSC-klagomål mail.docx", "A 56035-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 5634-2025 FSC-klagomål mail.docx", "A 5634-2025")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 56035-2025 tillsynsbegäran.docx", "A 56035-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 5634-2025 tillsynsbegäran.docx", "A 5634-2025")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 56035-2025 tillsynsbegäran mail.docx", "A 56035-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 5634-2025 tillsynsbegäran mail.docx", "A 5634-2025")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 58944-2025</t>
+          <t>A 20086-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45987</v>
+        <v>45054</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>8.4</v>
+        <v>1.9</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -2225,45 +2225,45 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 58944-2025 artfynd.xlsx", "A 58944-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 20086-2023 artfynd.xlsx", "A 20086-2023")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 58944-2025 karta.png", "A 58944-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 20086-2023 karta.png", "A 20086-2023")</f>
         <v/>
       </c>
       <c r="U20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 58944-2025 karta knärot.png", "A 58944-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 20086-2023 karta knärot.png", "A 20086-2023")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 58944-2025 FSC-klagomål.docx", "A 58944-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 20086-2023 FSC-klagomål.docx", "A 20086-2023")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 58944-2025 FSC-klagomål mail.docx", "A 58944-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 20086-2023 FSC-klagomål mail.docx", "A 20086-2023")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 58944-2025 tillsynsbegäran.docx", "A 58944-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 20086-2023 tillsynsbegäran.docx", "A 20086-2023")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 58944-2025 tillsynsbegäran mail.docx", "A 58944-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 20086-2023 tillsynsbegäran mail.docx", "A 20086-2023")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 41056-2025</t>
+          <t>A 46272-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45898</v>
+        <v>45581</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2310,31 +2310,31 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 41056-2025 artfynd.xlsx", "A 41056-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 46272-2024 artfynd.xlsx", "A 46272-2024")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 41056-2025 karta.png", "A 41056-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 46272-2024 karta.png", "A 46272-2024")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 41056-2025 FSC-klagomål.docx", "A 41056-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 46272-2024 FSC-klagomål.docx", "A 46272-2024")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 41056-2025 FSC-klagomål mail.docx", "A 41056-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 46272-2024 FSC-klagomål mail.docx", "A 46272-2024")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 41056-2025 tillsynsbegäran.docx", "A 41056-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 46272-2024 tillsynsbegäran.docx", "A 46272-2024")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 41056-2025 tillsynsbegäran mail.docx", "A 41056-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 46272-2024 tillsynsbegäran mail.docx", "A 46272-2024")</f>
         <v/>
       </c>
     </row>
@@ -2348,7 +2348,7 @@
         <v>44790</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>44250</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44445</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>44827</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>44448</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>44448</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>44529</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>44566.74335648148</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2797,14 +2797,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 47882-2021</t>
+          <t>A 35810-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44448</v>
+        <v>44386</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2854,14 +2854,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 47883-2021</t>
+          <t>A 45044-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44448</v>
+        <v>44439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2911,14 +2911,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 45729-2021</t>
+          <t>A 55791-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44441</v>
+        <v>44888.63157407408</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2968,14 +2968,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 73292-2021</t>
+          <t>A 63141-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44550</v>
+        <v>44505.79013888889</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3025,14 +3025,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 47877-2021</t>
+          <t>A 15006-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44448</v>
+        <v>44657</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3082,14 +3082,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 15006-2022</t>
+          <t>A 56496-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44657</v>
+        <v>44480</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.8</v>
+        <v>10.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3139,14 +3139,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 35810-2021</t>
+          <t>A 8286-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44386</v>
+        <v>44610</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3196,14 +3196,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 56496-2021</t>
+          <t>A 73292-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44480</v>
+        <v>44550</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>10.3</v>
+        <v>2.3</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3260,7 +3260,7 @@
         <v>44694.73462962963</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>44694</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3367,14 +3367,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 45044-2021</t>
+          <t>A 47882-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44439</v>
+        <v>44448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3424,14 +3424,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 8286-2022</t>
+          <t>A 47883-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44610</v>
+        <v>44448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>8</v>
+        <v>2.2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3481,14 +3481,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 69196-2021</t>
+          <t>A 45729-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44531.34472222222</v>
+        <v>44441</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3538,14 +3538,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 55791-2022</t>
+          <t>A 47877-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44888.63157407408</v>
+        <v>44448</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>44872.93511574074</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3652,14 +3652,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 63141-2021</t>
+          <t>A 22255-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44505.79013888889</v>
+        <v>44326</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.6</v>
+        <v>4.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3709,14 +3709,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 22255-2021</t>
+          <t>A 69196-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44326</v>
+        <v>44531.34472222222</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>4.3</v>
+        <v>0.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3766,14 +3766,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 23682-2024</t>
+          <t>A 62369-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45454.62754629629</v>
+        <v>45268.30483796296</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>4.1</v>
+        <v>5.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3823,14 +3823,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 22750-2024</t>
+          <t>A 14609-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45448.41990740741</v>
+        <v>45396.86570601852</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3843,7 +3843,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3880,14 +3880,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 28109-2024</t>
+          <t>A 34217-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45476.63284722222</v>
+        <v>44791</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3937,14 +3937,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 5714-2024</t>
+          <t>A 57877-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45334.87804398148</v>
+        <v>44899.8749537037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3994,14 +3994,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 20089-2025</t>
+          <t>A 36999-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45771</v>
+        <v>45155.24585648148</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4051,14 +4051,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 55777-2022</t>
+          <t>A 69193-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44888.61921296296</v>
+        <v>44531</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4108,14 +4108,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 34380-2022</t>
+          <t>A 22750-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44792</v>
+        <v>45448.41990740741</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4165,14 +4165,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 49822-2022</t>
+          <t>A 19005-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44862</v>
+        <v>45045.60177083333</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4222,14 +4222,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 57878-2022</t>
+          <t>A 59309-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44899.875625</v>
+        <v>45253.606875</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>4.6</v>
+        <v>2.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4279,14 +4279,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 14609-2024</t>
+          <t>A 24321-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45396.86570601852</v>
+        <v>45797</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4336,14 +4336,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 59309-2023</t>
+          <t>A 34046-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45253.606875</v>
+        <v>45523.60449074074</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4393,14 +4393,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 49115-2024</t>
+          <t>A 55777-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45594.65954861111</v>
+        <v>44888.61921296296</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4450,14 +4450,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 3750-2022</t>
+          <t>A 49134-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44586.71618055556</v>
+        <v>44453</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4469,8 +4469,13 @@
           <t>ORUST</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4507,14 +4512,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 30440-2024</t>
+          <t>A 63419-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45491.81488425926</v>
+        <v>45274</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4527,7 +4532,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.9</v>
+        <v>6.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4564,14 +4569,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 39206-2024</t>
+          <t>A 43752-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45548.81200231481</v>
+        <v>45187</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4584,7 +4589,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4621,14 +4626,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 62516-2022</t>
+          <t>A 44754-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44924.61912037037</v>
+        <v>45574.61065972222</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4641,7 +4646,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4678,14 +4683,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 69193-2021</t>
+          <t>A 30440-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44531</v>
+        <v>45491.81488425926</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4698,7 +4703,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4735,14 +4740,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 62086-2022</t>
+          <t>A 8457-2026</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44919.46138888889</v>
+        <v>46065.42722222222</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4755,7 +4760,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4792,14 +4797,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 6957-2024</t>
+          <t>A 44417-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45343.45112268518</v>
+        <v>45573.8249537037</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4812,7 +4817,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4849,14 +4854,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 45088-2021</t>
+          <t>A 39219-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44439.391875</v>
+        <v>45888</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4869,7 +4874,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4906,14 +4911,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 40743-2024</t>
+          <t>A 27277-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45558.45</v>
+        <v>45812.52674768519</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4926,7 +4931,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4963,14 +4968,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 2632-2024</t>
+          <t>A 27555-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45313.97175925926</v>
+        <v>45813.47424768518</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4983,7 +4988,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>8.199999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5020,14 +5025,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 49617-2023</t>
+          <t>A 49115-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45211</v>
+        <v>45594.65954861111</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5040,7 +5045,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4.4</v>
+        <v>0.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5077,14 +5082,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 1663-2024</t>
+          <t>A 54279-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45306</v>
+        <v>45616.855</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5097,7 +5102,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>6.1</v>
+        <v>6.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5134,14 +5139,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 32175-2024</t>
+          <t>A 24179-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45511.61238425926</v>
+        <v>45796.72856481482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5154,7 +5159,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5191,14 +5196,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 63626-2023</t>
+          <t>A 40338-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45275</v>
+        <v>45895</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5211,7 +5216,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5248,14 +5253,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 44417-2024</t>
+          <t>A 71890-2021</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45573.8249537037</v>
+        <v>44543.78116898148</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5268,7 +5273,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5305,14 +5310,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 44754-2024</t>
+          <t>A 40328-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45574.61065972222</v>
+        <v>45895</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5325,7 +5330,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5362,14 +5367,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 27277-2025</t>
+          <t>A 6957-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45812.52674768519</v>
+        <v>45343.45112268518</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5382,7 +5387,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5419,14 +5424,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 37130-2024</t>
+          <t>A 31617-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45539.57060185185</v>
+        <v>45833</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5439,7 +5444,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.1</v>
+        <v>3.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5476,14 +5481,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 20131-2025</t>
+          <t>A 40442-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45772.50918981482</v>
+        <v>45895</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5496,7 +5501,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5533,14 +5538,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 23046-2024</t>
+          <t>A 51993-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45450.4240625</v>
+        <v>44872</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5553,7 +5558,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5590,14 +5595,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 27555-2025</t>
+          <t>A 40270-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45813.47424768518</v>
+        <v>45554.64315972223</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5610,7 +5615,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5643,18 +5648,38 @@
         <v>0</v>
       </c>
       <c r="R79" s="2" t="inlineStr"/>
+      <c r="U79">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 40270-2024 karta knärot.png", "A 40270-2024")</f>
+        <v/>
+      </c>
+      <c r="V79">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 40270-2024 FSC-klagomål.docx", "A 40270-2024")</f>
+        <v/>
+      </c>
+      <c r="W79">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 40270-2024 FSC-klagomål mail.docx", "A 40270-2024")</f>
+        <v/>
+      </c>
+      <c r="X79">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 40270-2024 tillsynsbegäran.docx", "A 40270-2024")</f>
+        <v/>
+      </c>
+      <c r="Y79">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 40270-2024 tillsynsbegäran mail.docx", "A 40270-2024")</f>
+        <v/>
+      </c>
     </row>
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 51993-2022</t>
+          <t>A 13378-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44872</v>
+        <v>45005.50077546296</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5667,7 +5692,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5704,14 +5729,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 54279-2024</t>
+          <t>A 40681-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45616.855</v>
+        <v>45896.85623842593</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5724,7 +5749,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>6.9</v>
+        <v>0.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5761,14 +5786,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 5617-2024</t>
+          <t>A 33300-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45334.58319444444</v>
+        <v>45840.93423611111</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5781,7 +5806,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>6.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5814,38 +5839,18 @@
         <v>0</v>
       </c>
       <c r="R82" s="2" t="inlineStr"/>
-      <c r="U82">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 5617-2024 karta knärot.png", "A 5617-2024")</f>
-        <v/>
-      </c>
-      <c r="V82">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 5617-2024 FSC-klagomål.docx", "A 5617-2024")</f>
-        <v/>
-      </c>
-      <c r="W82">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 5617-2024 FSC-klagomål mail.docx", "A 5617-2024")</f>
-        <v/>
-      </c>
-      <c r="X82">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 5617-2024 tillsynsbegäran.docx", "A 5617-2024")</f>
-        <v/>
-      </c>
-      <c r="Y82">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 5617-2024 tillsynsbegäran mail.docx", "A 5617-2024")</f>
-        <v/>
-      </c>
     </row>
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 5926-2024</t>
+          <t>A 25925-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45336</v>
+        <v>45467.6122337963</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5858,7 +5863,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5895,14 +5900,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 771-2023</t>
+          <t>A 33295-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44931</v>
+        <v>45840.92070601852</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5915,7 +5920,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5952,14 +5957,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 44233-2023</t>
+          <t>A 33296-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45183</v>
+        <v>45840.92538194444</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5972,7 +5977,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6005,38 +6010,18 @@
         <v>0</v>
       </c>
       <c r="R85" s="2" t="inlineStr"/>
-      <c r="U85">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 44233-2023 karta knärot.png", "A 44233-2023")</f>
-        <v/>
-      </c>
-      <c r="V85">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 44233-2023 FSC-klagomål.docx", "A 44233-2023")</f>
-        <v/>
-      </c>
-      <c r="W85">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 44233-2023 FSC-klagomål mail.docx", "A 44233-2023")</f>
-        <v/>
-      </c>
-      <c r="X85">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 44233-2023 tillsynsbegäran.docx", "A 44233-2023")</f>
-        <v/>
-      </c>
-      <c r="Y85">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 44233-2023 tillsynsbegäran mail.docx", "A 44233-2023")</f>
-        <v/>
-      </c>
     </row>
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 34354-2023</t>
+          <t>A 33299-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45139</v>
+        <v>45840.93229166666</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6049,7 +6034,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3.6</v>
+        <v>0.4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6086,14 +6071,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 20898-2021</t>
+          <t>A 41063-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44319.41962962963</v>
+        <v>45898</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6106,7 +6091,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6143,14 +6128,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 31617-2025</t>
+          <t>A 47884-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45833</v>
+        <v>45588.81101851852</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6163,7 +6148,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.6</v>
+        <v>0.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6200,14 +6185,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 33454-2023</t>
+          <t>A 34502-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45130</v>
+        <v>45847.43163194445</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6220,7 +6205,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>6</v>
+        <v>0.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6257,14 +6242,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 25925-2024</t>
+          <t>A 34500-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45467.6122337963</v>
+        <v>45847.43075231482</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6277,7 +6262,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.1</v>
+        <v>7.4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6314,14 +6299,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 37522-2024</t>
+          <t>A 41881-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45541</v>
+        <v>45903.36444444444</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6334,7 +6319,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>10.2</v>
+        <v>3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6371,14 +6356,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 2213-2025</t>
+          <t>A 42069-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45673.4359837963</v>
+        <v>45903.65700231482</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6428,14 +6413,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 38322-2023</t>
+          <t>A 22452-2021</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45161.73658564815</v>
+        <v>44326</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6448,7 +6433,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6485,14 +6470,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 20819-2023</t>
+          <t>A 41688-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45058</v>
+        <v>45902.39888888889</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6505,7 +6490,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6542,14 +6527,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 34155-2024</t>
+          <t>A 42457-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45524.3860300926</v>
+        <v>45905.45289351852</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6562,7 +6547,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6599,14 +6584,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 33300-2025</t>
+          <t>A 43228-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45840.93423611111</v>
+        <v>45567.8855787037</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6619,7 +6604,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>6.4</v>
+        <v>2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6656,14 +6641,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 18791-2023</t>
+          <t>A 36722-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45044</v>
+        <v>45872</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6676,7 +6661,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6713,14 +6698,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 42712-2023</t>
+          <t>A 36695-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45181.61869212963</v>
+        <v>45872</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6733,7 +6718,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6770,14 +6755,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 33295-2025</t>
+          <t>A 62516-2022</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45840.92070601852</v>
+        <v>44924.61912037037</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6790,7 +6775,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6827,14 +6812,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 33296-2025</t>
+          <t>A 36719-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45840.92538194444</v>
+        <v>45872</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6847,7 +6832,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6884,14 +6869,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 33299-2025</t>
+          <t>A 50532-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45840.93229166666</v>
+        <v>45601.56552083333</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6904,7 +6889,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6941,14 +6926,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 22452-2021</t>
+          <t>A 5926-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44326</v>
+        <v>45336</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6961,7 +6946,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6998,14 +6983,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 34500-2025</t>
+          <t>A 6986-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45847.43075231482</v>
+        <v>45343.48984953704</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7018,7 +7003,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>7.4</v>
+        <v>1.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7055,14 +7040,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 34502-2025</t>
+          <t>A 1288-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45847.43163194445</v>
+        <v>45667.50971064815</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7075,7 +7060,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7112,14 +7097,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 57445-2024</t>
+          <t>A 20089-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45629.92240740741</v>
+        <v>45771</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7132,7 +7117,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7169,14 +7154,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 43752-2023</t>
+          <t>A 61302-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45187</v>
+        <v>45645.90855324074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7189,7 +7174,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>9.300000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7226,14 +7211,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 18954-2025</t>
+          <t>A 5714-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45764.51478009259</v>
+        <v>45334.87804398148</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7246,7 +7231,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>6.4</v>
+        <v>1.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7283,14 +7268,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 34217-2022</t>
+          <t>A 34380-2022</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44791</v>
+        <v>44792</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7303,7 +7288,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7340,14 +7325,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 63419-2023</t>
+          <t>A 47405-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45274</v>
+        <v>45930.61258101852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7360,7 +7345,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>6.4</v>
+        <v>1.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7397,14 +7382,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 36695-2025</t>
+          <t>A 47630-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45872</v>
+        <v>45931.48855324074</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7417,7 +7402,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7454,14 +7439,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 36722-2025</t>
+          <t>A 47404-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45872</v>
+        <v>45930.61149305556</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7474,7 +7459,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7511,14 +7496,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 37000-2023</t>
+          <t>A 13377-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45155.26925925926</v>
+        <v>45005.49668981481</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7531,7 +7516,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>10.7</v>
+        <v>2.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7568,14 +7553,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 36719-2025</t>
+          <t>A 37130-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45872</v>
+        <v>45539.57060185185</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7588,7 +7573,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7625,14 +7610,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 50532-2024</t>
+          <t>A 46121-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45601.56552083333</v>
+        <v>45924</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7645,7 +7630,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.8</v>
+        <v>8.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7682,14 +7667,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 14802-2023</t>
+          <t>A 48419-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45014</v>
+        <v>45934.58502314815</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7702,7 +7687,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.9</v>
+        <v>7.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7739,14 +7724,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 71890-2021</t>
+          <t>A 59915-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44543.78116898148</v>
+        <v>45641.74975694445</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7759,7 +7744,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7796,14 +7781,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 6986-2024</t>
+          <t>A 5152-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45343.48984953704</v>
+        <v>45691.6000462963</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7816,7 +7801,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7853,14 +7838,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 5715-2024</t>
+          <t>A 46119-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45334</v>
+        <v>45924</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7873,7 +7858,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.5</v>
+        <v>8.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7910,14 +7895,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 5454-2025</t>
+          <t>A 49072-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45692.98011574074</v>
+        <v>45937.65501157408</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7930,7 +7915,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7967,14 +7952,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 36404-2024</t>
+          <t>A 49365-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45535.70535879629</v>
+        <v>45938.62341435185</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7987,7 +7972,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8024,14 +8009,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 19005-2023</t>
+          <t>A 42712-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45045.60177083333</v>
+        <v>45181.61869212963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8044,7 +8029,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8081,14 +8066,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 34056-2024</t>
+          <t>A 50562-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45523.6125</v>
+        <v>45601.59825231481</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8101,7 +8086,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8138,14 +8123,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 49134-2021</t>
+          <t>A 20131-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44453</v>
+        <v>45772.50918981482</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8157,13 +8142,8 @@
           <t>ORUST</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8200,14 +8180,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 59915-2024</t>
+          <t>A 5454-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45641.74975694445</v>
+        <v>45692.98011574074</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8220,7 +8200,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8257,14 +8237,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 49134-2021</t>
+          <t>A 2213-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44453</v>
+        <v>45673.4359837963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8276,13 +8256,8 @@
           <t>ORUST</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8319,14 +8294,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 1288-2025</t>
+          <t>A 40722-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45667.50971064815</v>
+        <v>45558.44460648148</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8339,7 +8314,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8376,14 +8351,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 57877-2022</t>
+          <t>A 36404-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44899.8749537037</v>
+        <v>45535.70535879629</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8396,7 +8371,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8433,14 +8408,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 13378-2023</t>
+          <t>A 57445-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45005.50077546296</v>
+        <v>45629.92240740741</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8453,7 +8428,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8490,14 +8465,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 39219-2025</t>
+          <t>A 54128-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45888</v>
+        <v>45964.45993055555</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8510,7 +8485,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.2</v>
+        <v>5.6</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8547,14 +8522,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 46708-2023</t>
+          <t>A 49822-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45198</v>
+        <v>44862</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8567,7 +8542,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8604,14 +8579,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 24179-2025</t>
+          <t>A 56654-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45796.72856481482</v>
+        <v>45975.64869212963</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8624,7 +8599,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8661,14 +8636,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 40722-2024</t>
+          <t>A 38322-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45558.44460648148</v>
+        <v>45161.73658564815</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8681,7 +8656,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8718,14 +8693,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 62369-2023</t>
+          <t>A 40743-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45268.30483796296</v>
+        <v>45558.45</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8738,7 +8713,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>5.4</v>
+        <v>1.2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8775,14 +8750,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 43228-2024</t>
+          <t>A 58853-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45567.8855787037</v>
+        <v>45987.40476851852</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8795,7 +8770,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8832,14 +8807,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 14547-2022</t>
+          <t>A 18954-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44655</v>
+        <v>45764.51478009259</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8852,7 +8827,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3.8</v>
+        <v>6.4</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8889,14 +8864,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 40442-2025</t>
+          <t>A 58852-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45895</v>
+        <v>45987.40355324074</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8909,7 +8884,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>3.4</v>
+        <v>4.9</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8946,14 +8921,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 40328-2025</t>
+          <t>A 771-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45895</v>
+        <v>44931</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8966,7 +8941,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9003,14 +8978,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 40338-2025</t>
+          <t>A 59834-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45895</v>
+        <v>45992.66811342593</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9023,7 +8998,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9060,14 +9035,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 40270-2024</t>
+          <t>A 2436-2026</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45554.64315972223</v>
+        <v>46036.90234953703</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9080,7 +9055,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9113,38 +9088,18 @@
         <v>0</v>
       </c>
       <c r="R139" s="2" t="inlineStr"/>
-      <c r="U139">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 40270-2024 karta knärot.png", "A 40270-2024")</f>
-        <v/>
-      </c>
-      <c r="V139">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 40270-2024 FSC-klagomål.docx", "A 40270-2024")</f>
-        <v/>
-      </c>
-      <c r="W139">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 40270-2024 FSC-klagomål mail.docx", "A 40270-2024")</f>
-        <v/>
-      </c>
-      <c r="X139">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 40270-2024 tillsynsbegäran.docx", "A 40270-2024")</f>
-        <v/>
-      </c>
-      <c r="Y139">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 40270-2024 tillsynsbegäran mail.docx", "A 40270-2024")</f>
-        <v/>
-      </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 41063-2025</t>
+          <t>A 2435-2026</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45898</v>
+        <v>46036.90065972223</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9157,7 +9112,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9194,14 +9149,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 40681-2025</t>
+          <t>A 20819-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45896.85623842593</v>
+        <v>45058</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9214,7 +9169,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9251,14 +9206,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 47884-2024</t>
+          <t>A 11356-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45588.81101851852</v>
+        <v>45726.52880787037</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9271,7 +9226,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9308,14 +9263,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 41688-2025</t>
+          <t>A 34354-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45902.39888888889</v>
+        <v>45139</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9328,7 +9283,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9365,14 +9320,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 41881-2025</t>
+          <t>A 61319-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45903.36444444444</v>
+        <v>46000.94983796297</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9385,7 +9340,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9422,14 +9377,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 42069-2025</t>
+          <t>A 61320-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45903.65700231482</v>
+        <v>46000.95591435185</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9442,7 +9397,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9479,14 +9434,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 11356-2025</t>
+          <t>A 37000-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45726.52880787037</v>
+        <v>45155.26925925926</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9499,7 +9454,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.1</v>
+        <v>10.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9536,14 +9491,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 42457-2025</t>
+          <t>A 4114-2026</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45905.45289351852</v>
+        <v>46044.60348379629</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9556,7 +9511,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.7</v>
+        <v>7.1</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9600,7 +9555,7 @@
         <v>45339.40619212963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9650,14 +9605,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 13377-2023</t>
+          <t>A 45088-2021</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45005.49668981481</v>
+        <v>44439.391875</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9670,7 +9625,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9707,14 +9662,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 61302-2024</t>
+          <t>A 49617-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45645.90855324074</v>
+        <v>45211</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9727,7 +9682,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.6</v>
+        <v>4.4</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9764,14 +9719,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 50562-2024</t>
+          <t>A 6739-2026</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45601.59825231481</v>
+        <v>46056.69936342593</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9784,7 +9739,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9821,14 +9776,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 36999-2023</t>
+          <t>A 23682-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45155.24585648148</v>
+        <v>45454.62754629629</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9841,7 +9796,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.8</v>
+        <v>4.1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9878,14 +9833,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 5152-2025</t>
+          <t>A 39206-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45691.6000462963</v>
+        <v>45548.81200231481</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9898,7 +9853,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9935,14 +9890,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 47405-2025</t>
+          <t>A 5715-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45930.61258101852</v>
+        <v>45334</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9955,7 +9910,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9992,14 +9947,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 47404-2025</t>
+          <t>A 5617-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45930.61149305556</v>
+        <v>45334.58319444444</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10012,7 +9967,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10045,18 +10000,38 @@
         <v>0</v>
       </c>
       <c r="R155" s="2" t="inlineStr"/>
+      <c r="U155">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 5617-2024 karta knärot.png", "A 5617-2024")</f>
+        <v/>
+      </c>
+      <c r="V155">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 5617-2024 FSC-klagomål.docx", "A 5617-2024")</f>
+        <v/>
+      </c>
+      <c r="W155">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 5617-2024 FSC-klagomål mail.docx", "A 5617-2024")</f>
+        <v/>
+      </c>
+      <c r="X155">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 5617-2024 tillsynsbegäran.docx", "A 5617-2024")</f>
+        <v/>
+      </c>
+      <c r="Y155">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 5617-2024 tillsynsbegäran mail.docx", "A 5617-2024")</f>
+        <v/>
+      </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 47630-2025</t>
+          <t>A 34056-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45931.48855324074</v>
+        <v>45523.6125</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10106,14 +10081,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 13243-2023</t>
+          <t>A 3750-2022</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45002</v>
+        <v>44586.71618055556</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10126,7 +10101,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>4.8</v>
+        <v>1.9</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10163,14 +10138,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 46119-2025</t>
+          <t>A 37522-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45924</v>
+        <v>45541</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10183,7 +10158,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>8.9</v>
+        <v>10.2</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10220,14 +10195,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 46121-2025</t>
+          <t>A 23046-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45924</v>
+        <v>45450.4240625</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10240,7 +10215,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>8.5</v>
+        <v>4.2</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10277,14 +10252,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 48419-2025</t>
+          <t>A 44233-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45934.58502314815</v>
+        <v>45183</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10297,7 +10272,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>7.7</v>
+        <v>3.1</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10330,18 +10305,38 @@
         <v>0</v>
       </c>
       <c r="R160" s="2" t="inlineStr"/>
+      <c r="U160">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 44233-2023 karta knärot.png", "A 44233-2023")</f>
+        <v/>
+      </c>
+      <c r="V160">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 44233-2023 FSC-klagomål.docx", "A 44233-2023")</f>
+        <v/>
+      </c>
+      <c r="W160">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 44233-2023 FSC-klagomål mail.docx", "A 44233-2023")</f>
+        <v/>
+      </c>
+      <c r="X160">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 44233-2023 tillsynsbegäran.docx", "A 44233-2023")</f>
+        <v/>
+      </c>
+      <c r="Y160">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 44233-2023 tillsynsbegäran mail.docx", "A 44233-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 49365-2025</t>
+          <t>A 14547-2022</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45938.62341435185</v>
+        <v>44655</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10354,7 +10349,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10391,14 +10386,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 49072-2025</t>
+          <t>A 18791-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45937.65501157408</v>
+        <v>45044</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10411,7 +10406,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10448,14 +10443,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 22959-2025</t>
+          <t>A 28109-2024</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45790</v>
+        <v>45476.63284722222</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10468,7 +10463,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10505,14 +10500,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 9937-2025</t>
+          <t>A 63626-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45718.64129629629</v>
+        <v>45275</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10525,7 +10520,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10562,14 +10557,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 23258-2025</t>
+          <t>A 32175-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45791.53902777778</v>
+        <v>45511.61238425926</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10582,7 +10577,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10619,14 +10614,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 13521-2025</t>
+          <t>A 34155-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45736.48755787037</v>
+        <v>45524.3860300926</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10639,7 +10634,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10676,14 +10671,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 13536-2025</t>
+          <t>A 20898-2021</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45736.51413194444</v>
+        <v>44319.41962962963</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10696,7 +10691,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10733,14 +10728,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 14760-2025</t>
+          <t>A 46708-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45742</v>
+        <v>45198</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10753,7 +10748,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10790,14 +10785,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 23259-2025</t>
+          <t>A 62086-2022</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45791.53978009259</v>
+        <v>44919.46138888889</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10810,7 +10805,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10847,14 +10842,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 23254-2025</t>
+          <t>A 49134-2021</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45791.5340162037</v>
+        <v>44453</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10866,8 +10861,13 @@
           <t>ORUST</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G170" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10904,14 +10904,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 34046-2024</t>
+          <t>A 57878-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45523.60449074074</v>
+        <v>44899.875625</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10961,14 +10961,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 24321-2025</t>
+          <t>A 14802-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45797</v>
+        <v>45014</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11018,14 +11018,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 54128-2025</t>
+          <t>A 2632-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45964.45993055555</v>
+        <v>45313.97175925926</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>5.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11075,14 +11075,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 56654-2025</t>
+          <t>A 1663-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45975.64869212963</v>
+        <v>45306</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>3.2</v>
+        <v>6.1</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11132,14 +11132,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 58852-2025</t>
+          <t>A 33454-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45987.40355324074</v>
+        <v>45130</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>4.9</v>
+        <v>6</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11189,14 +11189,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 58853-2025</t>
+          <t>A 13243-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45987.40476851852</v>
+        <v>45002</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11246,14 +11246,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 59834-2025</t>
+          <t>A 22959-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45992.66811342593</v>
+        <v>45790</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11303,14 +11303,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 2435-2026</t>
+          <t>A 23258-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>46036.90065972223</v>
+        <v>45791.53902777778</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11360,14 +11360,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 2436-2026</t>
+          <t>A 23254-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>46036.90234953703</v>
+        <v>45791.5340162037</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11417,14 +11417,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 61319-2025</t>
+          <t>A 14760-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>46000.94983796297</v>
+        <v>45742</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11474,14 +11474,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 61320-2025</t>
+          <t>A 9937-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>46000.95591435185</v>
+        <v>45718.64129629629</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11531,14 +11531,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 4114-2026</t>
+          <t>A 23259-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>46044.60348379629</v>
+        <v>45791.53978009259</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>7.1</v>
+        <v>0.6</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11585,17 +11585,17 @@
       </c>
       <c r="R182" s="2" t="inlineStr"/>
     </row>
-    <row r="183">
+    <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 6739-2026</t>
+          <t>A 13521-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>46056.69936342593</v>
+        <v>45736.48755787037</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11641,6 +11641,63 @@
         <v>0</v>
       </c>
       <c r="R183" s="2" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>A 13536-2025</t>
+        </is>
+      </c>
+      <c r="B184" s="1" t="n">
+        <v>45736.51413194444</v>
+      </c>
+      <c r="C184" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>ORUST</t>
+        </is>
+      </c>
+      <c r="G184" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="n">
+        <v>0</v>
+      </c>
+      <c r="L184" t="n">
+        <v>0</v>
+      </c>
+      <c r="M184" t="n">
+        <v>0</v>
+      </c>
+      <c r="N184" t="n">
+        <v>0</v>
+      </c>
+      <c r="O184" t="n">
+        <v>0</v>
+      </c>
+      <c r="P184" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q184" t="n">
+        <v>0</v>
+      </c>
+      <c r="R184" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ORUST.xlsx
+++ b/Översikt ORUST.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z184"/>
+  <dimension ref="A1:Z183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44476</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44326.68740740741</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>44559</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>45014</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>45288</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>45597.57973379629</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44546</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>44266</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1295,14 +1295,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 6055-2024</t>
+          <t>A 23255-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45336</v>
+        <v>45791.5346875</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1315,13 +1315,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>24.1</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1349,132 +1349,132 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
+          <t>Västlig hakmossa
+Äkta lopplummer</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 23255-2025 artfynd.xlsx", "A 23255-2025")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 23255-2025 karta.png", "A 23255-2025")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 23255-2025 FSC-klagomål.docx", "A 23255-2025")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 23255-2025 FSC-klagomål mail.docx", "A 23255-2025")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 23255-2025 tillsynsbegäran.docx", "A 23255-2025")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 23255-2025 tillsynsbegäran mail.docx", "A 23255-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 6055-2024</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45336</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ORUST</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
           <t>Revlummer
 Äkta lopplummer</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 6055-2024 artfynd.xlsx", "A 6055-2024")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 6055-2024 karta.png", "A 6055-2024")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 6055-2024 FSC-klagomål.docx", "A 6055-2024")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 6055-2024 FSC-klagomål mail.docx", "A 6055-2024")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 6055-2024 tillsynsbegäran.docx", "A 6055-2024")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 6055-2024 tillsynsbegäran mail.docx", "A 6055-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 23255-2025</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45791.5346875</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ORUST</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>4</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Västlig hakmossa
-Äkta lopplummer</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 23255-2025 artfynd.xlsx", "A 23255-2025")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 23255-2025 karta.png", "A 23255-2025")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 23255-2025 FSC-klagomål.docx", "A 23255-2025")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 23255-2025 FSC-klagomål mail.docx", "A 23255-2025")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 23255-2025 tillsynsbegäran.docx", "A 23255-2025")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 23255-2025 tillsynsbegäran mail.docx", "A 23255-2025")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 41056-2025</t>
+          <t>A 46272-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45898</v>
+        <v>45581</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1521,45 +1521,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 41056-2025 artfynd.xlsx", "A 41056-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 46272-2024 artfynd.xlsx", "A 46272-2024")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 41056-2025 karta.png", "A 41056-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 46272-2024 karta.png", "A 46272-2024")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 41056-2025 FSC-klagomål.docx", "A 41056-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 46272-2024 FSC-klagomål.docx", "A 46272-2024")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 41056-2025 FSC-klagomål mail.docx", "A 41056-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 46272-2024 FSC-klagomål mail.docx", "A 46272-2024")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 41056-2025 tillsynsbegäran.docx", "A 41056-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 46272-2024 tillsynsbegäran.docx", "A 46272-2024")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 41056-2025 tillsynsbegäran mail.docx", "A 41056-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 46272-2024 tillsynsbegäran mail.docx", "A 46272-2024")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 58944-2025</t>
+          <t>A 49047-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45987</v>
+        <v>45937.63695601852</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>8.4</v>
+        <v>3.2</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1599,56 +1599,52 @@
         <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Granspira</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 58944-2025 artfynd.xlsx", "A 58944-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 49047-2025 artfynd.xlsx", "A 49047-2025")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 58944-2025 karta.png", "A 58944-2025")</f>
-        <v/>
-      </c>
-      <c r="U13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 58944-2025 karta knärot.png", "A 58944-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 49047-2025 karta.png", "A 49047-2025")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 58944-2025 FSC-klagomål.docx", "A 58944-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 49047-2025 FSC-klagomål.docx", "A 49047-2025")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 58944-2025 FSC-klagomål mail.docx", "A 58944-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 49047-2025 FSC-klagomål mail.docx", "A 49047-2025")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 58944-2025 tillsynsbegäran.docx", "A 58944-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 49047-2025 tillsynsbegäran.docx", "A 49047-2025")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 58944-2025 tillsynsbegäran mail.docx", "A 58944-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 49047-2025 tillsynsbegäran mail.docx", "A 49047-2025")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 49047-2025</t>
+          <t>A 56035-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45937.63695601852</v>
+        <v>45973</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1661,19 +1657,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.2</v>
+        <v>15.9</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1688,52 +1684,56 @@
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Granspira</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 49047-2025 artfynd.xlsx", "A 49047-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 56035-2025 artfynd.xlsx", "A 56035-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 49047-2025 karta.png", "A 49047-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 56035-2025 karta.png", "A 56035-2025")</f>
+        <v/>
+      </c>
+      <c r="U14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 56035-2025 karta knärot.png", "A 56035-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 49047-2025 FSC-klagomål.docx", "A 49047-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 56035-2025 FSC-klagomål.docx", "A 56035-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 49047-2025 FSC-klagomål mail.docx", "A 49047-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 56035-2025 FSC-klagomål mail.docx", "A 56035-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 49047-2025 tillsynsbegäran.docx", "A 49047-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 56035-2025 tillsynsbegäran.docx", "A 56035-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 49047-2025 tillsynsbegäran mail.docx", "A 49047-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 56035-2025 tillsynsbegäran mail.docx", "A 56035-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 13220-2024</t>
+          <t>A 41056-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45386.52466435185</v>
+        <v>45898</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1749,16 +1749,16 @@
         <v>3.3</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1770,59 +1770,55 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 13220-2024 artfynd.xlsx", "A 13220-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 41056-2025 artfynd.xlsx", "A 41056-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 13220-2024 karta.png", "A 13220-2024")</f>
-        <v/>
-      </c>
-      <c r="U15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 13220-2024 karta knärot.png", "A 13220-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 41056-2025 karta.png", "A 41056-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 13220-2024 FSC-klagomål.docx", "A 13220-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 41056-2025 FSC-klagomål.docx", "A 41056-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 13220-2024 FSC-klagomål mail.docx", "A 13220-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 41056-2025 FSC-klagomål mail.docx", "A 41056-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 13220-2024 tillsynsbegäran.docx", "A 13220-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 41056-2025 tillsynsbegäran.docx", "A 41056-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 13220-2024 tillsynsbegäran mail.docx", "A 13220-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 41056-2025 tillsynsbegäran mail.docx", "A 41056-2025")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 24618-2024</t>
+          <t>A 13220-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45460</v>
+        <v>45386.52466435185</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1835,7 +1831,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>9.5</v>
+        <v>3.3</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1847,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1859,55 +1855,59 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 24618-2024 artfynd.xlsx", "A 24618-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 13220-2024 artfynd.xlsx", "A 13220-2024")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 24618-2024 karta.png", "A 24618-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 13220-2024 karta.png", "A 13220-2024")</f>
+        <v/>
+      </c>
+      <c r="U16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 13220-2024 karta knärot.png", "A 13220-2024")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 24618-2024 FSC-klagomål.docx", "A 24618-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 13220-2024 FSC-klagomål.docx", "A 13220-2024")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 24618-2024 FSC-klagomål mail.docx", "A 24618-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 13220-2024 FSC-klagomål mail.docx", "A 13220-2024")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 24618-2024 tillsynsbegäran.docx", "A 24618-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 13220-2024 tillsynsbegäran.docx", "A 13220-2024")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 24618-2024 tillsynsbegäran mail.docx", "A 24618-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 13220-2024 tillsynsbegäran mail.docx", "A 13220-2024")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 20709-2023</t>
+          <t>A 24618-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45058</v>
+        <v>45460</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4.3</v>
+        <v>9.5</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1944,59 +1944,55 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 20709-2023 artfynd.xlsx", "A 20709-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 24618-2024 artfynd.xlsx", "A 24618-2024")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 20709-2023 karta.png", "A 20709-2023")</f>
-        <v/>
-      </c>
-      <c r="U17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 20709-2023 karta knärot.png", "A 20709-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 24618-2024 karta.png", "A 24618-2024")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 20709-2023 FSC-klagomål.docx", "A 20709-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 24618-2024 FSC-klagomål.docx", "A 24618-2024")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 20709-2023 FSC-klagomål mail.docx", "A 20709-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 24618-2024 FSC-klagomål mail.docx", "A 24618-2024")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 20709-2023 tillsynsbegäran.docx", "A 20709-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 24618-2024 tillsynsbegäran.docx", "A 24618-2024")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 20709-2023 tillsynsbegäran mail.docx", "A 20709-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 24618-2024 tillsynsbegäran mail.docx", "A 24618-2024")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 56035-2025</t>
+          <t>A 20709-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45973</v>
+        <v>45058</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2009,7 +2005,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>15.9</v>
+        <v>4.3</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -2047,31 +2043,31 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 56035-2025 artfynd.xlsx", "A 56035-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 20709-2023 artfynd.xlsx", "A 20709-2023")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 56035-2025 karta.png", "A 56035-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 20709-2023 karta.png", "A 20709-2023")</f>
         <v/>
       </c>
       <c r="U18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 56035-2025 karta knärot.png", "A 56035-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 20709-2023 karta knärot.png", "A 20709-2023")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 56035-2025 FSC-klagomål.docx", "A 56035-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 20709-2023 FSC-klagomål.docx", "A 20709-2023")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 56035-2025 FSC-klagomål mail.docx", "A 56035-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 20709-2023 FSC-klagomål mail.docx", "A 20709-2023")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 56035-2025 tillsynsbegäran.docx", "A 56035-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 20709-2023 tillsynsbegäran.docx", "A 20709-2023")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 56035-2025 tillsynsbegäran mail.docx", "A 56035-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 20709-2023 tillsynsbegäran mail.docx", "A 20709-2023")</f>
         <v/>
       </c>
     </row>
@@ -2085,7 +2081,7 @@
         <v>45693.6689699074</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2174,7 +2170,7 @@
         <v>45054</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2256,14 +2252,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 46272-2024</t>
+          <t>A 33954-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45581</v>
+        <v>44790</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2276,13 +2272,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2306,49 +2302,21 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" s="2" t="inlineStr">
-        <is>
-          <t>Grovticka</t>
-        </is>
-      </c>
-      <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 46272-2024 artfynd.xlsx", "A 46272-2024")</f>
-        <v/>
-      </c>
-      <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 46272-2024 karta.png", "A 46272-2024")</f>
-        <v/>
-      </c>
-      <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 46272-2024 FSC-klagomål.docx", "A 46272-2024")</f>
-        <v/>
-      </c>
-      <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 46272-2024 FSC-klagomål mail.docx", "A 46272-2024")</f>
-        <v/>
-      </c>
-      <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 46272-2024 tillsynsbegäran.docx", "A 46272-2024")</f>
-        <v/>
-      </c>
-      <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 46272-2024 tillsynsbegäran mail.docx", "A 46272-2024")</f>
-        <v/>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R21" s="2" t="inlineStr"/>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 33954-2022</t>
+          <t>A 9182-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44790</v>
+        <v>44250</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2361,7 +2329,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.9</v>
+        <v>1.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2398,14 +2366,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 9182-2021</t>
+          <t>A 46629-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44250</v>
+        <v>44445</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2418,7 +2386,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2455,14 +2423,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 46629-2021</t>
+          <t>A 41592-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44445</v>
+        <v>44827</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2475,7 +2443,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2512,14 +2480,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 41592-2022</t>
+          <t>A 47876-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44827</v>
+        <v>44448</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2532,7 +2500,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2569,14 +2537,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 47876-2021</t>
+          <t>A 47885-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
         <v>44448</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2589,7 +2557,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.9</v>
+        <v>3.4</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2626,14 +2594,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 47885-2021</t>
+          <t>A 68727-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44448</v>
+        <v>44529</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2646,7 +2614,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2683,14 +2651,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 68727-2021</t>
+          <t>A 564-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44529</v>
+        <v>44566.74335648148</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2703,7 +2671,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2740,14 +2708,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 564-2022</t>
+          <t>A 45044-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44566.74335648148</v>
+        <v>44439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2760,7 +2728,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2804,7 +2772,7 @@
         <v>44386</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2854,14 +2822,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 45044-2021</t>
+          <t>A 55791-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44439</v>
+        <v>44888.63157407408</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2874,7 +2842,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2911,14 +2879,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 55791-2022</t>
+          <t>A 63141-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44888.63157407408</v>
+        <v>44505.79013888889</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2931,7 +2899,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>4.2</v>
+        <v>1.6</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2968,14 +2936,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 63141-2021</t>
+          <t>A 15006-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44505.79013888889</v>
+        <v>44657</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2988,7 +2956,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3025,14 +2993,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 15006-2022</t>
+          <t>A 56496-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44657</v>
+        <v>44480</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3045,7 +3013,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.8</v>
+        <v>10.3</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3082,14 +3050,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 56496-2021</t>
+          <t>A 8286-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44480</v>
+        <v>44610</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3102,7 +3070,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>10.3</v>
+        <v>8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3139,14 +3107,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 8286-2022</t>
+          <t>A 73292-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44610</v>
+        <v>44550</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3159,7 +3127,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>8</v>
+        <v>2.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3196,14 +3164,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 73292-2021</t>
+          <t>A 19784-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44550</v>
+        <v>44694.73462962963</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3216,7 +3184,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3253,14 +3221,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 19784-2022</t>
+          <t>A 19785-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44694.73462962963</v>
+        <v>44694</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3273,7 +3241,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3310,14 +3278,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 19785-2022</t>
+          <t>A 47882-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44694</v>
+        <v>44448</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3330,7 +3298,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3367,14 +3335,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 47882-2021</t>
+          <t>A 47883-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
         <v>44448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3387,7 +3355,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3424,14 +3392,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 47883-2021</t>
+          <t>A 45729-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44448</v>
+        <v>44441</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3444,7 +3412,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3481,14 +3449,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 45729-2021</t>
+          <t>A 47877-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44441</v>
+        <v>44448</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3501,7 +3469,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3538,14 +3506,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 47877-2021</t>
+          <t>A 52012-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44448</v>
+        <v>44872.93511574074</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3558,7 +3526,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3595,14 +3563,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 52012-2022</t>
+          <t>A 22255-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44872.93511574074</v>
+        <v>44326</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3615,7 +3583,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.6</v>
+        <v>4.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3652,14 +3620,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 22255-2021</t>
+          <t>A 69196-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44326</v>
+        <v>44531.34472222222</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3672,7 +3640,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>4.3</v>
+        <v>0.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3709,14 +3677,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 69196-2021</t>
+          <t>A 14609-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44531.34472222222</v>
+        <v>45396.86570601852</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3729,7 +3697,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3766,14 +3734,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 62369-2023</t>
+          <t>A 34217-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45268.30483796296</v>
+        <v>44791</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3786,7 +3754,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>5.4</v>
+        <v>1.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3823,14 +3791,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 14609-2024</t>
+          <t>A 62369-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45396.86570601852</v>
+        <v>45268.30483796296</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3843,7 +3811,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.3</v>
+        <v>5.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3880,14 +3848,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 34217-2022</t>
+          <t>A 57877-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44791</v>
+        <v>44899.8749537037</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3900,7 +3868,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3937,14 +3905,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 57877-2022</t>
+          <t>A 22750-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44899.8749537037</v>
+        <v>45448.41990740741</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3957,7 +3925,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4001,7 +3969,7 @@
         <v>45155.24585648148</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4058,7 +4026,7 @@
         <v>44531</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4108,14 +4076,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 22750-2024</t>
+          <t>A 19005-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45448.41990740741</v>
+        <v>45045.60177083333</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4128,7 +4096,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4165,14 +4133,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 19005-2023</t>
+          <t>A 59309-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45045.60177083333</v>
+        <v>45253.606875</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4185,7 +4153,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4222,14 +4190,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 59309-2023</t>
+          <t>A 22959-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45253.606875</v>
+        <v>45790</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4242,7 +4210,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4279,14 +4247,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 24321-2025</t>
+          <t>A 23258-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45797</v>
+        <v>45791.53902777778</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4299,7 +4267,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4336,14 +4304,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 34046-2024</t>
+          <t>A 23254-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45523.60449074074</v>
+        <v>45791.5340162037</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4356,7 +4324,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4393,14 +4361,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 55777-2022</t>
+          <t>A 14760-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44888.61921296296</v>
+        <v>45742</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4413,7 +4381,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4450,14 +4418,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 49134-2021</t>
+          <t>A 9937-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44453</v>
+        <v>45718.64129629629</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4469,13 +4437,8 @@
           <t>ORUST</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4512,14 +4475,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 63419-2023</t>
+          <t>A 23259-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45274</v>
+        <v>45791.53978009259</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4532,7 +4495,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>6.4</v>
+        <v>0.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4569,14 +4532,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 43752-2023</t>
+          <t>A 13521-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45187</v>
+        <v>45736.48755787037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4589,7 +4552,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>9.300000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4626,14 +4589,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 44754-2024</t>
+          <t>A 13536-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45574.61065972222</v>
+        <v>45736.51413194444</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4646,7 +4609,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4683,14 +4646,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 30440-2024</t>
+          <t>A 4114-2026</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45491.81488425926</v>
+        <v>46044.60348379629</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4703,7 +4666,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.9</v>
+        <v>7.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4740,14 +4703,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 8457-2026</t>
+          <t>A 49134-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>46065.42722222222</v>
+        <v>44453</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4759,8 +4722,13 @@
           <t>ORUST</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4797,14 +4765,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 44417-2024</t>
+          <t>A 24321-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45573.8249537037</v>
+        <v>45797</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4817,7 +4785,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4854,14 +4822,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 39219-2025</t>
+          <t>A 34046-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45888</v>
+        <v>45523.60449074074</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4874,7 +4842,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.2</v>
+        <v>4.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4911,14 +4879,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 27277-2025</t>
+          <t>A 39219-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45812.52674768519</v>
+        <v>45888</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4931,7 +4899,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4968,14 +4936,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 27555-2025</t>
+          <t>A 24179-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45813.47424768518</v>
+        <v>45796.72856481482</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4988,7 +4956,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5025,14 +4993,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 49115-2024</t>
+          <t>A 55777-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45594.65954861111</v>
+        <v>44888.61921296296</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5045,7 +5013,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5082,14 +5050,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 54279-2024</t>
+          <t>A 40338-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45616.855</v>
+        <v>45895</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5102,7 +5070,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>6.9</v>
+        <v>2.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5139,14 +5107,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 24179-2025</t>
+          <t>A 40328-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45796.72856481482</v>
+        <v>45895</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5159,7 +5127,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>3.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5196,14 +5164,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 40338-2025</t>
+          <t>A 40442-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
         <v>45895</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5216,7 +5184,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5253,14 +5221,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 71890-2021</t>
+          <t>A 40681-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44543.78116898148</v>
+        <v>45896.85623842593</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5273,7 +5241,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5310,14 +5278,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 40328-2025</t>
+          <t>A 44754-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45895</v>
+        <v>45574.61065972222</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5330,7 +5298,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5367,14 +5335,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 6957-2024</t>
+          <t>A 44417-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45343.45112268518</v>
+        <v>45573.8249537037</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5387,7 +5355,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5424,14 +5392,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 31617-2025</t>
+          <t>A 41063-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45833</v>
+        <v>45898</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5444,7 +5412,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.6</v>
+        <v>0.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5481,14 +5449,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 40442-2025</t>
+          <t>A 47884-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45895</v>
+        <v>45588.81101851852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5501,7 +5469,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5538,14 +5506,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 51993-2022</t>
+          <t>A 41881-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44872</v>
+        <v>45903.36444444444</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5558,7 +5526,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5595,14 +5563,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 40270-2024</t>
+          <t>A 42069-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45554.64315972223</v>
+        <v>45903.65700231482</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5615,7 +5583,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5648,38 +5616,18 @@
         <v>0</v>
       </c>
       <c r="R79" s="2" t="inlineStr"/>
-      <c r="U79">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 40270-2024 karta knärot.png", "A 40270-2024")</f>
-        <v/>
-      </c>
-      <c r="V79">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 40270-2024 FSC-klagomål.docx", "A 40270-2024")</f>
-        <v/>
-      </c>
-      <c r="W79">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 40270-2024 FSC-klagomål mail.docx", "A 40270-2024")</f>
-        <v/>
-      </c>
-      <c r="X79">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 40270-2024 tillsynsbegäran.docx", "A 40270-2024")</f>
-        <v/>
-      </c>
-      <c r="Y79">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 40270-2024 tillsynsbegäran mail.docx", "A 40270-2024")</f>
-        <v/>
-      </c>
     </row>
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 13378-2023</t>
+          <t>A 27277-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45005.50077546296</v>
+        <v>45812.52674768519</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5729,14 +5677,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 40681-2025</t>
+          <t>A 27555-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45896.85623842593</v>
+        <v>45813.47424768518</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5749,7 +5697,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5786,14 +5734,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 33300-2025</t>
+          <t>A 63419-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45840.93423611111</v>
+        <v>45274</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5843,14 +5791,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 25925-2024</t>
+          <t>A 43752-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45467.6122337963</v>
+        <v>45187</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5863,7 +5811,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5900,14 +5848,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 33295-2025</t>
+          <t>A 41688-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45840.92070601852</v>
+        <v>45902.39888888889</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5920,7 +5868,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5957,14 +5905,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 33296-2025</t>
+          <t>A 42457-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45840.92538194444</v>
+        <v>45905.45289351852</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5977,7 +5925,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6014,14 +5962,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 33299-2025</t>
+          <t>A 30440-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45840.93229166666</v>
+        <v>45491.81488425926</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6034,7 +5982,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6071,14 +6019,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 41063-2025</t>
+          <t>A 54279-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45898</v>
+        <v>45616.855</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6091,7 +6039,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.7</v>
+        <v>6.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6128,14 +6076,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 47884-2024</t>
+          <t>A 49115-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45588.81101851852</v>
+        <v>45594.65954861111</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6148,7 +6096,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6185,14 +6133,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 34502-2025</t>
+          <t>A 31617-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45847.43163194445</v>
+        <v>45833</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6205,7 +6153,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6242,14 +6190,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 34500-2025</t>
+          <t>A 71890-2021</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45847.43075231482</v>
+        <v>44543.78116898148</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6262,7 +6210,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>7.4</v>
+        <v>2.4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6299,14 +6247,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 41881-2025</t>
+          <t>A 6957-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45903.36444444444</v>
+        <v>45343.45112268518</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6319,7 +6267,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6356,14 +6304,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 42069-2025</t>
+          <t>A 33300-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45903.65700231482</v>
+        <v>45840.93423611111</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6376,7 +6324,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.3</v>
+        <v>6.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6413,14 +6361,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 22452-2021</t>
+          <t>A 51993-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44326</v>
+        <v>44872</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6433,7 +6381,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6470,14 +6418,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 41688-2025</t>
+          <t>A 40270-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45902.39888888889</v>
+        <v>45554.64315972223</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6490,7 +6438,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6523,18 +6471,38 @@
         <v>0</v>
       </c>
       <c r="R94" s="2" t="inlineStr"/>
+      <c r="U94">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 40270-2024 karta knärot.png", "A 40270-2024")</f>
+        <v/>
+      </c>
+      <c r="V94">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 40270-2024 FSC-klagomål.docx", "A 40270-2024")</f>
+        <v/>
+      </c>
+      <c r="W94">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 40270-2024 FSC-klagomål mail.docx", "A 40270-2024")</f>
+        <v/>
+      </c>
+      <c r="X94">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 40270-2024 tillsynsbegäran.docx", "A 40270-2024")</f>
+        <v/>
+      </c>
+      <c r="Y94">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 40270-2024 tillsynsbegäran mail.docx", "A 40270-2024")</f>
+        <v/>
+      </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 42457-2025</t>
+          <t>A 13378-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45905.45289351852</v>
+        <v>45005.50077546296</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6547,7 +6515,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6584,14 +6552,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 43228-2024</t>
+          <t>A 33295-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45567.8855787037</v>
+        <v>45840.92070601852</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6604,7 +6572,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6641,14 +6609,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 36722-2025</t>
+          <t>A 33296-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45872</v>
+        <v>45840.92538194444</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6661,7 +6629,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6698,14 +6666,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 36695-2025</t>
+          <t>A 33299-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45872</v>
+        <v>45840.93229166666</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6718,7 +6686,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6755,14 +6723,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 62516-2022</t>
+          <t>A 47405-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44924.61912037037</v>
+        <v>45930.61258101852</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6775,7 +6743,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6812,14 +6780,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 36719-2025</t>
+          <t>A 47630-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45872</v>
+        <v>45931.48855324074</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6832,7 +6800,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6869,14 +6837,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 50532-2024</t>
+          <t>A 47404-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45601.56552083333</v>
+        <v>45930.61149305556</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6889,7 +6857,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6926,14 +6894,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 5926-2024</t>
+          <t>A 34502-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45336</v>
+        <v>45847.43163194445</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6946,7 +6914,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6983,14 +6951,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 6986-2024</t>
+          <t>A 34500-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45343.48984953704</v>
+        <v>45847.43075231482</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7003,7 +6971,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.5</v>
+        <v>7.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7040,14 +7008,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 1288-2025</t>
+          <t>A 25925-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45667.50971064815</v>
+        <v>45467.6122337963</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7060,7 +7028,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7097,14 +7065,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 20089-2025</t>
+          <t>A 46121-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45771</v>
+        <v>45924</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7117,7 +7085,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.6</v>
+        <v>8.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7154,14 +7122,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 61302-2024</t>
+          <t>A 48419-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45645.90855324074</v>
+        <v>45934.58502314815</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7174,7 +7142,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.6</v>
+        <v>7.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7211,14 +7179,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 5714-2024</t>
+          <t>A 46119-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45334.87804398148</v>
+        <v>45924</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7231,7 +7199,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.1</v>
+        <v>8.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7268,14 +7236,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 34380-2022</t>
+          <t>A 49072-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44792</v>
+        <v>45937.65501157408</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7325,14 +7293,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 47405-2025</t>
+          <t>A 22452-2021</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45930.61258101852</v>
+        <v>44326</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7345,7 +7313,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7382,14 +7350,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 47630-2025</t>
+          <t>A 49365-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45931.48855324074</v>
+        <v>45938.62341435185</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7402,7 +7370,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7439,14 +7407,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 47404-2025</t>
+          <t>A 36722-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45930.61149305556</v>
+        <v>45872</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7459,7 +7427,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7496,14 +7464,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 13377-2023</t>
+          <t>A 36695-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45005.49668981481</v>
+        <v>45872</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7516,7 +7484,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7553,14 +7521,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 37130-2024</t>
+          <t>A 43228-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45539.57060185185</v>
+        <v>45567.8855787037</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7573,7 +7541,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7610,14 +7578,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 46121-2025</t>
+          <t>A 36719-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45924</v>
+        <v>45872</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7630,7 +7598,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>8.5</v>
+        <v>0.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7667,14 +7635,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 48419-2025</t>
+          <t>A 6739-2026</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45934.58502314815</v>
+        <v>46056.69936342593</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7687,7 +7655,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>7.7</v>
+        <v>2.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7724,14 +7692,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 59915-2024</t>
+          <t>A 50532-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45641.74975694445</v>
+        <v>45601.56552083333</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7744,7 +7712,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7781,14 +7749,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 5152-2025</t>
+          <t>A 62516-2022</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45691.6000462963</v>
+        <v>44924.61912037037</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7801,7 +7769,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7838,14 +7806,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 46119-2025</t>
+          <t>A 1288-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45924</v>
+        <v>45667.50971064815</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7858,7 +7826,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>8.9</v>
+        <v>1.8</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7895,14 +7863,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 49072-2025</t>
+          <t>A 54128-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45937.65501157408</v>
+        <v>45964.45993055555</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7915,7 +7883,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.4</v>
+        <v>5.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7952,14 +7920,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 49365-2025</t>
+          <t>A 5926-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45938.62341435185</v>
+        <v>45336</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7972,7 +7940,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8009,14 +7977,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 42712-2023</t>
+          <t>A 6986-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45181.61869212963</v>
+        <v>45343.48984953704</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8029,7 +7997,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8066,14 +8034,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 50562-2024</t>
+          <t>A 56654-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45601.59825231481</v>
+        <v>45975.64869212963</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8086,7 +8054,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8123,14 +8091,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 20131-2025</t>
+          <t>A 20089-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45772.50918981482</v>
+        <v>45771</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8143,7 +8111,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8180,14 +8148,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 5454-2025</t>
+          <t>A 61302-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45692.98011574074</v>
+        <v>45645.90855324074</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8200,7 +8168,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8237,14 +8205,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 2213-2025</t>
+          <t>A 8457-2026</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45673.4359837963</v>
+        <v>46065.42722222222</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8257,7 +8225,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8294,14 +8262,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 40722-2024</t>
+          <t>A 5714-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45558.44460648148</v>
+        <v>45334.87804398148</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8314,7 +8282,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8351,14 +8319,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 36404-2024</t>
+          <t>A 34380-2022</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45535.70535879629</v>
+        <v>44792</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8371,7 +8339,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8408,14 +8376,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 57445-2024</t>
+          <t>A 58853-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45629.92240740741</v>
+        <v>45987.40476851852</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8428,7 +8396,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.6</v>
+        <v>3.2</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8465,14 +8433,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 54128-2025</t>
+          <t>A 58852-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45964.45993055555</v>
+        <v>45987.40355324074</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8485,7 +8453,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>5.6</v>
+        <v>4.9</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8522,14 +8490,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 49822-2022</t>
+          <t>A 13377-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44862</v>
+        <v>45005.49668981481</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8542,7 +8510,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8579,14 +8547,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 56654-2025</t>
+          <t>A 37130-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45975.64869212963</v>
+        <v>45539.57060185185</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8599,7 +8567,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8636,14 +8604,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 38322-2023</t>
+          <t>A 59915-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45161.73658564815</v>
+        <v>45641.74975694445</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8656,7 +8624,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>6</v>
+        <v>1.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8693,14 +8661,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 40743-2024</t>
+          <t>A 5152-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45558.45</v>
+        <v>45691.6000462963</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8713,7 +8681,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8750,14 +8718,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 58853-2025</t>
+          <t>A 59834-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45987.40476851852</v>
+        <v>45992.66811342593</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8770,7 +8738,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8807,14 +8775,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 18954-2025</t>
+          <t>A 2436-2026</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45764.51478009259</v>
+        <v>46036.90234953703</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8827,7 +8795,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>6.4</v>
+        <v>2.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8864,14 +8832,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 58852-2025</t>
+          <t>A 42712-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45987.40355324074</v>
+        <v>45181.61869212963</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8884,7 +8852,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>4.9</v>
+        <v>1.2</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8921,14 +8889,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 771-2023</t>
+          <t>A 2435-2026</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44931</v>
+        <v>46036.90065972223</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8941,7 +8909,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8978,14 +8946,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 59834-2025</t>
+          <t>A 50562-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45992.66811342593</v>
+        <v>45601.59825231481</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8998,7 +8966,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9035,14 +9003,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 2436-2026</t>
+          <t>A 20131-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>46036.90234953703</v>
+        <v>45772.50918981482</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9055,7 +9023,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9092,14 +9060,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 2435-2026</t>
+          <t>A 61319-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>46036.90065972223</v>
+        <v>46000.94983796297</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9112,7 +9080,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9149,14 +9117,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 20819-2023</t>
+          <t>A 61320-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45058</v>
+        <v>46000.95591435185</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9169,7 +9137,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9206,14 +9174,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 11356-2025</t>
+          <t>A 5454-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45726.52880787037</v>
+        <v>45692.98011574074</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9226,7 +9194,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9263,14 +9231,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 34354-2023</t>
+          <t>A 2213-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45139</v>
+        <v>45673.4359837963</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9283,7 +9251,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9320,14 +9288,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 61319-2025</t>
+          <t>A 40722-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>46000.94983796297</v>
+        <v>45558.44460648148</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9340,7 +9308,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9377,14 +9345,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 61320-2025</t>
+          <t>A 36404-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>46000.95591435185</v>
+        <v>45535.70535879629</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9397,7 +9365,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9434,14 +9402,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 37000-2023</t>
+          <t>A 57445-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45155.26925925926</v>
+        <v>45629.92240740741</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9454,7 +9422,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>10.7</v>
+        <v>0.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9491,14 +9459,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 4114-2026</t>
+          <t>A 49822-2022</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>46044.60348379629</v>
+        <v>44862</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9511,7 +9479,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>7.1</v>
+        <v>1.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9548,14 +9516,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 6485-2024</t>
+          <t>A 38322-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45339.40619212963</v>
+        <v>45161.73658564815</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9568,7 +9536,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.9</v>
+        <v>6</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9605,14 +9573,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 45088-2021</t>
+          <t>A 40743-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44439.391875</v>
+        <v>45558.45</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9625,7 +9593,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9662,14 +9630,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 49617-2023</t>
+          <t>A 18954-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45211</v>
+        <v>45764.51478009259</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9682,7 +9650,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>4.4</v>
+        <v>6.4</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9719,14 +9687,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 6739-2026</t>
+          <t>A 771-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>46056.69936342593</v>
+        <v>44931</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9739,7 +9707,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9776,14 +9744,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 23682-2024</t>
+          <t>A 20819-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45454.62754629629</v>
+        <v>45058</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9796,7 +9764,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>4.1</v>
+        <v>0.7</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9833,14 +9801,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 39206-2024</t>
+          <t>A 11356-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45548.81200231481</v>
+        <v>45726.52880787037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9853,7 +9821,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9890,14 +9858,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 5715-2024</t>
+          <t>A 34354-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45334</v>
+        <v>45139</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9910,7 +9878,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9947,14 +9915,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 5617-2024</t>
+          <t>A 37000-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45334.58319444444</v>
+        <v>45155.26925925926</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9967,7 +9935,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2</v>
+        <v>10.7</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10000,38 +9968,18 @@
         <v>0</v>
       </c>
       <c r="R155" s="2" t="inlineStr"/>
-      <c r="U155">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 5617-2024 karta knärot.png", "A 5617-2024")</f>
-        <v/>
-      </c>
-      <c r="V155">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 5617-2024 FSC-klagomål.docx", "A 5617-2024")</f>
-        <v/>
-      </c>
-      <c r="W155">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 5617-2024 FSC-klagomål mail.docx", "A 5617-2024")</f>
-        <v/>
-      </c>
-      <c r="X155">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 5617-2024 tillsynsbegäran.docx", "A 5617-2024")</f>
-        <v/>
-      </c>
-      <c r="Y155">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 5617-2024 tillsynsbegäran mail.docx", "A 5617-2024")</f>
-        <v/>
-      </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 34056-2024</t>
+          <t>A 6485-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45523.6125</v>
+        <v>45339.40619212963</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10044,7 +9992,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10081,14 +10029,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 3750-2022</t>
+          <t>A 45088-2021</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44586.71618055556</v>
+        <v>44439.391875</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10101,7 +10049,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10138,14 +10086,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 37522-2024</t>
+          <t>A 49617-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45541</v>
+        <v>45211</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10158,7 +10106,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>10.2</v>
+        <v>4.4</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10195,14 +10143,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 23046-2024</t>
+          <t>A 23682-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45450.4240625</v>
+        <v>45454.62754629629</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10215,7 +10163,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10252,14 +10200,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 44233-2023</t>
+          <t>A 39206-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45183</v>
+        <v>45548.81200231481</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10272,7 +10220,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10305,38 +10253,18 @@
         <v>0</v>
       </c>
       <c r="R160" s="2" t="inlineStr"/>
-      <c r="U160">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 44233-2023 karta knärot.png", "A 44233-2023")</f>
-        <v/>
-      </c>
-      <c r="V160">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 44233-2023 FSC-klagomål.docx", "A 44233-2023")</f>
-        <v/>
-      </c>
-      <c r="W160">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 44233-2023 FSC-klagomål mail.docx", "A 44233-2023")</f>
-        <v/>
-      </c>
-      <c r="X160">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 44233-2023 tillsynsbegäran.docx", "A 44233-2023")</f>
-        <v/>
-      </c>
-      <c r="Y160">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 44233-2023 tillsynsbegäran mail.docx", "A 44233-2023")</f>
-        <v/>
-      </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 14547-2022</t>
+          <t>A 5715-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44655</v>
+        <v>45334</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10349,7 +10277,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10386,14 +10314,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 18791-2023</t>
+          <t>A 5617-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45044</v>
+        <v>45334.58319444444</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10439,18 +10367,38 @@
         <v>0</v>
       </c>
       <c r="R162" s="2" t="inlineStr"/>
+      <c r="U162">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 5617-2024 karta knärot.png", "A 5617-2024")</f>
+        <v/>
+      </c>
+      <c r="V162">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 5617-2024 FSC-klagomål.docx", "A 5617-2024")</f>
+        <v/>
+      </c>
+      <c r="W162">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 5617-2024 FSC-klagomål mail.docx", "A 5617-2024")</f>
+        <v/>
+      </c>
+      <c r="X162">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 5617-2024 tillsynsbegäran.docx", "A 5617-2024")</f>
+        <v/>
+      </c>
+      <c r="Y162">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 5617-2024 tillsynsbegäran mail.docx", "A 5617-2024")</f>
+        <v/>
+      </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 28109-2024</t>
+          <t>A 34056-2024</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45476.63284722222</v>
+        <v>45523.6125</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10463,7 +10411,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10500,14 +10448,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 63626-2023</t>
+          <t>A 3750-2022</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45275</v>
+        <v>44586.71618055556</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10520,7 +10468,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10557,14 +10505,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 32175-2024</t>
+          <t>A 37522-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45511.61238425926</v>
+        <v>45541</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10577,7 +10525,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.3</v>
+        <v>10.2</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10614,14 +10562,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 34155-2024</t>
+          <t>A 23046-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45524.3860300926</v>
+        <v>45450.4240625</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10634,7 +10582,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.9</v>
+        <v>4.2</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10671,14 +10619,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 20898-2021</t>
+          <t>A 44233-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44319.41962962963</v>
+        <v>45183</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10691,7 +10639,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10724,18 +10672,38 @@
         <v>0</v>
       </c>
       <c r="R167" s="2" t="inlineStr"/>
+      <c r="U167">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 44233-2023 karta knärot.png", "A 44233-2023")</f>
+        <v/>
+      </c>
+      <c r="V167">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 44233-2023 FSC-klagomål.docx", "A 44233-2023")</f>
+        <v/>
+      </c>
+      <c r="W167">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 44233-2023 FSC-klagomål mail.docx", "A 44233-2023")</f>
+        <v/>
+      </c>
+      <c r="X167">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 44233-2023 tillsynsbegäran.docx", "A 44233-2023")</f>
+        <v/>
+      </c>
+      <c r="Y167">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 44233-2023 tillsynsbegäran mail.docx", "A 44233-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 46708-2023</t>
+          <t>A 14547-2022</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45198</v>
+        <v>44655</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10748,7 +10716,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10785,14 +10753,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 62086-2022</t>
+          <t>A 18791-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44919.46138888889</v>
+        <v>45044</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10842,14 +10810,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 49134-2021</t>
+          <t>A 28109-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44453</v>
+        <v>45476.63284722222</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10861,13 +10829,8 @@
           <t>ORUST</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G170" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10904,14 +10867,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 57878-2022</t>
+          <t>A 63626-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44899.875625</v>
+        <v>45275</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10924,7 +10887,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>4.6</v>
+        <v>2.4</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10961,14 +10924,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 14802-2023</t>
+          <t>A 32175-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45014</v>
+        <v>45511.61238425926</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10981,7 +10944,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.9</v>
+        <v>0.3</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11018,14 +10981,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 2632-2024</t>
+          <t>A 34155-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45313.97175925926</v>
+        <v>45524.3860300926</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11038,7 +11001,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>8.199999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11075,14 +11038,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 1663-2024</t>
+          <t>A 20898-2021</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45306</v>
+        <v>44319.41962962963</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11095,7 +11058,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>6.1</v>
+        <v>0.5</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11132,14 +11095,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 33454-2023</t>
+          <t>A 46708-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45130</v>
+        <v>45198</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11152,7 +11115,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11189,14 +11152,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 13243-2023</t>
+          <t>A 62086-2022</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45002</v>
+        <v>44919.46138888889</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11209,7 +11172,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>4.8</v>
+        <v>2</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11246,14 +11209,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 22959-2025</t>
+          <t>A 49134-2021</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45790</v>
+        <v>44453</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11265,8 +11228,13 @@
           <t>ORUST</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G177" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11303,14 +11271,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 23258-2025</t>
+          <t>A 57878-2022</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45791.53902777778</v>
+        <v>44899.875625</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11323,7 +11291,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.5</v>
+        <v>4.6</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11360,14 +11328,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 23254-2025</t>
+          <t>A 14802-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45791.5340162037</v>
+        <v>45014</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11380,7 +11348,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11417,14 +11385,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 14760-2025</t>
+          <t>A 2632-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45742</v>
+        <v>45313.97175925926</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11437,7 +11405,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11474,14 +11442,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 9937-2025</t>
+          <t>A 1663-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45718.64129629629</v>
+        <v>45306</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11494,7 +11462,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2.3</v>
+        <v>6.1</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11531,14 +11499,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 23259-2025</t>
+          <t>A 33454-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45791.53978009259</v>
+        <v>45130</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11551,7 +11519,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11585,17 +11553,17 @@
       </c>
       <c r="R182" s="2" t="inlineStr"/>
     </row>
-    <row r="183" ht="15" customHeight="1">
+    <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 13521-2025</t>
+          <t>A 13243-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45736.48755787037</v>
+        <v>45002</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11608,7 +11576,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.5</v>
+        <v>4.8</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11641,63 +11609,6 @@
         <v>0</v>
       </c>
       <c r="R183" s="2" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>A 13536-2025</t>
-        </is>
-      </c>
-      <c r="B184" s="1" t="n">
-        <v>45736.51413194444</v>
-      </c>
-      <c r="C184" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>ORUST</t>
-        </is>
-      </c>
-      <c r="G184" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="n">
-        <v>0</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0</v>
-      </c>
-      <c r="L184" t="n">
-        <v>0</v>
-      </c>
-      <c r="M184" t="n">
-        <v>0</v>
-      </c>
-      <c r="N184" t="n">
-        <v>0</v>
-      </c>
-      <c r="O184" t="n">
-        <v>0</v>
-      </c>
-      <c r="P184" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q184" t="n">
-        <v>0</v>
-      </c>
-      <c r="R184" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ORUST.xlsx
+++ b/Översikt ORUST.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z183"/>
+  <dimension ref="A1:Z185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44476</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44326.68740740741</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>44559</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>45014</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>45288</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>45597.57973379629</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44546</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>44266</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>45791.5346875</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>45336</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>45581</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>45937.63695601852</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>45973</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>45898</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>45386.52466435185</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>45460</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         <v>45058</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>45693.6689699074</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>45054</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>44790</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>44250</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>44445</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>44827</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>44448</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>44448</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>44529</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>44566.74335648148</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2708,14 +2708,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 45044-2021</t>
+          <t>A 35810-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44439</v>
+        <v>44386</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2765,14 +2765,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 35810-2021</t>
+          <t>A 45044-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44386</v>
+        <v>44439</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2829,7 +2829,7 @@
         <v>44888.63157407408</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>44505.79013888889</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>44657</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>44480</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>44610</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>44550</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>44694.73462962963</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>44694</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>44448</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>44448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>44441</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>44448</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>44872.93511574074</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         <v>44326</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>44531.34472222222</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         <v>45396.86570601852</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3734,14 +3734,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 34217-2022</t>
+          <t>A 62369-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44791</v>
+        <v>45268.30483796296</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.5</v>
+        <v>5.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3791,14 +3791,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 62369-2023</t>
+          <t>A 34217-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45268.30483796296</v>
+        <v>44791</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>5.4</v>
+        <v>1.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         <v>44899.8749537037</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>45448.41990740741</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3969,7 +3969,7 @@
         <v>45155.24585648148</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4019,14 +4019,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 69193-2021</t>
+          <t>A 13243-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44531</v>
+        <v>45002</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.9</v>
+        <v>4.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4076,14 +4076,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 19005-2023</t>
+          <t>A 69193-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45045.60177083333</v>
+        <v>44531</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4133,14 +4133,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 59309-2023</t>
+          <t>A 19005-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45253.606875</v>
+        <v>45045.60177083333</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4190,14 +4190,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 22959-2025</t>
+          <t>A 59309-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45790</v>
+        <v>45253.606875</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4247,14 +4247,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 23258-2025</t>
+          <t>A 22959-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45791.53902777778</v>
+        <v>45790</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4304,14 +4304,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 23254-2025</t>
+          <t>A 23258-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45791.5340162037</v>
+        <v>45791.53902777778</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4361,14 +4361,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 14760-2025</t>
+          <t>A 23254-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45742</v>
+        <v>45791.5340162037</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4418,14 +4418,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 9937-2025</t>
+          <t>A 14760-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45718.64129629629</v>
+        <v>45742</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4475,14 +4475,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 23259-2025</t>
+          <t>A 9937-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45791.53978009259</v>
+        <v>45718.64129629629</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4532,14 +4532,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 13521-2025</t>
+          <t>A 23259-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45736.48755787037</v>
+        <v>45791.53978009259</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4589,14 +4589,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 13536-2025</t>
+          <t>A 49134-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45736.51413194444</v>
+        <v>44453</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4608,8 +4608,13 @@
           <t>ORUST</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>0.1</v>
+        <v>1.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4646,14 +4651,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 4114-2026</t>
+          <t>A 13521-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>46044.60348379629</v>
+        <v>45736.48755787037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4666,7 +4671,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>7.1</v>
+        <v>0.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4703,14 +4708,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 49134-2021</t>
+          <t>A 13536-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44453</v>
+        <v>45736.51413194444</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4722,13 +4727,8 @@
           <t>ORUST</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>1.8</v>
+        <v>0.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4765,14 +4765,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 24321-2025</t>
+          <t>A 39219-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45797</v>
+        <v>45888</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4822,14 +4822,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 34046-2024</t>
+          <t>A 24179-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45523.60449074074</v>
+        <v>45796.72856481482</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4879,14 +4879,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 39219-2025</t>
+          <t>A 24321-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45888</v>
+        <v>45797</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4936,14 +4936,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 24179-2025</t>
+          <t>A 34046-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45796.72856481482</v>
+        <v>45523.60449074074</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4956,7 +4956,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4993,14 +4993,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 55777-2022</t>
+          <t>A 56654-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44888.61921296296</v>
+        <v>45975.64869212963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5057,7 +5057,7 @@
         <v>45895</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         <v>45895</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         <v>45895</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         <v>45896.85623842593</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5278,14 +5278,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 44754-2024</t>
+          <t>A 55777-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45574.61065972222</v>
+        <v>44888.61921296296</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5335,14 +5335,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 44417-2024</t>
+          <t>A 41063-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45573.8249537037</v>
+        <v>45898</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5355,7 +5355,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5392,14 +5392,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 41063-2025</t>
+          <t>A 47884-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45898</v>
+        <v>45588.81101851852</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5449,14 +5449,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 47884-2024</t>
+          <t>A 41881-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45588.81101851852</v>
+        <v>45903.36444444444</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5469,7 +5469,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5506,14 +5506,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 41881-2025</t>
+          <t>A 42069-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45903.36444444444</v>
+        <v>45903.65700231482</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5563,14 +5563,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 42069-2025</t>
+          <t>A 44754-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45903.65700231482</v>
+        <v>45574.61065972222</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5583,7 +5583,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5620,14 +5620,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 27277-2025</t>
+          <t>A 41688-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45812.52674768519</v>
+        <v>45902.39888888889</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5677,14 +5677,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 27555-2025</t>
+          <t>A 42457-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45813.47424768518</v>
+        <v>45905.45289351852</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5697,7 +5697,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5734,14 +5734,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 63419-2023</t>
+          <t>A 44417-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45274</v>
+        <v>45573.8249537037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5754,7 +5754,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>6.4</v>
+        <v>3.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5791,14 +5791,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 43752-2023</t>
+          <t>A 27277-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45187</v>
+        <v>45812.52674768519</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5811,7 +5811,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>9.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5848,14 +5848,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 41688-2025</t>
+          <t>A 27555-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45902.39888888889</v>
+        <v>45813.47424768518</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5868,7 +5868,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5905,14 +5905,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 42457-2025</t>
+          <t>A 63419-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45905.45289351852</v>
+        <v>45274</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5925,7 +5925,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.7</v>
+        <v>6.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5962,14 +5962,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 30440-2024</t>
+          <t>A 43752-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45491.81488425926</v>
+        <v>45187</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6026,7 +6026,7 @@
         <v>45616.855</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6076,14 +6076,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 49115-2024</t>
+          <t>A 30440-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45594.65954861111</v>
+        <v>45491.81488425926</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6133,14 +6133,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 31617-2025</t>
+          <t>A 49115-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45833</v>
+        <v>45594.65954861111</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6153,7 +6153,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6190,14 +6190,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 71890-2021</t>
+          <t>A 47405-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44543.78116898148</v>
+        <v>45930.61258101852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6247,14 +6247,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 6957-2024</t>
+          <t>A 47630-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45343.45112268518</v>
+        <v>45931.48855324074</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6304,14 +6304,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 33300-2025</t>
+          <t>A 31617-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45840.93423611111</v>
+        <v>45833</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>6.4</v>
+        <v>3.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6361,14 +6361,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 51993-2022</t>
+          <t>A 47404-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44872</v>
+        <v>45930.61149305556</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6418,14 +6418,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 40270-2024</t>
+          <t>A 58853-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45554.64315972223</v>
+        <v>45987.40476851852</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6471,38 +6471,18 @@
         <v>0</v>
       </c>
       <c r="R94" s="2" t="inlineStr"/>
-      <c r="U94">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 40270-2024 karta knärot.png", "A 40270-2024")</f>
-        <v/>
-      </c>
-      <c r="V94">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 40270-2024 FSC-klagomål.docx", "A 40270-2024")</f>
-        <v/>
-      </c>
-      <c r="W94">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 40270-2024 FSC-klagomål mail.docx", "A 40270-2024")</f>
-        <v/>
-      </c>
-      <c r="X94">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 40270-2024 tillsynsbegäran.docx", "A 40270-2024")</f>
-        <v/>
-      </c>
-      <c r="Y94">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 40270-2024 tillsynsbegäran mail.docx", "A 40270-2024")</f>
-        <v/>
-      </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 13378-2023</t>
+          <t>A 58852-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45005.50077546296</v>
+        <v>45987.40355324074</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6515,7 +6495,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.9</v>
+        <v>4.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6552,14 +6532,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 33295-2025</t>
+          <t>A 71890-2021</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45840.92070601852</v>
+        <v>44543.78116898148</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6572,7 +6552,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6609,14 +6589,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 33296-2025</t>
+          <t>A 6957-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45840.92538194444</v>
+        <v>45343.45112268518</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6629,7 +6609,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6666,14 +6646,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 33299-2025</t>
+          <t>A 51993-2022</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45840.93229166666</v>
+        <v>44872</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6686,7 +6666,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.4</v>
+        <v>2.2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6723,14 +6703,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 47405-2025</t>
+          <t>A 46121-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45930.61258101852</v>
+        <v>45924</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6743,7 +6723,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.1</v>
+        <v>8.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6780,14 +6760,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 47630-2025</t>
+          <t>A 40270-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45931.48855324074</v>
+        <v>45554.64315972223</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6800,7 +6780,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6833,18 +6813,38 @@
         <v>0</v>
       </c>
       <c r="R100" s="2" t="inlineStr"/>
+      <c r="U100">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 40270-2024 karta knärot.png", "A 40270-2024")</f>
+        <v/>
+      </c>
+      <c r="V100">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 40270-2024 FSC-klagomål.docx", "A 40270-2024")</f>
+        <v/>
+      </c>
+      <c r="W100">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 40270-2024 FSC-klagomål mail.docx", "A 40270-2024")</f>
+        <v/>
+      </c>
+      <c r="X100">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 40270-2024 tillsynsbegäran.docx", "A 40270-2024")</f>
+        <v/>
+      </c>
+      <c r="Y100">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 40270-2024 tillsynsbegäran mail.docx", "A 40270-2024")</f>
+        <v/>
+      </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 47404-2025</t>
+          <t>A 48419-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45930.61149305556</v>
+        <v>45934.58502314815</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.6</v>
+        <v>7.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6894,14 +6894,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 34502-2025</t>
+          <t>A 46119-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45847.43163194445</v>
+        <v>45924</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.6</v>
+        <v>8.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6951,14 +6951,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 34500-2025</t>
+          <t>A 49072-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45847.43075231482</v>
+        <v>45937.65501157408</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>7.4</v>
+        <v>1.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7008,14 +7008,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 25925-2024</t>
+          <t>A 13378-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45467.6122337963</v>
+        <v>45005.50077546296</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7065,14 +7065,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 46121-2025</t>
+          <t>A 33300-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45924</v>
+        <v>45840.93423611111</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>8.5</v>
+        <v>6.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7122,14 +7122,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 48419-2025</t>
+          <t>A 33295-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45934.58502314815</v>
+        <v>45840.92070601852</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>7.7</v>
+        <v>0.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7179,14 +7179,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 46119-2025</t>
+          <t>A 33296-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45924</v>
+        <v>45840.92538194444</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>8.9</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7236,14 +7236,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 49072-2025</t>
+          <t>A 33299-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45937.65501157408</v>
+        <v>45840.93229166666</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7293,14 +7293,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 22452-2021</t>
+          <t>A 49365-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44326</v>
+        <v>45938.62341435185</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7350,14 +7350,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 49365-2025</t>
+          <t>A 25925-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45938.62341435185</v>
+        <v>45467.6122337963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7407,14 +7407,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 36722-2025</t>
+          <t>A 34502-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45872</v>
+        <v>45847.43163194445</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7464,14 +7464,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 36695-2025</t>
+          <t>A 34500-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45872</v>
+        <v>45847.43075231482</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.2</v>
+        <v>7.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7521,14 +7521,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 43228-2024</t>
+          <t>A 22452-2021</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45567.8855787037</v>
+        <v>44326</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7578,14 +7578,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 36719-2025</t>
+          <t>A 43228-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45872</v>
+        <v>45567.8855787037</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7635,14 +7635,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 6739-2026</t>
+          <t>A 36722-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>46056.69936342593</v>
+        <v>45872</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7692,14 +7692,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 50532-2024</t>
+          <t>A 36695-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45601.56552083333</v>
+        <v>45872</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7749,14 +7749,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 62516-2022</t>
+          <t>A 36719-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44924.61912037037</v>
+        <v>45872</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7806,14 +7806,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 1288-2025</t>
+          <t>A 62516-2022</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45667.50971064815</v>
+        <v>44924.61912037037</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7870,7 +7870,7 @@
         <v>45964.45993055555</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7920,14 +7920,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 5926-2024</t>
+          <t>A 50532-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45336</v>
+        <v>45601.56552083333</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7977,14 +7977,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 6986-2024</t>
+          <t>A 5926-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45343.48984953704</v>
+        <v>45336</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8034,14 +8034,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 56654-2025</t>
+          <t>A 6986-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45975.64869212963</v>
+        <v>45343.48984953704</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8091,14 +8091,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 20089-2025</t>
+          <t>A 1288-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45771</v>
+        <v>45667.50971064815</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8148,14 +8148,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 61302-2024</t>
+          <t>A 59834-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45645.90855324074</v>
+        <v>45992.66811342593</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8205,14 +8205,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 8457-2026</t>
+          <t>A 2436-2026</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>46065.42722222222</v>
+        <v>46036.90234953703</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8262,14 +8262,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 5714-2024</t>
+          <t>A 20089-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45334.87804398148</v>
+        <v>45771</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8319,14 +8319,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 34380-2022</t>
+          <t>A 2435-2026</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44792</v>
+        <v>46036.90065972223</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8376,14 +8376,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 58853-2025</t>
+          <t>A 61302-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45987.40476851852</v>
+        <v>45645.90855324074</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8433,14 +8433,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 58852-2025</t>
+          <t>A 5714-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45987.40355324074</v>
+        <v>45334.87804398148</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>4.9</v>
+        <v>1.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8490,14 +8490,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 13377-2023</t>
+          <t>A 34380-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45005.49668981481</v>
+        <v>44792</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8547,14 +8547,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 37130-2024</t>
+          <t>A 61319-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45539.57060185185</v>
+        <v>46000.94983796297</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8604,14 +8604,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 59915-2024</t>
+          <t>A 61320-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45641.74975694445</v>
+        <v>46000.95591435185</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8661,14 +8661,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 5152-2025</t>
+          <t>A 13377-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45691.6000462963</v>
+        <v>45005.49668981481</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8718,14 +8718,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 59834-2025</t>
+          <t>A 37130-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45992.66811342593</v>
+        <v>45539.57060185185</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8775,14 +8775,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 2436-2026</t>
+          <t>A 4114-2026</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>46036.90234953703</v>
+        <v>46044.60348379629</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.6</v>
+        <v>7.1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8832,14 +8832,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 42712-2023</t>
+          <t>A 59915-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45181.61869212963</v>
+        <v>45641.74975694445</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8889,14 +8889,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 2435-2026</t>
+          <t>A 5152-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>46036.90065972223</v>
+        <v>45691.6000462963</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8946,14 +8946,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 50562-2024</t>
+          <t>A 42712-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45601.59825231481</v>
+        <v>45181.61869212963</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9003,14 +9003,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 20131-2025</t>
+          <t>A 50562-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45772.50918981482</v>
+        <v>45601.59825231481</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9060,14 +9060,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 61319-2025</t>
+          <t>A 20131-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>46000.94983796297</v>
+        <v>45772.50918981482</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9117,14 +9117,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 61320-2025</t>
+          <t>A 5454-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>46000.95591435185</v>
+        <v>45692.98011574074</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9174,14 +9174,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 5454-2025</t>
+          <t>A 2213-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45692.98011574074</v>
+        <v>45673.4359837963</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9231,14 +9231,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 2213-2025</t>
+          <t>A 6739-2026</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45673.4359837963</v>
+        <v>46056.69936342593</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9295,7 +9295,7 @@
         <v>45558.44460648148</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         <v>45535.70535879629</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9409,7 +9409,7 @@
         <v>45629.92240740741</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9459,14 +9459,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 49822-2022</t>
+          <t>A 8457-2026</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44862</v>
+        <v>46065.42722222222</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9516,14 +9516,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 38322-2023</t>
+          <t>A 49822-2022</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45161.73658564815</v>
+        <v>44862</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9573,14 +9573,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 40743-2024</t>
+          <t>A 9194-2026</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45558.45</v>
+        <v>46070.39208333333</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9630,14 +9630,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 18954-2025</t>
+          <t>A 9344-2026</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45764.51478009259</v>
+        <v>46070.68266203703</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9650,7 +9650,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>6.4</v>
+        <v>5.3</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9687,14 +9687,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 771-2023</t>
+          <t>A 38322-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44931</v>
+        <v>45161.73658564815</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9707,7 +9707,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9744,14 +9744,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 20819-2023</t>
+          <t>A 40743-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45058</v>
+        <v>45558.45</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9764,7 +9764,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9801,14 +9801,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 11356-2025</t>
+          <t>A 18954-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45726.52880787037</v>
+        <v>45764.51478009259</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.1</v>
+        <v>6.4</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9858,14 +9858,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 34354-2023</t>
+          <t>A 771-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45139</v>
+        <v>44931</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9915,14 +9915,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 37000-2023</t>
+          <t>A 20819-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45155.26925925926</v>
+        <v>45058</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>10.7</v>
+        <v>0.7</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9972,14 +9972,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 6485-2024</t>
+          <t>A 11356-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45339.40619212963</v>
+        <v>45726.52880787037</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10029,14 +10029,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 45088-2021</t>
+          <t>A 34354-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44439.391875</v>
+        <v>45139</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10086,14 +10086,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 49617-2023</t>
+          <t>A 37000-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45211</v>
+        <v>45155.26925925926</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10106,7 +10106,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>4.4</v>
+        <v>10.7</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10143,14 +10143,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 23682-2024</t>
+          <t>A 6485-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45454.62754629629</v>
+        <v>45339.40619212963</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10163,7 +10163,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>4.1</v>
+        <v>0.9</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10200,14 +10200,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 39206-2024</t>
+          <t>A 45088-2021</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45548.81200231481</v>
+        <v>44439.391875</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10220,7 +10220,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10257,14 +10257,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 5715-2024</t>
+          <t>A 49617-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45334</v>
+        <v>45211</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.5</v>
+        <v>4.4</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10314,14 +10314,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 5617-2024</t>
+          <t>A 23682-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45334.58319444444</v>
+        <v>45454.62754629629</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10334,7 +10334,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2</v>
+        <v>4.1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10367,38 +10367,18 @@
         <v>0</v>
       </c>
       <c r="R162" s="2" t="inlineStr"/>
-      <c r="U162">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 5617-2024 karta knärot.png", "A 5617-2024")</f>
-        <v/>
-      </c>
-      <c r="V162">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 5617-2024 FSC-klagomål.docx", "A 5617-2024")</f>
-        <v/>
-      </c>
-      <c r="W162">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 5617-2024 FSC-klagomål mail.docx", "A 5617-2024")</f>
-        <v/>
-      </c>
-      <c r="X162">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 5617-2024 tillsynsbegäran.docx", "A 5617-2024")</f>
-        <v/>
-      </c>
-      <c r="Y162">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 5617-2024 tillsynsbegäran mail.docx", "A 5617-2024")</f>
-        <v/>
-      </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 34056-2024</t>
+          <t>A 39206-2024</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45523.6125</v>
+        <v>45548.81200231481</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10411,7 +10391,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10448,14 +10428,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 3750-2022</t>
+          <t>A 5715-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44586.71618055556</v>
+        <v>45334</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10468,7 +10448,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10505,14 +10485,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 37522-2024</t>
+          <t>A 5617-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45541</v>
+        <v>45334.58319444444</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10525,7 +10505,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>10.2</v>
+        <v>2</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10558,18 +10538,38 @@
         <v>0</v>
       </c>
       <c r="R165" s="2" t="inlineStr"/>
+      <c r="U165">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 5617-2024 karta knärot.png", "A 5617-2024")</f>
+        <v/>
+      </c>
+      <c r="V165">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 5617-2024 FSC-klagomål.docx", "A 5617-2024")</f>
+        <v/>
+      </c>
+      <c r="W165">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 5617-2024 FSC-klagomål mail.docx", "A 5617-2024")</f>
+        <v/>
+      </c>
+      <c r="X165">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 5617-2024 tillsynsbegäran.docx", "A 5617-2024")</f>
+        <v/>
+      </c>
+      <c r="Y165">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 5617-2024 tillsynsbegäran mail.docx", "A 5617-2024")</f>
+        <v/>
+      </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 23046-2024</t>
+          <t>A 34056-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45450.4240625</v>
+        <v>45523.6125</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10582,7 +10582,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10619,14 +10619,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 44233-2023</t>
+          <t>A 3750-2022</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45183</v>
+        <v>44586.71618055556</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10672,38 +10672,18 @@
         <v>0</v>
       </c>
       <c r="R167" s="2" t="inlineStr"/>
-      <c r="U167">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 44233-2023 karta knärot.png", "A 44233-2023")</f>
-        <v/>
-      </c>
-      <c r="V167">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 44233-2023 FSC-klagomål.docx", "A 44233-2023")</f>
-        <v/>
-      </c>
-      <c r="W167">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 44233-2023 FSC-klagomål mail.docx", "A 44233-2023")</f>
-        <v/>
-      </c>
-      <c r="X167">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 44233-2023 tillsynsbegäran.docx", "A 44233-2023")</f>
-        <v/>
-      </c>
-      <c r="Y167">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 44233-2023 tillsynsbegäran mail.docx", "A 44233-2023")</f>
-        <v/>
-      </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 14547-2022</t>
+          <t>A 37522-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44655</v>
+        <v>45541</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10716,7 +10696,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>3.8</v>
+        <v>10.2</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10753,14 +10733,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 18791-2023</t>
+          <t>A 23046-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45044</v>
+        <v>45450.4240625</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10773,7 +10753,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10810,14 +10790,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 28109-2024</t>
+          <t>A 44233-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45476.63284722222</v>
+        <v>45183</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10830,7 +10810,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10863,18 +10843,38 @@
         <v>0</v>
       </c>
       <c r="R170" s="2" t="inlineStr"/>
+      <c r="U170">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 44233-2023 karta knärot.png", "A 44233-2023")</f>
+        <v/>
+      </c>
+      <c r="V170">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 44233-2023 FSC-klagomål.docx", "A 44233-2023")</f>
+        <v/>
+      </c>
+      <c r="W170">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 44233-2023 FSC-klagomål mail.docx", "A 44233-2023")</f>
+        <v/>
+      </c>
+      <c r="X170">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 44233-2023 tillsynsbegäran.docx", "A 44233-2023")</f>
+        <v/>
+      </c>
+      <c r="Y170">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 44233-2023 tillsynsbegäran mail.docx", "A 44233-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 63626-2023</t>
+          <t>A 14547-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45275</v>
+        <v>44655</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10924,14 +10924,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 32175-2024</t>
+          <t>A 18791-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45511.61238425926</v>
+        <v>45044</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10944,7 +10944,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10981,14 +10981,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 34155-2024</t>
+          <t>A 28109-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45524.3860300926</v>
+        <v>45476.63284722222</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11038,14 +11038,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 20898-2021</t>
+          <t>A 63626-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44319.41962962963</v>
+        <v>45275</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11095,14 +11095,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 46708-2023</t>
+          <t>A 32175-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45198</v>
+        <v>45511.61238425926</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11115,7 +11115,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2.9</v>
+        <v>0.3</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11152,14 +11152,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 62086-2022</t>
+          <t>A 34155-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44919.46138888889</v>
+        <v>45524.3860300926</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11172,7 +11172,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11209,14 +11209,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 49134-2021</t>
+          <t>A 20898-2021</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44453</v>
+        <v>44319.41962962963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11228,13 +11228,8 @@
           <t>ORUST</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G177" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11271,14 +11266,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 57878-2022</t>
+          <t>A 46708-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44899.875625</v>
+        <v>45198</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11291,7 +11286,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>4.6</v>
+        <v>2.9</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11328,14 +11323,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 14802-2023</t>
+          <t>A 62086-2022</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45014</v>
+        <v>44919.46138888889</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11348,7 +11343,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11385,14 +11380,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 2632-2024</t>
+          <t>A 49134-2021</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45313.97175925926</v>
+        <v>44453</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11404,8 +11399,13 @@
           <t>ORUST</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G180" t="n">
-        <v>8.199999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11442,14 +11442,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 1663-2024</t>
+          <t>A 57878-2022</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45306</v>
+        <v>44899.875625</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11462,7 +11462,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>6.1</v>
+        <v>4.6</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11499,116 +11499,230 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
+          <t>A 14802-2023</t>
+        </is>
+      </c>
+      <c r="B182" s="1" t="n">
+        <v>45014</v>
+      </c>
+      <c r="C182" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>ORUST</t>
+        </is>
+      </c>
+      <c r="G182" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L182" t="n">
+        <v>0</v>
+      </c>
+      <c r="M182" t="n">
+        <v>0</v>
+      </c>
+      <c r="N182" t="n">
+        <v>0</v>
+      </c>
+      <c r="O182" t="n">
+        <v>0</v>
+      </c>
+      <c r="P182" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q182" t="n">
+        <v>0</v>
+      </c>
+      <c r="R182" s="2" t="inlineStr"/>
+    </row>
+    <row r="183" ht="15" customHeight="1">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>A 2632-2024</t>
+        </is>
+      </c>
+      <c r="B183" s="1" t="n">
+        <v>45313.97175925926</v>
+      </c>
+      <c r="C183" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>ORUST</t>
+        </is>
+      </c>
+      <c r="G183" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="n">
+        <v>0</v>
+      </c>
+      <c r="L183" t="n">
+        <v>0</v>
+      </c>
+      <c r="M183" t="n">
+        <v>0</v>
+      </c>
+      <c r="N183" t="n">
+        <v>0</v>
+      </c>
+      <c r="O183" t="n">
+        <v>0</v>
+      </c>
+      <c r="P183" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q183" t="n">
+        <v>0</v>
+      </c>
+      <c r="R183" s="2" t="inlineStr"/>
+    </row>
+    <row r="184" ht="15" customHeight="1">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>A 1663-2024</t>
+        </is>
+      </c>
+      <c r="B184" s="1" t="n">
+        <v>45306</v>
+      </c>
+      <c r="C184" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>ORUST</t>
+        </is>
+      </c>
+      <c r="G184" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="n">
+        <v>0</v>
+      </c>
+      <c r="L184" t="n">
+        <v>0</v>
+      </c>
+      <c r="M184" t="n">
+        <v>0</v>
+      </c>
+      <c r="N184" t="n">
+        <v>0</v>
+      </c>
+      <c r="O184" t="n">
+        <v>0</v>
+      </c>
+      <c r="P184" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q184" t="n">
+        <v>0</v>
+      </c>
+      <c r="R184" s="2" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
           <t>A 33454-2023</t>
         </is>
       </c>
-      <c r="B182" s="1" t="n">
+      <c r="B185" s="1" t="n">
         <v>45130</v>
       </c>
-      <c r="C182" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>ORUST</t>
-        </is>
-      </c>
-      <c r="G182" t="n">
+      <c r="C185" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>ORUST</t>
+        </is>
+      </c>
+      <c r="G185" t="n">
         <v>6</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="n">
-        <v>0</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0</v>
-      </c>
-      <c r="L182" t="n">
-        <v>0</v>
-      </c>
-      <c r="M182" t="n">
-        <v>0</v>
-      </c>
-      <c r="N182" t="n">
-        <v>0</v>
-      </c>
-      <c r="O182" t="n">
-        <v>0</v>
-      </c>
-      <c r="P182" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q182" t="n">
-        <v>0</v>
-      </c>
-      <c r="R182" s="2" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>A 13243-2023</t>
-        </is>
-      </c>
-      <c r="B183" s="1" t="n">
-        <v>45002</v>
-      </c>
-      <c r="C183" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>ORUST</t>
-        </is>
-      </c>
-      <c r="G183" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>0</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0</v>
-      </c>
-      <c r="L183" t="n">
-        <v>0</v>
-      </c>
-      <c r="M183" t="n">
-        <v>0</v>
-      </c>
-      <c r="N183" t="n">
-        <v>0</v>
-      </c>
-      <c r="O183" t="n">
-        <v>0</v>
-      </c>
-      <c r="P183" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q183" t="n">
-        <v>0</v>
-      </c>
-      <c r="R183" s="2" t="inlineStr"/>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L185" t="n">
+        <v>0</v>
+      </c>
+      <c r="M185" t="n">
+        <v>0</v>
+      </c>
+      <c r="N185" t="n">
+        <v>0</v>
+      </c>
+      <c r="O185" t="n">
+        <v>0</v>
+      </c>
+      <c r="P185" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q185" t="n">
+        <v>0</v>
+      </c>
+      <c r="R185" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ORUST.xlsx
+++ b/Översikt ORUST.xlsx
@@ -575,7 +575,7 @@
         <v>44476</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44326.68740740741</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,14 +750,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 74306-2021</t>
+          <t>A 49930-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44559</v>
+        <v>45597.57973379629</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -770,16 +770,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>14.6</v>
+        <v>16.6</v>
       </c>
       <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -803,6 +803,190 @@
         <v>4</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Motaggsvamp
+Svart trolldruva
+Revlummer
+Äkta lopplummer</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 49930-2024 artfynd.xlsx", "A 49930-2024")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 49930-2024 karta.png", "A 49930-2024")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 49930-2024 FSC-klagomål.docx", "A 49930-2024")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 49930-2024 FSC-klagomål mail.docx", "A 49930-2024")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 49930-2024 tillsynsbegäran.docx", "A 49930-2024")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 49930-2024 tillsynsbegäran mail.docx", "A 49930-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 14805-2023</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45014</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ORUST</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Grönsångare
+Kambräken
+Purpurmylia</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 14805-2023 artfynd.xlsx", "A 14805-2023")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 14805-2023 karta.png", "A 14805-2023")</f>
+        <v/>
+      </c>
+      <c r="U5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 14805-2023 karta knärot.png", "A 14805-2023")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 14805-2023 FSC-klagomål.docx", "A 14805-2023")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 14805-2023 FSC-klagomål mail.docx", "A 14805-2023")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 14805-2023 tillsynsbegäran.docx", "A 14805-2023")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 14805-2023 tillsynsbegäran mail.docx", "A 14805-2023")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/fåglar/A 14805-2023 prioriterade fågelarter.docx", "A 14805-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 74306-2021</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>44559</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ORUST</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Dvärglin
 Kösa
@@ -810,183 +994,87 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 74306-2021 artfynd.xlsx", "A 74306-2021")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 74306-2021 karta.png", "A 74306-2021")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 74306-2021 FSC-klagomål.docx", "A 74306-2021")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 74306-2021 FSC-klagomål mail.docx", "A 74306-2021")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 74306-2021 tillsynsbegäran.docx", "A 74306-2021")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 74306-2021 tillsynsbegäran mail.docx", "A 74306-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 14805-2023</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45014</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ORUST</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H5" t="n">
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 65099-2023</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45288</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ORUST</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
         <v>2</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
         <v>2</v>
       </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>2</v>
       </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
+      <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="n">
         <v>4</v>
       </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Grönsångare
-Kambräken
-Purpurmylia</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 14805-2023 artfynd.xlsx", "A 14805-2023")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 14805-2023 karta.png", "A 14805-2023")</f>
-        <v/>
-      </c>
-      <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 14805-2023 karta knärot.png", "A 14805-2023")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 14805-2023 FSC-klagomål.docx", "A 14805-2023")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 14805-2023 FSC-klagomål mail.docx", "A 14805-2023")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 14805-2023 tillsynsbegäran.docx", "A 14805-2023")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 14805-2023 tillsynsbegäran mail.docx", "A 14805-2023")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/fåglar/A 14805-2023 prioriterade fågelarter.docx", "A 14805-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 65099-2023</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45288</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ORUST</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>4</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Blockskapania
 Knärot
@@ -994,120 +1082,32 @@
 Stor revmossa</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 65099-2023 artfynd.xlsx", "A 65099-2023")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 65099-2023 karta.png", "A 65099-2023")</f>
         <v/>
       </c>
-      <c r="U6">
+      <c r="U7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 65099-2023 karta knärot.png", "A 65099-2023")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 65099-2023 FSC-klagomål.docx", "A 65099-2023")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 65099-2023 FSC-klagomål mail.docx", "A 65099-2023")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 65099-2023 tillsynsbegäran.docx", "A 65099-2023")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 65099-2023 tillsynsbegäran mail.docx", "A 65099-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 49930-2024</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45597.57973379629</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ORUST</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>4</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Motaggsvamp
-Svart trolldruva
-Revlummer
-Äkta lopplummer</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 49930-2024 artfynd.xlsx", "A 49930-2024")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 49930-2024 karta.png", "A 49930-2024")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 49930-2024 FSC-klagomål.docx", "A 49930-2024")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 49930-2024 FSC-klagomål mail.docx", "A 49930-2024")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 49930-2024 tillsynsbegäran.docx", "A 49930-2024")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 49930-2024 tillsynsbegäran mail.docx", "A 49930-2024")</f>
         <v/>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
         <v>44546</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>44266</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>45791.5346875</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>45336</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1467,14 +1467,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 46272-2024</t>
+          <t>A 13220-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45581</v>
+        <v>45386.52466435185</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1487,20 +1487,20 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>1</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
@@ -1511,55 +1511,59 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 46272-2024 artfynd.xlsx", "A 46272-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 13220-2024 artfynd.xlsx", "A 13220-2024")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 46272-2024 karta.png", "A 46272-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 13220-2024 karta.png", "A 13220-2024")</f>
+        <v/>
+      </c>
+      <c r="U12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 13220-2024 karta knärot.png", "A 13220-2024")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 46272-2024 FSC-klagomål.docx", "A 46272-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 13220-2024 FSC-klagomål.docx", "A 13220-2024")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 46272-2024 FSC-klagomål mail.docx", "A 46272-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 13220-2024 FSC-klagomål mail.docx", "A 13220-2024")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 46272-2024 tillsynsbegäran.docx", "A 46272-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 13220-2024 tillsynsbegäran.docx", "A 13220-2024")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 46272-2024 tillsynsbegäran mail.docx", "A 46272-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 13220-2024 tillsynsbegäran mail.docx", "A 13220-2024")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 49047-2025</t>
+          <t>A 46272-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45937.63695601852</v>
+        <v>45581</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1572,16 +1576,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1596,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1606,45 +1610,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Granspira</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 49047-2025 artfynd.xlsx", "A 49047-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 46272-2024 artfynd.xlsx", "A 46272-2024")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 49047-2025 karta.png", "A 49047-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 46272-2024 karta.png", "A 46272-2024")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 49047-2025 FSC-klagomål.docx", "A 49047-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 46272-2024 FSC-klagomål.docx", "A 46272-2024")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 49047-2025 FSC-klagomål mail.docx", "A 49047-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 46272-2024 FSC-klagomål mail.docx", "A 46272-2024")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 49047-2025 tillsynsbegäran.docx", "A 49047-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 46272-2024 tillsynsbegäran.docx", "A 46272-2024")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 49047-2025 tillsynsbegäran mail.docx", "A 49047-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 46272-2024 tillsynsbegäran mail.docx", "A 46272-2024")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 56035-2025</t>
+          <t>A 49047-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45973</v>
+        <v>45937.63695601852</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1657,19 +1661,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>15.9</v>
+        <v>3.2</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1684,56 +1688,52 @@
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Granspira</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 56035-2025 artfynd.xlsx", "A 56035-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 49047-2025 artfynd.xlsx", "A 49047-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 56035-2025 karta.png", "A 56035-2025")</f>
-        <v/>
-      </c>
-      <c r="U14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 56035-2025 karta knärot.png", "A 56035-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 49047-2025 karta.png", "A 49047-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 56035-2025 FSC-klagomål.docx", "A 56035-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 49047-2025 FSC-klagomål.docx", "A 49047-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 56035-2025 FSC-klagomål mail.docx", "A 56035-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 49047-2025 FSC-klagomål mail.docx", "A 49047-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 56035-2025 tillsynsbegäran.docx", "A 56035-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 49047-2025 tillsynsbegäran.docx", "A 49047-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 56035-2025 tillsynsbegäran mail.docx", "A 56035-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 49047-2025 tillsynsbegäran mail.docx", "A 49047-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 41056-2025</t>
+          <t>A 24618-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45898</v>
+        <v>45460</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1746,13 +1746,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.3</v>
+        <v>9.5</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1780,45 +1780,45 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 41056-2025 artfynd.xlsx", "A 41056-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 24618-2024 artfynd.xlsx", "A 24618-2024")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 41056-2025 karta.png", "A 41056-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 24618-2024 karta.png", "A 24618-2024")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 41056-2025 FSC-klagomål.docx", "A 41056-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 24618-2024 FSC-klagomål.docx", "A 24618-2024")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 41056-2025 FSC-klagomål mail.docx", "A 41056-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 24618-2024 FSC-klagomål mail.docx", "A 24618-2024")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 41056-2025 tillsynsbegäran.docx", "A 41056-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 24618-2024 tillsynsbegäran.docx", "A 24618-2024")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 41056-2025 tillsynsbegäran mail.docx", "A 41056-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 24618-2024 tillsynsbegäran mail.docx", "A 24618-2024")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 13220-2024</t>
+          <t>A 5634-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45386.52466435185</v>
+        <v>45693.6689699074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1869,45 +1869,45 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 13220-2024 artfynd.xlsx", "A 13220-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 5634-2025 artfynd.xlsx", "A 5634-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 13220-2024 karta.png", "A 13220-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 5634-2025 karta.png", "A 5634-2025")</f>
         <v/>
       </c>
       <c r="U16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 13220-2024 karta knärot.png", "A 13220-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 5634-2025 karta knärot.png", "A 5634-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 13220-2024 FSC-klagomål.docx", "A 13220-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 5634-2025 FSC-klagomål.docx", "A 5634-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 13220-2024 FSC-klagomål mail.docx", "A 13220-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 5634-2025 FSC-klagomål mail.docx", "A 5634-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 13220-2024 tillsynsbegäran.docx", "A 13220-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 5634-2025 tillsynsbegäran.docx", "A 5634-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 13220-2024 tillsynsbegäran mail.docx", "A 13220-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 5634-2025 tillsynsbegäran mail.docx", "A 5634-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 24618-2024</t>
+          <t>A 56035-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45460</v>
+        <v>45973</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>9.5</v>
+        <v>15.9</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1944,55 +1944,59 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 24618-2024 artfynd.xlsx", "A 24618-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 56035-2025 artfynd.xlsx", "A 56035-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 24618-2024 karta.png", "A 24618-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 56035-2025 karta.png", "A 56035-2025")</f>
+        <v/>
+      </c>
+      <c r="U17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 56035-2025 karta knärot.png", "A 56035-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 24618-2024 FSC-klagomål.docx", "A 24618-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 56035-2025 FSC-klagomål.docx", "A 56035-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 24618-2024 FSC-klagomål mail.docx", "A 24618-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 56035-2025 FSC-klagomål mail.docx", "A 56035-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 24618-2024 tillsynsbegäran.docx", "A 24618-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 56035-2025 tillsynsbegäran.docx", "A 56035-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 24618-2024 tillsynsbegäran mail.docx", "A 24618-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 56035-2025 tillsynsbegäran mail.docx", "A 56035-2025")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 20709-2023</t>
+          <t>A 41056-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45058</v>
+        <v>45898</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2005,19 +2009,19 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2029,59 +2033,55 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 20709-2023 artfynd.xlsx", "A 20709-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 41056-2025 artfynd.xlsx", "A 41056-2025")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 20709-2023 karta.png", "A 20709-2023")</f>
-        <v/>
-      </c>
-      <c r="U18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 20709-2023 karta knärot.png", "A 20709-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 41056-2025 karta.png", "A 41056-2025")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 20709-2023 FSC-klagomål.docx", "A 20709-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 41056-2025 FSC-klagomål.docx", "A 41056-2025")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 20709-2023 FSC-klagomål mail.docx", "A 20709-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 41056-2025 FSC-klagomål mail.docx", "A 41056-2025")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 20709-2023 tillsynsbegäran.docx", "A 20709-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 41056-2025 tillsynsbegäran.docx", "A 41056-2025")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 20709-2023 tillsynsbegäran mail.docx", "A 20709-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 41056-2025 tillsynsbegäran mail.docx", "A 41056-2025")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 5634-2025</t>
+          <t>A 20086-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45693.6689699074</v>
+        <v>45054</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -2132,45 +2132,45 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 5634-2025 artfynd.xlsx", "A 5634-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 20086-2023 artfynd.xlsx", "A 20086-2023")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 5634-2025 karta.png", "A 5634-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 20086-2023 karta.png", "A 20086-2023")</f>
         <v/>
       </c>
       <c r="U19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 5634-2025 karta knärot.png", "A 5634-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 20086-2023 karta knärot.png", "A 20086-2023")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 5634-2025 FSC-klagomål.docx", "A 5634-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 20086-2023 FSC-klagomål.docx", "A 20086-2023")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 5634-2025 FSC-klagomål mail.docx", "A 5634-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 20086-2023 FSC-klagomål mail.docx", "A 20086-2023")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 5634-2025 tillsynsbegäran.docx", "A 5634-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 20086-2023 tillsynsbegäran.docx", "A 20086-2023")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 5634-2025 tillsynsbegäran mail.docx", "A 5634-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 20086-2023 tillsynsbegäran mail.docx", "A 20086-2023")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 20086-2023</t>
+          <t>A 20709-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45054</v>
+        <v>45058</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.9</v>
+        <v>4.3</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -2221,31 +2221,31 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 20086-2023 artfynd.xlsx", "A 20086-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 20709-2023 artfynd.xlsx", "A 20709-2023")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 20086-2023 karta.png", "A 20086-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 20709-2023 karta.png", "A 20709-2023")</f>
         <v/>
       </c>
       <c r="U20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 20086-2023 karta knärot.png", "A 20086-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 20709-2023 karta knärot.png", "A 20709-2023")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 20086-2023 FSC-klagomål.docx", "A 20086-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 20709-2023 FSC-klagomål.docx", "A 20709-2023")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 20086-2023 FSC-klagomål mail.docx", "A 20086-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 20709-2023 FSC-klagomål mail.docx", "A 20709-2023")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 20086-2023 tillsynsbegäran.docx", "A 20086-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 20709-2023 tillsynsbegäran.docx", "A 20709-2023")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 20086-2023 tillsynsbegäran mail.docx", "A 20086-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 20709-2023 tillsynsbegäran mail.docx", "A 20709-2023")</f>
         <v/>
       </c>
     </row>
@@ -2259,7 +2259,7 @@
         <v>44790</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>44250</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>44445</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>44827</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>44448</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>44448</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>44529</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>44566.74335648148</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>44386</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>44439</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>44888.63157407408</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>44505.79013888889</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>44657</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>44480</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>44610</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>44550</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>44694.73462962963</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>44694</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>44448</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>44448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>44441</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>44448</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>44872.93511574074</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         <v>44326</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>44531.34472222222</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3677,14 +3677,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 14609-2024</t>
+          <t>A 34380-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45396.86570601852</v>
+        <v>44792</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3734,14 +3734,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 62369-2023</t>
+          <t>A 47630-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45268.30483796296</v>
+        <v>45931.48855324074</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>5.4</v>
+        <v>2.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3791,14 +3791,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 34217-2022</t>
+          <t>A 5152-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44791</v>
+        <v>45691.6000462963</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3848,14 +3848,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 57877-2022</t>
+          <t>A 49134-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44899.8749537037</v>
+        <v>44453</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3867,8 +3867,13 @@
           <t>ORUST</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3905,14 +3910,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 22750-2024</t>
+          <t>A 14609-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45448.41990740741</v>
+        <v>45396.86570601852</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3925,7 +3930,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3962,14 +3967,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 36999-2023</t>
+          <t>A 59309-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45155.24585648148</v>
+        <v>45253.606875</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3982,7 +3987,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4019,14 +4024,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 13243-2023</t>
+          <t>A 1288-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45002</v>
+        <v>45667.50971064815</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4039,7 +4044,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4.8</v>
+        <v>1.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4076,14 +4081,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 69193-2021</t>
+          <t>A 46119-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44531</v>
+        <v>45924</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4096,7 +4101,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.9</v>
+        <v>8.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4133,14 +4138,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 19005-2023</t>
+          <t>A 46121-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45045.60177083333</v>
+        <v>45924</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4153,7 +4158,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.7</v>
+        <v>8.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4190,14 +4195,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 59309-2023</t>
+          <t>A 48419-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45253.606875</v>
+        <v>45934.58502314815</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4210,7 +4215,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.7</v>
+        <v>7.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4247,14 +4252,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 22959-2025</t>
+          <t>A 49365-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45790</v>
+        <v>45938.62341435185</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4267,7 +4272,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4304,14 +4309,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 23258-2025</t>
+          <t>A 39219-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45791.53902777778</v>
+        <v>45888</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4324,7 +4329,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4361,14 +4366,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 23254-2025</t>
+          <t>A 39206-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45791.5340162037</v>
+        <v>45548.81200231481</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4381,7 +4386,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4418,14 +4423,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 14760-2025</t>
+          <t>A 69193-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45742</v>
+        <v>44531</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4438,7 +4443,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4475,14 +4480,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 9937-2025</t>
+          <t>A 24179-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45718.64129629629</v>
+        <v>45796.72856481482</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4495,7 +4500,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4532,14 +4537,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 23259-2025</t>
+          <t>A 13243-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45791.53978009259</v>
+        <v>45002</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4552,7 +4557,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.6</v>
+        <v>4.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4589,14 +4594,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 49134-2021</t>
+          <t>A 40442-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44453</v>
+        <v>45895</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4608,13 +4613,8 @@
           <t>ORUST</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4651,14 +4651,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 13521-2025</t>
+          <t>A 40328-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45736.48755787037</v>
+        <v>45895</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.5</v>
+        <v>3.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4708,14 +4708,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 13536-2025</t>
+          <t>A 40338-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45736.51413194444</v>
+        <v>45895</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.1</v>
+        <v>2.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4765,14 +4765,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 39219-2025</t>
+          <t>A 22959-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45888</v>
+        <v>45790</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4822,14 +4822,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 24179-2025</t>
+          <t>A 45088-2021</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45796.72856481482</v>
+        <v>44439.391875</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4879,14 +4879,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 24321-2025</t>
+          <t>A 41063-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45797</v>
+        <v>45898</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4936,14 +4936,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 34046-2024</t>
+          <t>A 40681-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45523.60449074074</v>
+        <v>45896.85623842593</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4956,7 +4956,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4.2</v>
+        <v>0.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4993,14 +4993,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 56654-2025</t>
+          <t>A 9937-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45975.64869212963</v>
+        <v>45718.64129629629</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5050,14 +5050,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 40338-2025</t>
+          <t>A 23258-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45895</v>
+        <v>45791.53902777778</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5107,14 +5107,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 40328-2025</t>
+          <t>A 47884-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45895</v>
+        <v>45588.81101851852</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.7</v>
+        <v>0.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5164,14 +5164,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 40442-2025</t>
+          <t>A 41688-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45895</v>
+        <v>45902.39888888889</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5221,14 +5221,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 40681-2025</t>
+          <t>A 13521-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45896.85623842593</v>
+        <v>45736.48755787037</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5278,14 +5278,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 55777-2022</t>
+          <t>A 13536-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44888.61921296296</v>
+        <v>45736.51413194444</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5335,14 +5335,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 41063-2025</t>
+          <t>A 14760-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45898</v>
+        <v>45742</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5355,7 +5355,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.7</v>
+        <v>4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5392,14 +5392,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 47884-2024</t>
+          <t>A 23682-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45588.81101851852</v>
+        <v>45454.62754629629</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.8</v>
+        <v>4.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5449,14 +5449,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 41881-2025</t>
+          <t>A 49072-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45903.36444444444</v>
+        <v>45937.65501157408</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5469,7 +5469,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5506,14 +5506,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 42069-2025</t>
+          <t>A 23259-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45903.65700231482</v>
+        <v>45791.53978009259</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5563,14 +5563,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 44754-2024</t>
+          <t>A 23254-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45574.61065972222</v>
+        <v>45791.5340162037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5583,7 +5583,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5620,14 +5620,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 41688-2025</t>
+          <t>A 41881-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45902.39888888889</v>
+        <v>45903.36444444444</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5677,14 +5677,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 42457-2025</t>
+          <t>A 34046-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45905.45289351852</v>
+        <v>45523.60449074074</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5697,7 +5697,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.7</v>
+        <v>4.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5734,14 +5734,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 44417-2024</t>
+          <t>A 42069-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45573.8249537037</v>
+        <v>45903.65700231482</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5754,7 +5754,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5791,14 +5791,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 27277-2025</t>
+          <t>A 22750-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45812.52674768519</v>
+        <v>45448.41990740741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5811,7 +5811,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5848,14 +5848,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 27555-2025</t>
+          <t>A 42457-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45813.47424768518</v>
+        <v>45905.45289351852</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5868,7 +5868,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5905,14 +5905,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 63419-2023</t>
+          <t>A 28109-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45274</v>
+        <v>45476.63284722222</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5925,7 +5925,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>6.4</v>
+        <v>0.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5962,14 +5962,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 43752-2023</t>
+          <t>A 5714-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45187</v>
+        <v>45334.87804398148</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>9.300000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6019,14 +6019,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 54279-2024</t>
+          <t>A 24321-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45616.855</v>
+        <v>45797</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>6.9</v>
+        <v>0.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6076,14 +6076,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 30440-2024</t>
+          <t>A 55777-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45491.81488425926</v>
+        <v>44888.61921296296</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6133,14 +6133,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 49115-2024</t>
+          <t>A 54128-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45594.65954861111</v>
+        <v>45964.45993055555</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6153,7 +6153,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.6</v>
+        <v>5.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6190,14 +6190,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 47405-2025</t>
+          <t>A 49822-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45930.61258101852</v>
+        <v>44862</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6247,14 +6247,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 47630-2025</t>
+          <t>A 57878-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45931.48855324074</v>
+        <v>44899.875625</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.8</v>
+        <v>4.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6304,14 +6304,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 31617-2025</t>
+          <t>A 49115-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45833</v>
+        <v>45594.65954861111</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6361,14 +6361,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 47404-2025</t>
+          <t>A 3750-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45930.61149305556</v>
+        <v>44586.71618055556</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6418,14 +6418,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 58853-2025</t>
+          <t>A 44417-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45987.40476851852</v>
+        <v>45573.8249537037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6475,14 +6475,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 58852-2025</t>
+          <t>A 44754-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45987.40355324074</v>
+        <v>45574.61065972222</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>4.9</v>
+        <v>0.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6532,14 +6532,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 71890-2021</t>
+          <t>A 30440-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44543.78116898148</v>
+        <v>45491.81488425926</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6589,14 +6589,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 6957-2024</t>
+          <t>A 27277-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45343.45112268518</v>
+        <v>45812.52674768519</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6646,14 +6646,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 51993-2022</t>
+          <t>A 62516-2022</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44872</v>
+        <v>44924.61912037037</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6703,14 +6703,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 46121-2025</t>
+          <t>A 27555-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45924</v>
+        <v>45813.47424768518</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>8.5</v>
+        <v>1.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6760,14 +6760,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 40270-2024</t>
+          <t>A 47405-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45554.64315972223</v>
+        <v>45930.61258101852</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6813,38 +6813,18 @@
         <v>0</v>
       </c>
       <c r="R100" s="2" t="inlineStr"/>
-      <c r="U100">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 40270-2024 karta knärot.png", "A 40270-2024")</f>
-        <v/>
-      </c>
-      <c r="V100">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 40270-2024 FSC-klagomål.docx", "A 40270-2024")</f>
-        <v/>
-      </c>
-      <c r="W100">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 40270-2024 FSC-klagomål mail.docx", "A 40270-2024")</f>
-        <v/>
-      </c>
-      <c r="X100">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 40270-2024 tillsynsbegäran.docx", "A 40270-2024")</f>
-        <v/>
-      </c>
-      <c r="Y100">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 40270-2024 tillsynsbegäran mail.docx", "A 40270-2024")</f>
-        <v/>
-      </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 48419-2025</t>
+          <t>A 54279-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45934.58502314815</v>
+        <v>45616.855</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6857,7 +6837,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>7.7</v>
+        <v>6.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6894,14 +6874,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 46119-2025</t>
+          <t>A 47404-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45924</v>
+        <v>45930.61149305556</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6914,7 +6894,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>8.9</v>
+        <v>0.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6951,14 +6931,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 49072-2025</t>
+          <t>A 40743-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45937.65501157408</v>
+        <v>45558.45</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6971,7 +6951,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7008,14 +6988,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 13378-2023</t>
+          <t>A 56654-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45005.50077546296</v>
+        <v>45975.64869212963</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7028,7 +7008,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7065,14 +7045,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 33300-2025</t>
+          <t>A 49617-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45840.93423611111</v>
+        <v>45211</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7085,7 +7065,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>6.4</v>
+        <v>4.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7122,14 +7102,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 33295-2025</t>
+          <t>A 31617-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45840.92070601852</v>
+        <v>45833</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7142,7 +7122,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.4</v>
+        <v>3.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7179,14 +7159,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 33296-2025</t>
+          <t>A 20131-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45840.92538194444</v>
+        <v>45772.50918981482</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7199,7 +7179,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7236,14 +7216,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 33299-2025</t>
+          <t>A 51993-2022</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45840.93229166666</v>
+        <v>44872</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7256,7 +7236,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.4</v>
+        <v>2.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7293,14 +7273,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 49365-2025</t>
+          <t>A 33300-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45938.62341435185</v>
+        <v>45840.93423611111</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7313,7 +7293,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.5</v>
+        <v>6.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7350,14 +7330,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 25925-2024</t>
+          <t>A 58852-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45467.6122337963</v>
+        <v>45987.40355324074</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7370,7 +7350,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.1</v>
+        <v>4.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7407,14 +7387,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 34502-2025</t>
+          <t>A 33295-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45847.43163194445</v>
+        <v>45840.92070601852</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7427,7 +7407,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7464,14 +7444,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 34500-2025</t>
+          <t>A 33296-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45847.43075231482</v>
+        <v>45840.92538194444</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7484,7 +7464,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>7.4</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7521,14 +7501,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 22452-2021</t>
+          <t>A 33299-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44326</v>
+        <v>45840.93229166666</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7541,7 +7521,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.5</v>
+        <v>0.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7578,14 +7558,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 43228-2024</t>
+          <t>A 771-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45567.8855787037</v>
+        <v>44931</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7598,7 +7578,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7635,14 +7615,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 36722-2025</t>
+          <t>A 58853-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45872</v>
+        <v>45987.40476851852</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7655,7 +7635,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7692,14 +7672,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 36695-2025</t>
+          <t>A 59834-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45872</v>
+        <v>45992.66811342593</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7712,7 +7692,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7749,14 +7729,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 36719-2025</t>
+          <t>A 34500-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45872</v>
+        <v>45847.43075231482</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7769,7 +7749,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.7</v>
+        <v>7.4</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7806,14 +7786,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 62516-2022</t>
+          <t>A 34502-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44924.61912037037</v>
+        <v>45847.43163194445</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7826,7 +7806,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7863,14 +7843,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 54128-2025</t>
+          <t>A 34354-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45964.45993055555</v>
+        <v>45139</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7883,7 +7863,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>5.6</v>
+        <v>3.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7920,14 +7900,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 50532-2024</t>
+          <t>A 33454-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45601.56552083333</v>
+        <v>45130</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7940,7 +7920,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.8</v>
+        <v>6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7977,14 +7957,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 5926-2024</t>
+          <t>A 2213-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45336</v>
+        <v>45673.4359837963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7997,7 +7977,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8034,14 +8014,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 6986-2024</t>
+          <t>A 38322-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45343.48984953704</v>
+        <v>45161.73658564815</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8054,7 +8034,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8091,14 +8071,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 1288-2025</t>
+          <t>A 36695-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45667.50971064815</v>
+        <v>45872</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8111,7 +8091,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8148,14 +8128,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 59834-2025</t>
+          <t>A 36722-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45992.66811342593</v>
+        <v>45872</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8168,7 +8148,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>3.1</v>
+        <v>0.8</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8205,14 +8185,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 2436-2026</t>
+          <t>A 36719-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>46036.90234953703</v>
+        <v>45872</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8225,7 +8205,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8262,14 +8242,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 20089-2025</t>
+          <t>A 2435-2026</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45771</v>
+        <v>46036.90065972223</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8282,7 +8262,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8319,14 +8299,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 2435-2026</t>
+          <t>A 2436-2026</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>46036.90065972223</v>
+        <v>46036.90234953703</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8339,7 +8319,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8376,14 +8356,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 61302-2024</t>
+          <t>A 50532-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45645.90855324074</v>
+        <v>45601.56552083333</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8396,7 +8376,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8433,14 +8413,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 5714-2024</t>
+          <t>A 57445-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45334.87804398148</v>
+        <v>45629.92240740741</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8453,7 +8433,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8490,14 +8470,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 34380-2022</t>
+          <t>A 61319-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44792</v>
+        <v>46000.94983796297</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8510,7 +8490,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8547,14 +8527,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 61319-2025</t>
+          <t>A 61320-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>46000.94983796297</v>
+        <v>46000.95591435185</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8567,7 +8547,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8604,14 +8584,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 61320-2025</t>
+          <t>A 4114-2026</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>46000.95591435185</v>
+        <v>46044.60348379629</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8624,7 +8604,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>7.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8661,14 +8641,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 13377-2023</t>
+          <t>A 14802-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45005.49668981481</v>
+        <v>45014</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8681,7 +8661,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8718,14 +8698,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 37130-2024</t>
+          <t>A 36404-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45539.57060185185</v>
+        <v>45535.70535879629</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8738,7 +8718,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8775,14 +8755,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 4114-2026</t>
+          <t>A 6739-2026</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>46044.60348379629</v>
+        <v>46056.69936342593</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8795,7 +8775,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>7.1</v>
+        <v>2.8</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8832,14 +8812,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 59915-2024</t>
+          <t>A 20089-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45641.74975694445</v>
+        <v>45771</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8852,7 +8832,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8889,14 +8869,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 5152-2025</t>
+          <t>A 8457-2026</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45691.6000462963</v>
+        <v>46065.42722222222</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8909,7 +8889,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8946,14 +8926,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 42712-2023</t>
+          <t>A 62086-2022</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45181.61869212963</v>
+        <v>44919.46138888889</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8966,7 +8946,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9003,14 +8983,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 50562-2024</t>
+          <t>A 9194-2026</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45601.59825231481</v>
+        <v>46070.39208333333</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9023,7 +9003,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9060,14 +9040,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 20131-2025</t>
+          <t>A 9344-2026</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45772.50918981482</v>
+        <v>46070.68266203703</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9080,7 +9060,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.5</v>
+        <v>5.3</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9117,14 +9097,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 5454-2025</t>
+          <t>A 6957-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45692.98011574074</v>
+        <v>45343.45112268518</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9137,7 +9117,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9174,14 +9154,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 2213-2025</t>
+          <t>A 2632-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45673.4359837963</v>
+        <v>45313.97175925926</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9194,7 +9174,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9231,14 +9211,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 6739-2026</t>
+          <t>A 1663-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>46056.69936342593</v>
+        <v>45306</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9251,7 +9231,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.8</v>
+        <v>6.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9288,14 +9268,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 40722-2024</t>
+          <t>A 32175-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45558.44460648148</v>
+        <v>45511.61238425926</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9308,7 +9288,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9345,14 +9325,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 36404-2024</t>
+          <t>A 63626-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45535.70535879629</v>
+        <v>45275</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9365,7 +9345,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9402,14 +9382,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 57445-2024</t>
+          <t>A 37130-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45629.92240740741</v>
+        <v>45539.57060185185</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9422,7 +9402,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9459,14 +9439,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 8457-2026</t>
+          <t>A 23046-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>46065.42722222222</v>
+        <v>45450.4240625</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9479,7 +9459,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.9</v>
+        <v>4.2</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9516,14 +9496,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 49822-2022</t>
+          <t>A 5617-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44862</v>
+        <v>45334.58319444444</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9536,7 +9516,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9569,18 +9549,38 @@
         <v>0</v>
       </c>
       <c r="R148" s="2" t="inlineStr"/>
+      <c r="U148">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 5617-2024 karta knärot.png", "A 5617-2024")</f>
+        <v/>
+      </c>
+      <c r="V148">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 5617-2024 FSC-klagomål.docx", "A 5617-2024")</f>
+        <v/>
+      </c>
+      <c r="W148">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 5617-2024 FSC-klagomål mail.docx", "A 5617-2024")</f>
+        <v/>
+      </c>
+      <c r="X148">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 5617-2024 tillsynsbegäran.docx", "A 5617-2024")</f>
+        <v/>
+      </c>
+      <c r="Y148">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 5617-2024 tillsynsbegäran mail.docx", "A 5617-2024")</f>
+        <v/>
+      </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 9194-2026</t>
+          <t>A 5926-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>46070.39208333333</v>
+        <v>45336</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9630,14 +9630,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 9344-2026</t>
+          <t>A 44233-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>46070.68266203703</v>
+        <v>45183</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9650,7 +9650,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>5.3</v>
+        <v>3.1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9683,18 +9683,38 @@
         <v>0</v>
       </c>
       <c r="R150" s="2" t="inlineStr"/>
+      <c r="U150">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 44233-2023 karta knärot.png", "A 44233-2023")</f>
+        <v/>
+      </c>
+      <c r="V150">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 44233-2023 FSC-klagomål.docx", "A 44233-2023")</f>
+        <v/>
+      </c>
+      <c r="W150">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 44233-2023 FSC-klagomål mail.docx", "A 44233-2023")</f>
+        <v/>
+      </c>
+      <c r="X150">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 44233-2023 tillsynsbegäran.docx", "A 44233-2023")</f>
+        <v/>
+      </c>
+      <c r="Y150">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 44233-2023 tillsynsbegäran mail.docx", "A 44233-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 38322-2023</t>
+          <t>A 20819-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45161.73658564815</v>
+        <v>45058</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9707,7 +9727,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>6</v>
+        <v>0.7</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9744,14 +9764,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 40743-2024</t>
+          <t>A 22452-2021</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45558.45</v>
+        <v>44326</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9764,7 +9784,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9801,14 +9821,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 18954-2025</t>
+          <t>A 43752-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45764.51478009259</v>
+        <v>45187</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9821,7 +9841,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>6.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9858,14 +9878,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 771-2023</t>
+          <t>A 18954-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44931</v>
+        <v>45764.51478009259</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9878,7 +9898,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.6</v>
+        <v>6.4</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9915,14 +9935,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 20819-2023</t>
+          <t>A 34217-2022</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45058</v>
+        <v>44791</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9935,7 +9955,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9972,14 +9992,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 11356-2025</t>
+          <t>A 63419-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45726.52880787037</v>
+        <v>45274</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9992,7 +10012,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.1</v>
+        <v>6.4</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10029,14 +10049,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 34354-2023</t>
+          <t>A 37000-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45139</v>
+        <v>45155.26925925926</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10049,7 +10069,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>3.6</v>
+        <v>10.7</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10086,14 +10106,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 37000-2023</t>
+          <t>A 6986-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45155.26925925926</v>
+        <v>45343.48984953704</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10106,7 +10126,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>10.7</v>
+        <v>1.5</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10143,14 +10163,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 6485-2024</t>
+          <t>A 5715-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45339.40619212963</v>
+        <v>45334</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10163,7 +10183,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10200,14 +10220,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 45088-2021</t>
+          <t>A 5454-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44439.391875</v>
+        <v>45692.98011574074</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10220,7 +10240,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10257,14 +10277,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 49617-2023</t>
+          <t>A 19005-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45211</v>
+        <v>45045.60177083333</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10277,7 +10297,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>4.4</v>
+        <v>0.7</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10314,14 +10334,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 23682-2024</t>
+          <t>A 34056-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45454.62754629629</v>
+        <v>45523.6125</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10334,7 +10354,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>4.1</v>
+        <v>2.8</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10371,14 +10391,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 39206-2024</t>
+          <t>A 59915-2024</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45548.81200231481</v>
+        <v>45641.74975694445</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10391,7 +10411,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10428,14 +10448,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 5715-2024</t>
+          <t>A 57877-2022</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45334</v>
+        <v>44899.8749537037</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10448,7 +10468,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10485,14 +10505,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 5617-2024</t>
+          <t>A 13378-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45334.58319444444</v>
+        <v>45005.50077546296</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10505,7 +10525,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10538,38 +10558,18 @@
         <v>0</v>
       </c>
       <c r="R165" s="2" t="inlineStr"/>
-      <c r="U165">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 5617-2024 karta knärot.png", "A 5617-2024")</f>
-        <v/>
-      </c>
-      <c r="V165">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 5617-2024 FSC-klagomål.docx", "A 5617-2024")</f>
-        <v/>
-      </c>
-      <c r="W165">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 5617-2024 FSC-klagomål mail.docx", "A 5617-2024")</f>
-        <v/>
-      </c>
-      <c r="X165">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 5617-2024 tillsynsbegäran.docx", "A 5617-2024")</f>
-        <v/>
-      </c>
-      <c r="Y165">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 5617-2024 tillsynsbegäran mail.docx", "A 5617-2024")</f>
-        <v/>
-      </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 34056-2024</t>
+          <t>A 20898-2021</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45523.6125</v>
+        <v>44319.41962962963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10582,7 +10582,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10619,14 +10619,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 3750-2022</t>
+          <t>A 25925-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44586.71618055556</v>
+        <v>45467.6122337963</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10683,7 +10683,7 @@
         <v>45541</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10733,14 +10733,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 23046-2024</t>
+          <t>A 34155-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45450.4240625</v>
+        <v>45524.3860300926</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>4.2</v>
+        <v>1.9</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10790,14 +10790,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 44233-2023</t>
+          <t>A 18791-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45183</v>
+        <v>45044</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10843,38 +10843,18 @@
         <v>0</v>
       </c>
       <c r="R170" s="2" t="inlineStr"/>
-      <c r="U170">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 44233-2023 karta knärot.png", "A 44233-2023")</f>
-        <v/>
-      </c>
-      <c r="V170">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 44233-2023 FSC-klagomål.docx", "A 44233-2023")</f>
-        <v/>
-      </c>
-      <c r="W170">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 44233-2023 FSC-klagomål mail.docx", "A 44233-2023")</f>
-        <v/>
-      </c>
-      <c r="X170">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 44233-2023 tillsynsbegäran.docx", "A 44233-2023")</f>
-        <v/>
-      </c>
-      <c r="Y170">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 44233-2023 tillsynsbegäran mail.docx", "A 44233-2023")</f>
-        <v/>
-      </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 14547-2022</t>
+          <t>A 42712-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44655</v>
+        <v>45181.61869212963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10887,7 +10867,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>3.8</v>
+        <v>1.2</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10924,14 +10904,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 18791-2023</t>
+          <t>A 71890-2021</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45044</v>
+        <v>44543.78116898148</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10944,7 +10924,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10981,14 +10961,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 28109-2024</t>
+          <t>A 49134-2021</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45476.63284722222</v>
+        <v>44453</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11000,8 +10980,13 @@
           <t>ORUST</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G173" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11038,14 +11023,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 63626-2023</t>
+          <t>A 46708-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45275</v>
+        <v>45198</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11058,7 +11043,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11095,14 +11080,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 32175-2024</t>
+          <t>A 40722-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45511.61238425926</v>
+        <v>45558.44460648148</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11115,7 +11100,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11152,14 +11137,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 34155-2024</t>
+          <t>A 62369-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45524.3860300926</v>
+        <v>45268.30483796296</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11172,7 +11157,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.9</v>
+        <v>5.4</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11209,14 +11194,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 20898-2021</t>
+          <t>A 43228-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44319.41962962963</v>
+        <v>45567.8855787037</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11229,7 +11214,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11266,14 +11251,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 46708-2023</t>
+          <t>A 14547-2022</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45198</v>
+        <v>44655</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11286,7 +11271,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11323,14 +11308,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 62086-2022</t>
+          <t>A 40270-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44919.46138888889</v>
+        <v>45554.64315972223</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11343,7 +11328,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11376,18 +11361,38 @@
         <v>0</v>
       </c>
       <c r="R179" s="2" t="inlineStr"/>
+      <c r="U179">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 40270-2024 karta knärot.png", "A 40270-2024")</f>
+        <v/>
+      </c>
+      <c r="V179">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 40270-2024 FSC-klagomål.docx", "A 40270-2024")</f>
+        <v/>
+      </c>
+      <c r="W179">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 40270-2024 FSC-klagomål mail.docx", "A 40270-2024")</f>
+        <v/>
+      </c>
+      <c r="X179">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 40270-2024 tillsynsbegäran.docx", "A 40270-2024")</f>
+        <v/>
+      </c>
+      <c r="Y179">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 40270-2024 tillsynsbegäran mail.docx", "A 40270-2024")</f>
+        <v/>
+      </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 49134-2021</t>
+          <t>A 11356-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44453</v>
+        <v>45726.52880787037</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11399,13 +11404,8 @@
           <t>ORUST</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G180" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11442,14 +11442,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 57878-2022</t>
+          <t>A 6485-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44899.875625</v>
+        <v>45339.40619212963</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11462,7 +11462,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>4.6</v>
+        <v>0.9</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11499,14 +11499,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 14802-2023</t>
+          <t>A 13377-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45014</v>
+        <v>45005.49668981481</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11556,14 +11556,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 2632-2024</t>
+          <t>A 61302-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45313.97175925926</v>
+        <v>45645.90855324074</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>8.199999999999999</v>
+        <v>2.6</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11613,14 +11613,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 1663-2024</t>
+          <t>A 50562-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45306</v>
+        <v>45601.59825231481</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>6.1</v>
+        <v>0.9</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11670,14 +11670,14 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 33454-2023</t>
+          <t>A 36999-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45130</v>
+        <v>45155.24585648148</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>

--- a/Översikt ORUST.xlsx
+++ b/Översikt ORUST.xlsx
@@ -575,7 +575,7 @@
         <v>44476</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44326.68740740741</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,14 +750,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 49930-2024</t>
+          <t>A 74306-2021</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45597.57973379629</v>
+        <v>44559</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -770,16 +770,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>16.6</v>
+        <v>14.6</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -803,6 +803,282 @@
         <v>4</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Dvärglin
+Kösa
+Åkerrödtoppa
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 74306-2021 artfynd.xlsx", "A 74306-2021")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 74306-2021 karta.png", "A 74306-2021")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 74306-2021 FSC-klagomål.docx", "A 74306-2021")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 74306-2021 FSC-klagomål mail.docx", "A 74306-2021")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 74306-2021 tillsynsbegäran.docx", "A 74306-2021")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 74306-2021 tillsynsbegäran mail.docx", "A 74306-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 14805-2023</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45014</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ORUST</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Grönsångare
+Kambräken
+Purpurmylia</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 14805-2023 artfynd.xlsx", "A 14805-2023")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 14805-2023 karta.png", "A 14805-2023")</f>
+        <v/>
+      </c>
+      <c r="U5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 14805-2023 karta knärot.png", "A 14805-2023")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 14805-2023 FSC-klagomål.docx", "A 14805-2023")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 14805-2023 FSC-klagomål mail.docx", "A 14805-2023")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 14805-2023 tillsynsbegäran.docx", "A 14805-2023")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 14805-2023 tillsynsbegäran mail.docx", "A 14805-2023")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/fåglar/A 14805-2023 prioriterade fågelarter.docx", "A 14805-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 65099-2023</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45288</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ORUST</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Blockskapania
+Knärot
+Grov fjädermossa
+Stor revmossa</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 65099-2023 artfynd.xlsx", "A 65099-2023")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 65099-2023 karta.png", "A 65099-2023")</f>
+        <v/>
+      </c>
+      <c r="U6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 65099-2023 karta knärot.png", "A 65099-2023")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 65099-2023 FSC-klagomål.docx", "A 65099-2023")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 65099-2023 FSC-klagomål mail.docx", "A 65099-2023")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 65099-2023 tillsynsbegäran.docx", "A 65099-2023")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 65099-2023 tillsynsbegäran mail.docx", "A 65099-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 49930-2024</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45597.57973379629</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ORUST</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Motaggsvamp
 Svart trolldruva
@@ -810,304 +1086,28 @@
 Äkta lopplummer</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 49930-2024 artfynd.xlsx", "A 49930-2024")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 49930-2024 karta.png", "A 49930-2024")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 49930-2024 FSC-klagomål.docx", "A 49930-2024")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 49930-2024 FSC-klagomål mail.docx", "A 49930-2024")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 49930-2024 tillsynsbegäran.docx", "A 49930-2024")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 49930-2024 tillsynsbegäran mail.docx", "A 49930-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 14805-2023</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45014</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ORUST</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>4</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Grönsångare
-Kambräken
-Purpurmylia</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 14805-2023 artfynd.xlsx", "A 14805-2023")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 14805-2023 karta.png", "A 14805-2023")</f>
-        <v/>
-      </c>
-      <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 14805-2023 karta knärot.png", "A 14805-2023")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 14805-2023 FSC-klagomål.docx", "A 14805-2023")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 14805-2023 FSC-klagomål mail.docx", "A 14805-2023")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 14805-2023 tillsynsbegäran.docx", "A 14805-2023")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 14805-2023 tillsynsbegäran mail.docx", "A 14805-2023")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/fåglar/A 14805-2023 prioriterade fågelarter.docx", "A 14805-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 74306-2021</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>44559</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ORUST</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>3</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>4</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Dvärglin
-Kösa
-Åkerrödtoppa
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 74306-2021 artfynd.xlsx", "A 74306-2021")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 74306-2021 karta.png", "A 74306-2021")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 74306-2021 FSC-klagomål.docx", "A 74306-2021")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 74306-2021 FSC-klagomål mail.docx", "A 74306-2021")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 74306-2021 tillsynsbegäran.docx", "A 74306-2021")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 74306-2021 tillsynsbegäran mail.docx", "A 74306-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 65099-2023</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45288</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ORUST</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>4</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Blockskapania
-Knärot
-Grov fjädermossa
-Stor revmossa</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 65099-2023 artfynd.xlsx", "A 65099-2023")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 65099-2023 karta.png", "A 65099-2023")</f>
-        <v/>
-      </c>
-      <c r="U7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 65099-2023 karta knärot.png", "A 65099-2023")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 65099-2023 FSC-klagomål.docx", "A 65099-2023")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 65099-2023 FSC-klagomål mail.docx", "A 65099-2023")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 65099-2023 tillsynsbegäran.docx", "A 65099-2023")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 65099-2023 tillsynsbegäran mail.docx", "A 65099-2023")</f>
         <v/>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
         <v>44546</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>44266</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1295,14 +1295,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 23255-2025</t>
+          <t>A 6055-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45791.5346875</v>
+        <v>45336</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1315,13 +1315,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>24.1</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1349,132 +1349,132 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
+          <t>Revlummer
+Äkta lopplummer</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 6055-2024 artfynd.xlsx", "A 6055-2024")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 6055-2024 karta.png", "A 6055-2024")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 6055-2024 FSC-klagomål.docx", "A 6055-2024")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 6055-2024 FSC-klagomål mail.docx", "A 6055-2024")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 6055-2024 tillsynsbegäran.docx", "A 6055-2024")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 6055-2024 tillsynsbegäran mail.docx", "A 6055-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 23255-2025</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45791.5346875</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ORUST</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
           <t>Västlig hakmossa
 Äkta lopplummer</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 23255-2025 artfynd.xlsx", "A 23255-2025")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 23255-2025 karta.png", "A 23255-2025")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 23255-2025 FSC-klagomål.docx", "A 23255-2025")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 23255-2025 FSC-klagomål mail.docx", "A 23255-2025")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 23255-2025 tillsynsbegäran.docx", "A 23255-2025")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 23255-2025 tillsynsbegäran mail.docx", "A 23255-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 6055-2024</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45336</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ORUST</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Revlummer
-Äkta lopplummer</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 6055-2024 artfynd.xlsx", "A 6055-2024")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 6055-2024 karta.png", "A 6055-2024")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 6055-2024 FSC-klagomål.docx", "A 6055-2024")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 6055-2024 FSC-klagomål mail.docx", "A 6055-2024")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 6055-2024 tillsynsbegäran.docx", "A 6055-2024")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 6055-2024 tillsynsbegäran mail.docx", "A 6055-2024")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 13220-2024</t>
+          <t>A 49047-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45386.52466435185</v>
+        <v>45937.63695601852</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1487,19 +1487,19 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1514,56 +1514,52 @@
         <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Granspira</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 13220-2024 artfynd.xlsx", "A 13220-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 49047-2025 artfynd.xlsx", "A 49047-2025")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 13220-2024 karta.png", "A 13220-2024")</f>
-        <v/>
-      </c>
-      <c r="U12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 13220-2024 karta knärot.png", "A 13220-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 49047-2025 karta.png", "A 49047-2025")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 13220-2024 FSC-klagomål.docx", "A 13220-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 49047-2025 FSC-klagomål.docx", "A 49047-2025")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 13220-2024 FSC-klagomål mail.docx", "A 13220-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 49047-2025 FSC-klagomål mail.docx", "A 49047-2025")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 13220-2024 tillsynsbegäran.docx", "A 13220-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 49047-2025 tillsynsbegäran.docx", "A 49047-2025")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 13220-2024 tillsynsbegäran mail.docx", "A 13220-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 49047-2025 tillsynsbegäran mail.docx", "A 49047-2025")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 46272-2024</t>
+          <t>A 56035-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45581</v>
+        <v>45973</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1576,20 +1572,20 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.8</v>
+        <v>15.9</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>1</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
@@ -1600,55 +1596,59 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 46272-2024 artfynd.xlsx", "A 46272-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 56035-2025 artfynd.xlsx", "A 56035-2025")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 46272-2024 karta.png", "A 46272-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 56035-2025 karta.png", "A 56035-2025")</f>
+        <v/>
+      </c>
+      <c r="U13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 56035-2025 karta knärot.png", "A 56035-2025")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 46272-2024 FSC-klagomål.docx", "A 46272-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 56035-2025 FSC-klagomål.docx", "A 56035-2025")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 46272-2024 FSC-klagomål mail.docx", "A 46272-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 56035-2025 FSC-klagomål mail.docx", "A 56035-2025")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 46272-2024 tillsynsbegäran.docx", "A 46272-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 56035-2025 tillsynsbegäran.docx", "A 56035-2025")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 46272-2024 tillsynsbegäran mail.docx", "A 46272-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 56035-2025 tillsynsbegäran mail.docx", "A 56035-2025")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 49047-2025</t>
+          <t>A 13220-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45937.63695601852</v>
+        <v>45386.52466435185</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1661,19 +1661,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1688,52 +1688,56 @@
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Granspira</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 49047-2025 artfynd.xlsx", "A 49047-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 13220-2024 artfynd.xlsx", "A 13220-2024")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 49047-2025 karta.png", "A 49047-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 13220-2024 karta.png", "A 13220-2024")</f>
+        <v/>
+      </c>
+      <c r="U14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 13220-2024 karta knärot.png", "A 13220-2024")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 49047-2025 FSC-klagomål.docx", "A 49047-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 13220-2024 FSC-klagomål.docx", "A 13220-2024")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 49047-2025 FSC-klagomål mail.docx", "A 49047-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 13220-2024 FSC-klagomål mail.docx", "A 13220-2024")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 49047-2025 tillsynsbegäran.docx", "A 49047-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 13220-2024 tillsynsbegäran.docx", "A 13220-2024")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 49047-2025 tillsynsbegäran mail.docx", "A 49047-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 13220-2024 tillsynsbegäran mail.docx", "A 13220-2024")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 24618-2024</t>
+          <t>A 41056-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45460</v>
+        <v>45898</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1746,13 +1750,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>9.5</v>
+        <v>3.3</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1780,45 +1784,45 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 24618-2024 artfynd.xlsx", "A 24618-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 41056-2025 artfynd.xlsx", "A 41056-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 24618-2024 karta.png", "A 24618-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 41056-2025 karta.png", "A 41056-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 24618-2024 FSC-klagomål.docx", "A 24618-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 41056-2025 FSC-klagomål.docx", "A 41056-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 24618-2024 FSC-klagomål mail.docx", "A 24618-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 41056-2025 FSC-klagomål mail.docx", "A 41056-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 24618-2024 tillsynsbegäran.docx", "A 24618-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 41056-2025 tillsynsbegäran.docx", "A 41056-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 24618-2024 tillsynsbegäran mail.docx", "A 24618-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 41056-2025 tillsynsbegäran mail.docx", "A 41056-2025")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 5634-2025</t>
+          <t>A 24618-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45693.6689699074</v>
+        <v>45460</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1831,7 +1835,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.1</v>
+        <v>9.5</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1843,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1855,59 +1859,55 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 5634-2025 artfynd.xlsx", "A 5634-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 24618-2024 artfynd.xlsx", "A 24618-2024")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 5634-2025 karta.png", "A 5634-2025")</f>
-        <v/>
-      </c>
-      <c r="U16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 5634-2025 karta knärot.png", "A 5634-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 24618-2024 karta.png", "A 24618-2024")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 5634-2025 FSC-klagomål.docx", "A 5634-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 24618-2024 FSC-klagomål.docx", "A 24618-2024")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 5634-2025 FSC-klagomål mail.docx", "A 5634-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 24618-2024 FSC-klagomål mail.docx", "A 24618-2024")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 5634-2025 tillsynsbegäran.docx", "A 5634-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 24618-2024 tillsynsbegäran.docx", "A 24618-2024")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 5634-2025 tillsynsbegäran mail.docx", "A 5634-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 24618-2024 tillsynsbegäran mail.docx", "A 24618-2024")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 56035-2025</t>
+          <t>A 20709-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45973</v>
+        <v>45058</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>15.9</v>
+        <v>4.3</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1958,45 +1958,45 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 56035-2025 artfynd.xlsx", "A 56035-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 20709-2023 artfynd.xlsx", "A 20709-2023")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 56035-2025 karta.png", "A 56035-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 20709-2023 karta.png", "A 20709-2023")</f>
         <v/>
       </c>
       <c r="U17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 56035-2025 karta knärot.png", "A 56035-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 20709-2023 karta knärot.png", "A 20709-2023")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 56035-2025 FSC-klagomål.docx", "A 56035-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 20709-2023 FSC-klagomål.docx", "A 20709-2023")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 56035-2025 FSC-klagomål mail.docx", "A 56035-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 20709-2023 FSC-klagomål mail.docx", "A 20709-2023")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 56035-2025 tillsynsbegäran.docx", "A 56035-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 20709-2023 tillsynsbegäran.docx", "A 20709-2023")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 56035-2025 tillsynsbegäran mail.docx", "A 56035-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 20709-2023 tillsynsbegäran mail.docx", "A 20709-2023")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 41056-2025</t>
+          <t>A 5634-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45898</v>
+        <v>45693.6689699074</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2009,20 +2009,20 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>1</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
@@ -2033,41 +2033,45 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 41056-2025 artfynd.xlsx", "A 41056-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 5634-2025 artfynd.xlsx", "A 5634-2025")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 41056-2025 karta.png", "A 41056-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 5634-2025 karta.png", "A 5634-2025")</f>
+        <v/>
+      </c>
+      <c r="U18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 5634-2025 karta knärot.png", "A 5634-2025")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 41056-2025 FSC-klagomål.docx", "A 41056-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 5634-2025 FSC-klagomål.docx", "A 5634-2025")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 41056-2025 FSC-klagomål mail.docx", "A 41056-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 5634-2025 FSC-klagomål mail.docx", "A 5634-2025")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 41056-2025 tillsynsbegäran.docx", "A 41056-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 5634-2025 tillsynsbegäran.docx", "A 5634-2025")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 41056-2025 tillsynsbegäran mail.docx", "A 41056-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 5634-2025 tillsynsbegäran mail.docx", "A 5634-2025")</f>
         <v/>
       </c>
     </row>
@@ -2081,7 +2085,7 @@
         <v>45054</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2163,14 +2167,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 20709-2023</t>
+          <t>A 46272-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45058</v>
+        <v>45581</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2183,19 +2187,19 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4.3</v>
+        <v>2.8</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>1</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -2207,45 +2211,41 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 20709-2023 artfynd.xlsx", "A 20709-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/artfynd/A 46272-2024 artfynd.xlsx", "A 46272-2024")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 20709-2023 karta.png", "A 20709-2023")</f>
-        <v/>
-      </c>
-      <c r="U20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 20709-2023 karta knärot.png", "A 20709-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/kartor/A 46272-2024 karta.png", "A 46272-2024")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 20709-2023 FSC-klagomål.docx", "A 20709-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 46272-2024 FSC-klagomål.docx", "A 46272-2024")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 20709-2023 FSC-klagomål mail.docx", "A 20709-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 46272-2024 FSC-klagomål mail.docx", "A 46272-2024")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 20709-2023 tillsynsbegäran.docx", "A 20709-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 46272-2024 tillsynsbegäran.docx", "A 46272-2024")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 20709-2023 tillsynsbegäran mail.docx", "A 20709-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 46272-2024 tillsynsbegäran mail.docx", "A 46272-2024")</f>
         <v/>
       </c>
     </row>
@@ -2259,7 +2259,7 @@
         <v>44790</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>44250</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>44445</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>44827</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>44448</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>44448</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>44529</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>44566.74335648148</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>44386</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>44439</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>44888.63157407408</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>44505.79013888889</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>44657</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>44480</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>44610</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>44550</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>44694.73462962963</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>44694</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>44448</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>44448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>44441</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>44448</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>44872.93511574074</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         <v>44326</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>44531.34472222222</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3677,14 +3677,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 34380-2022</t>
+          <t>A 62369-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44792</v>
+        <v>45268.30483796296</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.4</v>
+        <v>5.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3734,14 +3734,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 47630-2025</t>
+          <t>A 14609-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45931.48855324074</v>
+        <v>45396.86570601852</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3791,14 +3791,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 5152-2025</t>
+          <t>A 34217-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45691.6000462963</v>
+        <v>44791</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3848,14 +3848,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 49134-2021</t>
+          <t>A 57877-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44453</v>
+        <v>44899.8749537037</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3867,13 +3867,8 @@
           <t>ORUST</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3910,14 +3905,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 14609-2024</t>
+          <t>A 22750-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45396.86570601852</v>
+        <v>45448.41990740741</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3930,7 +3925,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3967,14 +3962,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 59309-2023</t>
+          <t>A 36999-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45253.606875</v>
+        <v>45155.24585648148</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3987,7 +3982,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4024,14 +4019,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 1288-2025</t>
+          <t>A 69193-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45667.50971064815</v>
+        <v>44531</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4044,7 +4039,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4081,14 +4076,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 46119-2025</t>
+          <t>A 19005-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45924</v>
+        <v>45045.60177083333</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4101,7 +4096,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>8.9</v>
+        <v>0.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4138,14 +4133,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 46121-2025</t>
+          <t>A 59309-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45924</v>
+        <v>45253.606875</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4158,7 +4153,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>8.5</v>
+        <v>2.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4195,14 +4190,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 48419-2025</t>
+          <t>A 55777-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45934.58502314815</v>
+        <v>44888.61921296296</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4215,7 +4210,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>7.7</v>
+        <v>2.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4252,14 +4247,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 49365-2025</t>
+          <t>A 63419-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45938.62341435185</v>
+        <v>45274</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4272,7 +4267,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.5</v>
+        <v>6.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4309,14 +4304,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 39219-2025</t>
+          <t>A 43752-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45888</v>
+        <v>45187</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4329,7 +4324,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.2</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4366,14 +4361,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 39206-2024</t>
+          <t>A 30440-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45548.81200231481</v>
+        <v>45491.81488425926</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4386,7 +4381,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4423,14 +4418,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 69193-2021</t>
+          <t>A 49115-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44531</v>
+        <v>45594.65954861111</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4443,7 +4438,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4480,14 +4475,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 24179-2025</t>
+          <t>A 54279-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45796.72856481482</v>
+        <v>45616.855</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4500,7 +4495,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>6.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4537,14 +4532,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 13243-2023</t>
+          <t>A 49134-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45002</v>
+        <v>44453</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4556,8 +4551,13 @@
           <t>ORUST</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>4.8</v>
+        <v>1.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4594,14 +4594,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 40442-2025</t>
+          <t>A 39219-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45895</v>
+        <v>45888</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4651,14 +4651,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 40328-2025</t>
+          <t>A 24179-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45895</v>
+        <v>45796.72856481482</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.7</v>
+        <v>2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4708,14 +4708,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 40338-2025</t>
+          <t>A 71890-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45895</v>
+        <v>44543.78116898148</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4765,14 +4765,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 22959-2025</t>
+          <t>A 6957-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45790</v>
+        <v>45343.45112268518</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4822,14 +4822,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 45088-2021</t>
+          <t>A 40338-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44439.391875</v>
+        <v>45895</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4879,14 +4879,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 41063-2025</t>
+          <t>A 51993-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45898</v>
+        <v>44872</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4936,14 +4936,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 40681-2025</t>
+          <t>A 40270-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45896.85623842593</v>
+        <v>45554.64315972223</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4956,7 +4956,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4989,18 +4989,38 @@
         <v>0</v>
       </c>
       <c r="R68" s="2" t="inlineStr"/>
+      <c r="U68">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 40270-2024 karta knärot.png", "A 40270-2024")</f>
+        <v/>
+      </c>
+      <c r="V68">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 40270-2024 FSC-klagomål.docx", "A 40270-2024")</f>
+        <v/>
+      </c>
+      <c r="W68">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 40270-2024 FSC-klagomål mail.docx", "A 40270-2024")</f>
+        <v/>
+      </c>
+      <c r="X68">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 40270-2024 tillsynsbegäran.docx", "A 40270-2024")</f>
+        <v/>
+      </c>
+      <c r="Y68">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 40270-2024 tillsynsbegäran mail.docx", "A 40270-2024")</f>
+        <v/>
+      </c>
     </row>
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 9937-2025</t>
+          <t>A 40328-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45718.64129629629</v>
+        <v>45895</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5013,7 +5033,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.3</v>
+        <v>3.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5050,14 +5070,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 23258-2025</t>
+          <t>A 40442-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45791.53902777778</v>
+        <v>45895</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5070,7 +5090,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5107,14 +5127,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 47884-2024</t>
+          <t>A 13378-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45588.81101851852</v>
+        <v>45005.50077546296</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5127,7 +5147,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5164,14 +5184,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 41688-2025</t>
+          <t>A 40681-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45902.39888888889</v>
+        <v>45896.85623842593</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5184,7 +5204,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5221,14 +5241,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 13521-2025</t>
+          <t>A 31617-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45736.48755787037</v>
+        <v>45833</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5241,7 +5261,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5278,14 +5298,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 13536-2025</t>
+          <t>A 25925-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45736.51413194444</v>
+        <v>45467.6122337963</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5298,7 +5318,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.1</v>
+        <v>1.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5335,14 +5355,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 14760-2025</t>
+          <t>A 41063-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45742</v>
+        <v>45898</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5355,7 +5375,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>4</v>
+        <v>0.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5392,14 +5412,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 23682-2024</t>
+          <t>A 47884-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45454.62754629629</v>
+        <v>45588.81101851852</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5412,7 +5432,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4.1</v>
+        <v>0.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5449,14 +5469,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 49072-2025</t>
+          <t>A 41881-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45937.65501157408</v>
+        <v>45903.36444444444</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5469,7 +5489,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5506,14 +5526,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 23259-2025</t>
+          <t>A 42069-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45791.53978009259</v>
+        <v>45903.65700231482</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5526,7 +5546,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5563,14 +5583,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 23254-2025</t>
+          <t>A 41688-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45791.5340162037</v>
+        <v>45902.39888888889</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5583,7 +5603,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5620,14 +5640,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 41881-2025</t>
+          <t>A 42457-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45903.36444444444</v>
+        <v>45905.45289351852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5640,7 +5660,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5677,14 +5697,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 34046-2024</t>
+          <t>A 33300-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45523.60449074074</v>
+        <v>45840.93423611111</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5697,7 +5717,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4.2</v>
+        <v>6.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5734,14 +5754,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 42069-2025</t>
+          <t>A 33295-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45903.65700231482</v>
+        <v>45840.92070601852</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5754,7 +5774,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5791,14 +5811,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 22750-2024</t>
+          <t>A 33296-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45448.41990740741</v>
+        <v>45840.92538194444</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5848,14 +5868,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 42457-2025</t>
+          <t>A 33299-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45905.45289351852</v>
+        <v>45840.93229166666</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5868,7 +5888,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5905,14 +5925,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 28109-2024</t>
+          <t>A 22452-2021</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45476.63284722222</v>
+        <v>44326</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5925,7 +5945,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5962,14 +5982,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 5714-2024</t>
+          <t>A 34502-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45334.87804398148</v>
+        <v>45847.43163194445</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5982,7 +6002,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6019,14 +6039,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 24321-2025</t>
+          <t>A 34500-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45797</v>
+        <v>45847.43075231482</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6039,7 +6059,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.6</v>
+        <v>7.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6076,14 +6096,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 55777-2022</t>
+          <t>A 43228-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44888.61921296296</v>
+        <v>45567.8855787037</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6096,7 +6116,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6133,14 +6153,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 54128-2025</t>
+          <t>A 62516-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45964.45993055555</v>
+        <v>44924.61912037037</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6153,7 +6173,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>5.6</v>
+        <v>0.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6190,14 +6210,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 49822-2022</t>
+          <t>A 36722-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44862</v>
+        <v>45872</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6210,7 +6230,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6247,14 +6267,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 57878-2022</t>
+          <t>A 36695-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44899.875625</v>
+        <v>45872</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6267,7 +6287,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4.6</v>
+        <v>2.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6304,14 +6324,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 49115-2024</t>
+          <t>A 36719-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45594.65954861111</v>
+        <v>45872</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6324,7 +6344,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6361,14 +6381,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 3750-2022</t>
+          <t>A 47405-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44586.71618055556</v>
+        <v>45930.61258101852</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6381,7 +6401,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6418,14 +6438,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 44417-2024</t>
+          <t>A 47630-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45573.8249537037</v>
+        <v>45931.48855324074</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6438,7 +6458,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6475,14 +6495,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 44754-2024</t>
+          <t>A 5926-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45574.61065972222</v>
+        <v>45336</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6495,7 +6515,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6532,14 +6552,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 30440-2024</t>
+          <t>A 47404-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45491.81488425926</v>
+        <v>45930.61149305556</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6552,7 +6572,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6589,14 +6609,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 27277-2025</t>
+          <t>A 6986-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45812.52674768519</v>
+        <v>45343.48984953704</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6609,7 +6629,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6646,14 +6666,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 62516-2022</t>
+          <t>A 50532-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44924.61912037037</v>
+        <v>45601.56552083333</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6666,7 +6686,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6703,14 +6723,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 27555-2025</t>
+          <t>A 46121-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45813.47424768518</v>
+        <v>45924</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6723,7 +6743,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.6</v>
+        <v>8.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6760,14 +6780,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 47405-2025</t>
+          <t>A 48419-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45930.61258101852</v>
+        <v>45934.58502314815</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6780,7 +6800,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.1</v>
+        <v>7.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6817,14 +6837,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 54279-2024</t>
+          <t>A 46119-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45616.855</v>
+        <v>45924</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6837,7 +6857,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>6.9</v>
+        <v>8.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6874,14 +6894,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 47404-2025</t>
+          <t>A 49072-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45930.61149305556</v>
+        <v>45937.65501157408</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6894,7 +6914,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6931,14 +6951,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 40743-2024</t>
+          <t>A 20089-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45558.45</v>
+        <v>45771</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6951,7 +6971,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6988,14 +7008,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 56654-2025</t>
+          <t>A 1288-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45975.64869212963</v>
+        <v>45667.50971064815</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7008,7 +7028,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7045,14 +7065,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 49617-2023</t>
+          <t>A 61302-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45211</v>
+        <v>45645.90855324074</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7065,7 +7085,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>4.4</v>
+        <v>2.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7102,14 +7122,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 31617-2025</t>
+          <t>A 49365-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45833</v>
+        <v>45938.62341435185</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7122,7 +7142,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7159,14 +7179,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 20131-2025</t>
+          <t>A 5714-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45772.50918981482</v>
+        <v>45334.87804398148</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7179,7 +7199,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7216,14 +7236,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 51993-2022</t>
+          <t>A 34380-2022</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44872</v>
+        <v>44792</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7236,7 +7256,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7273,14 +7293,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 33300-2025</t>
+          <t>A 13377-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45840.93423611111</v>
+        <v>45005.49668981481</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7293,7 +7313,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>6.4</v>
+        <v>2.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7330,14 +7350,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 58852-2025</t>
+          <t>A 37130-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45987.40355324074</v>
+        <v>45539.57060185185</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7350,7 +7370,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4.9</v>
+        <v>1.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7387,14 +7407,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 33295-2025</t>
+          <t>A 59915-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45840.92070601852</v>
+        <v>45641.74975694445</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7407,7 +7427,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7444,14 +7464,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 33296-2025</t>
+          <t>A 5152-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45840.92538194444</v>
+        <v>45691.6000462963</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7464,7 +7484,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7501,14 +7521,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 33299-2025</t>
+          <t>A 42712-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45840.93229166666</v>
+        <v>45181.61869212963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7521,7 +7541,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7558,14 +7578,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 771-2023</t>
+          <t>A 54128-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44931</v>
+        <v>45964.45993055555</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7578,7 +7598,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.6</v>
+        <v>5.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7615,14 +7635,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 58853-2025</t>
+          <t>A 50562-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45987.40476851852</v>
+        <v>45601.59825231481</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7635,7 +7655,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7672,14 +7692,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 59834-2025</t>
+          <t>A 20131-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45992.66811342593</v>
+        <v>45772.50918981482</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7692,7 +7712,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7729,14 +7749,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 34500-2025</t>
+          <t>A 5454-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45847.43075231482</v>
+        <v>45692.98011574074</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7749,7 +7769,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>7.4</v>
+        <v>2.7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7786,14 +7806,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 34502-2025</t>
+          <t>A 2213-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45847.43163194445</v>
+        <v>45673.4359837963</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7806,7 +7826,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7843,14 +7863,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 34354-2023</t>
+          <t>A 56654-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45139</v>
+        <v>45975.64869212963</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7863,7 +7883,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7900,14 +7920,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 33454-2023</t>
+          <t>A 40722-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45130</v>
+        <v>45558.44460648148</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7920,7 +7940,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7957,14 +7977,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 2213-2025</t>
+          <t>A 36404-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45673.4359837963</v>
+        <v>45535.70535879629</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7977,7 +7997,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8014,14 +8034,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 38322-2023</t>
+          <t>A 58853-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45161.73658564815</v>
+        <v>45987.40476851852</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8034,7 +8054,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8071,14 +8091,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 36695-2025</t>
+          <t>A 58852-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45872</v>
+        <v>45987.40355324074</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8091,7 +8111,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.2</v>
+        <v>4.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8128,14 +8148,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 36722-2025</t>
+          <t>A 57445-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45872</v>
+        <v>45629.92240740741</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8148,7 +8168,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8185,14 +8205,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 36719-2025</t>
+          <t>A 59834-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45872</v>
+        <v>45992.66811342593</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8205,7 +8225,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8242,14 +8262,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 2435-2026</t>
+          <t>A 2436-2026</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>46036.90065972223</v>
+        <v>46036.90234953703</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8262,7 +8282,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8299,14 +8319,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 2436-2026</t>
+          <t>A 49822-2022</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>46036.90234953703</v>
+        <v>44862</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8319,7 +8339,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8356,14 +8376,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 50532-2024</t>
+          <t>A 2435-2026</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45601.56552083333</v>
+        <v>46036.90065972223</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8376,7 +8396,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8413,14 +8433,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 57445-2024</t>
+          <t>A 61319-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45629.92240740741</v>
+        <v>46000.94983796297</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8433,7 +8453,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8470,14 +8490,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 61319-2025</t>
+          <t>A 61320-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>46000.94983796297</v>
+        <v>46000.95591435185</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8490,7 +8510,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8527,14 +8547,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 61320-2025</t>
+          <t>A 4114-2026</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>46000.95591435185</v>
+        <v>46044.60348379629</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8547,7 +8567,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>7.1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8584,14 +8604,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 4114-2026</t>
+          <t>A 38322-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>46044.60348379629</v>
+        <v>45161.73658564815</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8604,7 +8624,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>7.1</v>
+        <v>6</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8641,14 +8661,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 14802-2023</t>
+          <t>A 40743-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45014</v>
+        <v>45558.45</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8661,7 +8681,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8698,14 +8718,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 36404-2024</t>
+          <t>A 18954-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45535.70535879629</v>
+        <v>45764.51478009259</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8718,7 +8738,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>4</v>
+        <v>6.4</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8755,14 +8775,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 6739-2026</t>
+          <t>A 771-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>46056.69936342593</v>
+        <v>44931</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8775,7 +8795,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8812,14 +8832,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 20089-2025</t>
+          <t>A 6739-2026</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45771</v>
+        <v>46056.69936342593</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8832,7 +8852,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8869,14 +8889,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 8457-2026</t>
+          <t>A 20819-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>46065.42722222222</v>
+        <v>45058</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8889,7 +8909,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8926,14 +8946,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 62086-2022</t>
+          <t>A 11356-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44919.46138888889</v>
+        <v>45726.52880787037</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8946,7 +8966,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8983,14 +9003,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 9194-2026</t>
+          <t>A 34354-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>46070.39208333333</v>
+        <v>45139</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9003,7 +9023,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9040,14 +9060,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 9344-2026</t>
+          <t>A 8457-2026</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>46070.68266203703</v>
+        <v>46065.42722222222</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9060,7 +9080,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>5.3</v>
+        <v>1.9</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9097,14 +9117,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 6957-2024</t>
+          <t>A 37000-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45343.45112268518</v>
+        <v>45155.26925925926</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9117,7 +9137,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>3.4</v>
+        <v>10.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9154,14 +9174,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 2632-2024</t>
+          <t>A 6485-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45313.97175925926</v>
+        <v>45339.40619212963</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9174,7 +9194,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>8.199999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9211,14 +9231,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 1663-2024</t>
+          <t>A 9194-2026</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45306</v>
+        <v>46070.39208333333</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9231,7 +9251,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>6.1</v>
+        <v>2.3</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9268,14 +9288,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 32175-2024</t>
+          <t>A 45088-2021</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45511.61238425926</v>
+        <v>44439.391875</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9288,7 +9308,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.3</v>
+        <v>1.8</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9325,14 +9345,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 63626-2023</t>
+          <t>A 9344-2026</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45275</v>
+        <v>46070.68266203703</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9345,7 +9365,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.4</v>
+        <v>5.3</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9382,14 +9402,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 37130-2024</t>
+          <t>A 49617-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45539.57060185185</v>
+        <v>45211</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9402,7 +9422,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.1</v>
+        <v>4.4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9439,14 +9459,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 23046-2024</t>
+          <t>A 23682-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45450.4240625</v>
+        <v>45454.62754629629</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9459,7 +9479,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9496,14 +9516,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 5617-2024</t>
+          <t>A 39206-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45334.58319444444</v>
+        <v>45548.81200231481</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9516,7 +9536,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9549,38 +9569,18 @@
         <v>0</v>
       </c>
       <c r="R148" s="2" t="inlineStr"/>
-      <c r="U148">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 5617-2024 karta knärot.png", "A 5617-2024")</f>
-        <v/>
-      </c>
-      <c r="V148">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 5617-2024 FSC-klagomål.docx", "A 5617-2024")</f>
-        <v/>
-      </c>
-      <c r="W148">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 5617-2024 FSC-klagomål mail.docx", "A 5617-2024")</f>
-        <v/>
-      </c>
-      <c r="X148">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 5617-2024 tillsynsbegäran.docx", "A 5617-2024")</f>
-        <v/>
-      </c>
-      <c r="Y148">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 5617-2024 tillsynsbegäran mail.docx", "A 5617-2024")</f>
-        <v/>
-      </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 5926-2024</t>
+          <t>A 5715-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45336</v>
+        <v>45334</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9630,14 +9630,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 44233-2023</t>
+          <t>A 5617-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45183</v>
+        <v>45334.58319444444</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9650,7 +9650,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9684,37 +9684,37 @@
       </c>
       <c r="R150" s="2" t="inlineStr"/>
       <c r="U150">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 44233-2023 karta knärot.png", "A 44233-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 5617-2024 karta knärot.png", "A 5617-2024")</f>
         <v/>
       </c>
       <c r="V150">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 44233-2023 FSC-klagomål.docx", "A 44233-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 5617-2024 FSC-klagomål.docx", "A 5617-2024")</f>
         <v/>
       </c>
       <c r="W150">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 44233-2023 FSC-klagomål mail.docx", "A 44233-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 5617-2024 FSC-klagomål mail.docx", "A 5617-2024")</f>
         <v/>
       </c>
       <c r="X150">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 44233-2023 tillsynsbegäran.docx", "A 44233-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 5617-2024 tillsynsbegäran.docx", "A 5617-2024")</f>
         <v/>
       </c>
       <c r="Y150">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 44233-2023 tillsynsbegäran mail.docx", "A 44233-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 5617-2024 tillsynsbegäran mail.docx", "A 5617-2024")</f>
         <v/>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 20819-2023</t>
+          <t>A 34056-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45058</v>
+        <v>45523.6125</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9764,14 +9764,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 22452-2021</t>
+          <t>A 3750-2022</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44326</v>
+        <v>44586.71618055556</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9821,14 +9821,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 43752-2023</t>
+          <t>A 37522-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45187</v>
+        <v>45541</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>9.300000000000001</v>
+        <v>10.2</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9878,14 +9878,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 18954-2025</t>
+          <t>A 23046-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45764.51478009259</v>
+        <v>45450.4240625</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9898,7 +9898,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>6.4</v>
+        <v>4.2</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9935,14 +9935,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 34217-2022</t>
+          <t>A 44233-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44791</v>
+        <v>45183</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9988,18 +9988,38 @@
         <v>0</v>
       </c>
       <c r="R155" s="2" t="inlineStr"/>
+      <c r="U155">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 44233-2023 karta knärot.png", "A 44233-2023")</f>
+        <v/>
+      </c>
+      <c r="V155">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 44233-2023 FSC-klagomål.docx", "A 44233-2023")</f>
+        <v/>
+      </c>
+      <c r="W155">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 44233-2023 FSC-klagomål mail.docx", "A 44233-2023")</f>
+        <v/>
+      </c>
+      <c r="X155">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 44233-2023 tillsynsbegäran.docx", "A 44233-2023")</f>
+        <v/>
+      </c>
+      <c r="Y155">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 44233-2023 tillsynsbegäran mail.docx", "A 44233-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 63419-2023</t>
+          <t>A 14547-2022</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45274</v>
+        <v>44655</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10012,7 +10032,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>6.4</v>
+        <v>3.8</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10049,14 +10069,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 37000-2023</t>
+          <t>A 18791-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45155.26925925926</v>
+        <v>45044</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10069,7 +10089,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>10.7</v>
+        <v>2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10106,14 +10126,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 6986-2024</t>
+          <t>A 28109-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45343.48984953704</v>
+        <v>45476.63284722222</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10126,7 +10146,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10163,14 +10183,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 5715-2024</t>
+          <t>A 63626-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45334</v>
+        <v>45275</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10183,7 +10203,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10220,14 +10240,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 5454-2025</t>
+          <t>A 32175-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45692.98011574074</v>
+        <v>45511.61238425926</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10240,7 +10260,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.7</v>
+        <v>0.3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10277,14 +10297,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 19005-2023</t>
+          <t>A 34155-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45045.60177083333</v>
+        <v>45524.3860300926</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10297,7 +10317,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10334,14 +10354,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 34056-2024</t>
+          <t>A 20898-2021</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45523.6125</v>
+        <v>44319.41962962963</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10354,7 +10374,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10391,14 +10411,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 59915-2024</t>
+          <t>A 46708-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45641.74975694445</v>
+        <v>45198</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10411,7 +10431,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10448,14 +10468,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 57877-2022</t>
+          <t>A 62086-2022</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44899.8749537037</v>
+        <v>44919.46138888889</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10468,7 +10488,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10505,14 +10525,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 13378-2023</t>
+          <t>A 49134-2021</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45005.50077546296</v>
+        <v>44453</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10524,8 +10544,13 @@
           <t>ORUST</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G165" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10562,14 +10587,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 20898-2021</t>
+          <t>A 57878-2022</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44319.41962962963</v>
+        <v>44899.875625</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10582,7 +10607,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.5</v>
+        <v>4.6</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10619,14 +10644,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 25925-2024</t>
+          <t>A 14802-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45467.6122337963</v>
+        <v>45014</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10639,7 +10664,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10676,14 +10701,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 37522-2024</t>
+          <t>A 2632-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45541</v>
+        <v>45313.97175925926</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10696,7 +10721,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>10.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10733,14 +10758,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 34155-2024</t>
+          <t>A 1663-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45524.3860300926</v>
+        <v>45306</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10753,7 +10778,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.9</v>
+        <v>6.1</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10790,14 +10815,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 18791-2023</t>
+          <t>A 33454-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45044</v>
+        <v>45130</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10810,7 +10835,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10847,14 +10872,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 42712-2023</t>
+          <t>A 13243-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45181.61869212963</v>
+        <v>45002</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10867,7 +10892,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.2</v>
+        <v>4.8</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10904,14 +10929,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 71890-2021</t>
+          <t>A 22959-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44543.78116898148</v>
+        <v>45790</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10924,7 +10949,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10961,14 +10986,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 49134-2021</t>
+          <t>A 23258-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44453</v>
+        <v>45791.53902777778</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10980,13 +11005,8 @@
           <t>ORUST</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G173" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11023,14 +11043,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 46708-2023</t>
+          <t>A 23254-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45198</v>
+        <v>45791.5340162037</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11043,7 +11063,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11080,14 +11100,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 40722-2024</t>
+          <t>A 14760-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45558.44460648148</v>
+        <v>45742</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11100,7 +11120,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11137,14 +11157,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 62369-2023</t>
+          <t>A 9937-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45268.30483796296</v>
+        <v>45718.64129629629</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11157,7 +11177,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>5.4</v>
+        <v>2.3</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11194,14 +11214,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 43228-2024</t>
+          <t>A 23259-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45567.8855787037</v>
+        <v>45791.53978009259</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11214,7 +11234,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11251,14 +11271,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 14547-2022</t>
+          <t>A 13521-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44655</v>
+        <v>45736.48755787037</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11271,7 +11291,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>3.8</v>
+        <v>0.5</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11308,14 +11328,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 40270-2024</t>
+          <t>A 13536-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45554.64315972223</v>
+        <v>45736.51413194444</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11328,7 +11348,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11361,38 +11381,18 @@
         <v>0</v>
       </c>
       <c r="R179" s="2" t="inlineStr"/>
-      <c r="U179">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/knärot/A 40270-2024 karta knärot.png", "A 40270-2024")</f>
-        <v/>
-      </c>
-      <c r="V179">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomål/A 40270-2024 FSC-klagomål.docx", "A 40270-2024")</f>
-        <v/>
-      </c>
-      <c r="W179">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/klagomålsmail/A 40270-2024 FSC-klagomål mail.docx", "A 40270-2024")</f>
-        <v/>
-      </c>
-      <c r="X179">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsyn/A 40270-2024 tillsynsbegäran.docx", "A 40270-2024")</f>
-        <v/>
-      </c>
-      <c r="Y179">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1421/tillsynsmail/A 40270-2024 tillsynsbegäran mail.docx", "A 40270-2024")</f>
-        <v/>
-      </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 11356-2025</t>
+          <t>A 24321-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45726.52880787037</v>
+        <v>45797</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11442,14 +11442,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 6485-2024</t>
+          <t>A 34046-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45339.40619212963</v>
+        <v>45523.60449074074</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11462,7 +11462,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.9</v>
+        <v>4.2</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11499,14 +11499,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 13377-2023</t>
+          <t>A 44754-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45005.49668981481</v>
+        <v>45574.61065972222</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11556,14 +11556,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 61302-2024</t>
+          <t>A 44417-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45645.90855324074</v>
+        <v>45573.8249537037</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11613,14 +11613,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 50562-2024</t>
+          <t>A 27277-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45601.59825231481</v>
+        <v>45812.52674768519</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11670,14 +11670,14 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 36999-2023</t>
+          <t>A 27555-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45155.24585648148</v>
+        <v>45813.47424768518</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>

--- a/Översikt ORUST.xlsx
+++ b/Översikt ORUST.xlsx
@@ -575,7 +575,7 @@
         <v>44476</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44326.68740740741</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>44559</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>45014</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>45288</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>45597.57973379629</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44546</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>44266</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>45336</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>45791.5346875</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>45937.63695601852</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>45973</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>45386.52466435185</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>45898</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>45460</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>45058</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>45693.6689699074</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>45054</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>45581</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>44790</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>44250</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>44445</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>44827</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>44448</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>44448</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>44529</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>44566.74335648148</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>44386</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>44439</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>44888.63157407408</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>44505.79013888889</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>44657</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>44480</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>44610</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>44550</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>44694.73462962963</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>44694</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>44448</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>44448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>44441</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>44448</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>44872.93511574074</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         <v>44326</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>44531.34472222222</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         <v>45268.30483796296</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         <v>45396.86570601852</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>44791</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>44899.8749537037</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>45448.41990740741</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3969,7 +3969,7 @@
         <v>45155.24585648148</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         <v>44531</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>45045.60177083333</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>45253.606875</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4197,7 +4197,7 @@
         <v>44888.61921296296</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4254,7 +4254,7 @@
         <v>45274</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>45187</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>45491.81488425926</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>45594.65954861111</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>45616.855</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>44453</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>45888</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>45796.72856481482</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>44543.78116898148</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>45343.45112268518</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>45895</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>44872</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         <v>45554.64315972223</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>45895</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>45895</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>45005.50077546296</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
         <v>45896.85623842593</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>45833</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>45467.6122337963</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>45898</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>45588.81101851852</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>45903.36444444444</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5533,7 +5533,7 @@
         <v>45903.65700231482</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         <v>45902.39888888889</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         <v>45905.45289351852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         <v>45840.93423611111</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5761,7 +5761,7 @@
         <v>45840.92070601852</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>45840.92538194444</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         <v>45840.93229166666</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         <v>44326</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>45847.43163194445</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>45847.43075231482</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>45567.8855787037</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>44924.61912037037</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>45872</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>45872</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>45872</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>45930.61258101852</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>45931.48855324074</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>45336</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>45930.61149305556</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>45343.48984953704</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>45601.56552083333</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>45924</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>45934.58502314815</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>45924</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>45937.65501157408</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>45771</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>45667.50971064815</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>45645.90855324074</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>45938.62341435185</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>45334.87804398148</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>44792</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>45005.49668981481</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>45539.57060185185</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>45641.74975694445</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>45691.6000462963</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>45181.61869212963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>45964.45993055555</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>45601.59825231481</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>45772.50918981482</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>45692.98011574074</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>45673.4359837963</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         <v>45975.64869212963</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7927,7 +7927,7 @@
         <v>45558.44460648148</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>45535.70535879629</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
         <v>45987.40476851852</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>45987.40355324074</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         <v>45629.92240740741</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8212,7 +8212,7 @@
         <v>45992.66811342593</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8269,7 +8269,7 @@
         <v>46036.90234953703</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         <v>44862</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8383,7 +8383,7 @@
         <v>46036.90065972223</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8440,7 +8440,7 @@
         <v>46000.94983796297</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8497,7 +8497,7 @@
         <v>46000.95591435185</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8554,7 +8554,7 @@
         <v>46044.60348379629</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8611,7 +8611,7 @@
         <v>45161.73658564815</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8668,7 +8668,7 @@
         <v>45558.45</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8725,7 +8725,7 @@
         <v>45764.51478009259</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8782,7 +8782,7 @@
         <v>44931</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8839,7 +8839,7 @@
         <v>46056.69936342593</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8896,7 +8896,7 @@
         <v>45058</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
         <v>45726.52880787037</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         <v>45139</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9067,7 +9067,7 @@
         <v>46065.42722222222</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9124,7 +9124,7 @@
         <v>45155.26925925926</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9181,7 +9181,7 @@
         <v>45339.40619212963</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9238,7 +9238,7 @@
         <v>46070.39208333333</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9295,7 +9295,7 @@
         <v>44439.391875</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         <v>46070.68266203703</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9409,7 +9409,7 @@
         <v>45211</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9466,7 +9466,7 @@
         <v>45454.62754629629</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         <v>45548.81200231481</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9580,7 +9580,7 @@
         <v>45334</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9637,7 +9637,7 @@
         <v>45334.58319444444</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9714,7 +9714,7 @@
         <v>45523.6125</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9771,7 +9771,7 @@
         <v>44586.71618055556</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9828,7 +9828,7 @@
         <v>45541</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9885,7 +9885,7 @@
         <v>45450.4240625</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9942,7 +9942,7 @@
         <v>45183</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>44655</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>45044</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>45476.63284722222</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>45275</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>45511.61238425926</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>45524.3860300926</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>44319.41962962963</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>45198</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>44919.46138888889</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>44453</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>44899.875625</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>45014</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>45313.97175925926</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>45306</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10822,7 +10822,7 @@
         <v>45130</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10879,7 +10879,7 @@
         <v>45002</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
         <v>45790</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10993,7 +10993,7 @@
         <v>45791.53902777778</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11050,7 +11050,7 @@
         <v>45791.5340162037</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         <v>45742</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11164,7 +11164,7 @@
         <v>45718.64129629629</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11221,7 +11221,7 @@
         <v>45791.53978009259</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11278,7 +11278,7 @@
         <v>45736.48755787037</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11335,7 +11335,7 @@
         <v>45736.51413194444</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>45797</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>45523.60449074074</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>45574.61065972222</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         <v>45573.8249537037</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11620,7 +11620,7 @@
         <v>45812.52674768519</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11677,7 +11677,7 @@
         <v>45813.47424768518</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
